--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBADCE0D-36B2-41DD-92E4-72E372B76993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99334640-7728-4C54-8060-71F4DA939C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{EA640984-E762-481D-939B-DC90E5FB2D5B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EA640984-E762-481D-939B-DC90E5FB2D5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Startseite" sheetId="1" r:id="rId1"/>
     <sheet name="Brix_Daten" sheetId="2" r:id="rId2"/>
+    <sheet name="GeländerEdelstahl_Daten" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>System</t>
   </si>
@@ -88,6 +89,12 @@
   </si>
   <si>
     <t>120.00</t>
+  </si>
+  <si>
+    <t>GeländerEdelstahl_Daten</t>
+  </si>
+  <si>
+    <t>Edelstahlgeländer</t>
   </si>
 </sst>
 </file>
@@ -124,7 +131,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -147,16 +154,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -493,14 +514,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2C8611A-ECB4-401F-82BF-ED24AA06A8E0}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
     <col min="2" max="2" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -528,12 +550,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -545,7 +575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8290F5-964E-4A4D-AB22-815899945223}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -592,4 +622,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8823EE9D-8446-490B-816C-08D9242A7A40}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99334640-7728-4C54-8060-71F4DA939C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590120D0-4807-41FA-AE0F-3BF48075C68D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EA640984-E762-481D-939B-DC90E5FB2D5B}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{EA640984-E762-481D-939B-DC90E5FB2D5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Startseite" sheetId="1" r:id="rId1"/>
-    <sheet name="Brix_Daten" sheetId="2" r:id="rId2"/>
-    <sheet name="GeländerEdelstahl_Daten" sheetId="3" r:id="rId3"/>
+    <sheet name="Carport_Liste" sheetId="4" r:id="rId2"/>
+    <sheet name="Brix_Daten" sheetId="2" r:id="rId3"/>
+    <sheet name="GeländerEdelstahl_Daten" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>System</t>
   </si>
@@ -95,6 +96,21 @@
   </si>
   <si>
     <t>Edelstahlgeländer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carport </t>
+  </si>
+  <si>
+    <t>Qm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steher </t>
+  </si>
+  <si>
+    <t>Sanwich eindeckung</t>
+  </si>
+  <si>
+    <t>qm</t>
   </si>
 </sst>
 </file>
@@ -516,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2C8611A-ECB4-401F-82BF-ED24AA06A8E0}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,11 +588,70 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{924E8326-2C44-4008-94A7-1EBEB14EF31A}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8290F5-964E-4A4D-AB22-815899945223}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,7 +699,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8823EE9D-8446-490B-816C-08D9242A7A40}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590120D0-4807-41FA-AE0F-3BF48075C68D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EEBAA36-7524-4656-BCC8-CD773767B2F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{EA640984-E762-481D-939B-DC90E5FB2D5B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{EA640984-E762-481D-939B-DC90E5FB2D5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Startseite" sheetId="1" r:id="rId1"/>
@@ -38,8 +38,33 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="65">
+  <si>
+    <t>B</t>
+  </si>
   <si>
     <t>System</t>
   </si>
@@ -98,26 +123,146 @@
     <t>Edelstahlgeländer</t>
   </si>
   <si>
-    <t xml:space="preserve">Carport </t>
-  </si>
-  <si>
-    <t>Qm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Steher </t>
-  </si>
-  <si>
-    <t>Sanwich eindeckung</t>
-  </si>
-  <si>
-    <t>qm</t>
+    <t>Typ</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Zahl</t>
+  </si>
+  <si>
+    <t>Länge (m)</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Breite (m)</t>
+  </si>
+  <si>
+    <t>Höhe (m)</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Optionen</t>
+  </si>
+  <si>
+    <t>Auswahl</t>
+  </si>
+  <si>
+    <t>Oberfläche</t>
+  </si>
+  <si>
+    <t>O_Faktor</t>
+  </si>
+  <si>
+    <t>Formel / Info</t>
+  </si>
+  <si>
+    <t>Die Länge des Carports</t>
+  </si>
+  <si>
+    <t>Die Breite (Sparrenlänge)</t>
+  </si>
+  <si>
+    <t>Einfahrtshöhe</t>
+  </si>
+  <si>
+    <t>Stahlpreis pro kg (€)</t>
+  </si>
+  <si>
+    <t>P_Stahl</t>
+  </si>
+  <si>
+    <t>Trag hier deinen EK+Verschnitt ein (z.B. 2.5)</t>
+  </si>
+  <si>
+    <t>Dacheindeckung (€/m²)</t>
+  </si>
+  <si>
+    <t>D_Preis</t>
+  </si>
+  <si>
+    <t>Sandwich:50, EPDM:45, Blech:25, Bauseits:0</t>
+  </si>
+  <si>
+    <t>Preis pro m² Dachfläche</t>
+  </si>
+  <si>
+    <t>Verzinkt:1.50, Lackiert:2.20, KTL_Pulver:3.00</t>
+  </si>
+  <si>
+    <t>Faktor auf den Stahlpreis</t>
+  </si>
+  <si>
+    <t>Dachrinne</t>
+  </si>
+  <si>
+    <t>Rinne</t>
+  </si>
+  <si>
+    <t>Ja:45, Nein:0</t>
+  </si>
+  <si>
+    <t>Preis pro lfm Rinne (beidseitig gerechnet)</t>
+  </si>
+  <si>
+    <t>Wandanschluss</t>
+  </si>
+  <si>
+    <t>Wand</t>
+  </si>
+  <si>
+    <t>Ja:25, Nein:0</t>
+  </si>
+  <si>
+    <t>Preis pro lfm Länge</t>
+  </si>
+  <si>
+    <t>Kran Pauschale (€)</t>
+  </si>
+  <si>
+    <t>Kran</t>
+  </si>
+  <si>
+    <t>Pauschalpreis für Kran</t>
+  </si>
+  <si>
+    <t>Montage gewünscht?</t>
+  </si>
+  <si>
+    <t>Montage</t>
+  </si>
+  <si>
+    <t>Ja:1, Nein:0</t>
+  </si>
+  <si>
+    <t>Schaltet Montagekosten ein/aus</t>
+  </si>
+  <si>
+    <t>Fertigung/Montage (€/m²)</t>
+  </si>
+  <si>
+    <t>P_Arbeit</t>
+  </si>
+  <si>
+    <t>Preis pro m² Grundfläche für Arbeit</t>
+  </si>
+  <si>
+    <t>Gesamtpreis</t>
+  </si>
+  <si>
+    <t>(Siehe Formel unten)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,6 +278,19 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF444746"/>
+      <name val="Google Sans Text"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color rgb="FF1F1F1F"/>
       <name val="Arial"/>
@@ -185,7 +343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
@@ -194,6 +352,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -536,50 +700,50 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.140625" customWidth="1"/>
     <col min="2" max="2" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="30.75" thickBot="1">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="29.25" thickBot="1">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="29.25" thickBot="1">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" thickBot="1">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="28.5">
       <c r="A5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
         <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -589,56 +753,226 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{924E8326-2C44-4008-94A7-1EBEB14EF31A}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" customWidth="1"/>
+    <col min="5" max="5" width="36.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="30.75" thickBot="1">
       <c r="A1" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="57.75" thickBot="1">
+      <c r="A2" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="57.75" thickBot="1">
+      <c r="A3" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="72" thickBot="1">
+      <c r="A5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="64.5" thickBot="1">
+      <c r="A6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="77.25" thickBot="1">
+      <c r="A7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="86.25" thickBot="1">
+      <c r="A8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>45</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="43.5" thickBot="1">
+      <c r="A9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="43.5" thickBot="1">
+      <c r="A10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="57.75" thickBot="1">
+      <c r="A11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="72" thickBot="1">
+      <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="4" t="e" cm="1">
+        <f t="array" ref="C13">((L * 2 * 26 + (L + 1) * B * 15 + 4 * H * 15) * P_Stahl * O_Faktor) + (L * B * D_Preis) + (L * 2 * Rinne) + (L * Wand) + Kran + (L * B * P_Arbeit * Montage)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -654,44 +988,44 @@
       <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.28515625" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="30.75" thickBot="1">
       <c r="A1" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="29.25" thickBot="1">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="29.25" thickBot="1">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -701,12 +1035,53 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8823EE9D-8446-490B-816C-08D9242A7A40}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="30.75" thickBot="1">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="29.25" thickBot="1">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="29.25" thickBot="1">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EEBAA36-7524-4656-BCC8-CD773767B2F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D406FC-49CC-4611-B3A2-307328F4D9A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{EA640984-E762-481D-939B-DC90E5FB2D5B}"/>
   </bookViews>
@@ -150,6 +150,9 @@
     <t>Optionen</t>
   </si>
   <si>
+    <t>Formel</t>
+  </si>
+  <si>
     <t>Auswahl</t>
   </si>
   <si>
@@ -157,9 +160,6 @@
   </si>
   <si>
     <t>O_Faktor</t>
-  </si>
-  <si>
-    <t>Formel / Info</t>
   </si>
   <si>
     <t>Die Länge des Carports</t>
@@ -756,7 +756,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -767,7 +767,7 @@
     <col min="5" max="5" width="36.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30.75" thickBot="1">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -781,7 +781,7 @@
         <v>28</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="57.75" thickBot="1">
@@ -846,7 +846,7 @@
     </row>
     <row r="6" spans="1:5" ht="64.5" thickBot="1">
       <c r="A6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>39</v>
@@ -863,13 +863,13 @@
     </row>
     <row r="7" spans="1:5" ht="77.25" thickBot="1">
       <c r="A7" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>43</v>
@@ -880,7 +880,7 @@
     </row>
     <row r="8" spans="1:5" ht="86.25" thickBot="1">
       <c r="A8" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>45</v>
@@ -897,7 +897,7 @@
     </row>
     <row r="9" spans="1:5" ht="43.5" thickBot="1">
       <c r="A9" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>49</v>
@@ -929,7 +929,7 @@
     </row>
     <row r="11" spans="1:5" ht="57.75" thickBot="1">
       <c r="A11" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>56</v>

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D406FC-49CC-4611-B3A2-307328F4D9A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A483B1-F4FF-42B6-A919-D93FF684A78C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{EA640984-E762-481D-939B-DC90E5FB2D5B}"/>
   </bookViews>
@@ -255,7 +255,7 @@
     <t>Gesamtpreis</t>
   </si>
   <si>
-    <t>(Siehe Formel unten)</t>
+    <t>((L * 2 * 26 + (L + 1) * B * 15 + 4 * H * 15) * P_Stahl * O_Faktor) + (L * B * D_Preis) + (L * 2 * Rinne) + (L * Wand) + Kran + (L * B * P_Arbeit * Montage)</t>
   </si>
 </sst>
 </file>
@@ -755,8 +755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{924E8326-2C44-4008-94A7-1EBEB14EF31A}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -959,7 +959,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1">
+    <row r="13" spans="1:5" ht="75.75" thickBot="1">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A483B1-F4FF-42B6-A919-D93FF684A78C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA03D56-3FC5-4111-A27C-F315244B8151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{EA640984-E762-481D-939B-DC90E5FB2D5B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{EA640984-E762-481D-939B-DC90E5FB2D5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Startseite" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="91">
   <si>
     <t>B</t>
   </si>
@@ -162,6 +162,12 @@
     <t>O_Faktor</t>
   </si>
   <si>
+    <t>Endpreis</t>
+  </si>
+  <si>
+    <t>Formel / Info</t>
+  </si>
+  <si>
     <t>Die Länge des Carports</t>
   </si>
   <si>
@@ -256,6 +262,78 @@
   </si>
   <si>
     <t>((L * 2 * 26 + (L + 1) * B * 15 + 4 * H * 15) * P_Stahl * O_Faktor) + (L * B * D_Preis) + (L * 2 * Rinne) + (L * Wand) + Kran + (L * B * P_Arbeit * Montage)</t>
+  </si>
+  <si>
+    <t>Länge des Geländers (lfm)</t>
+  </si>
+  <si>
+    <t>Anzahl Ecken (Stk)</t>
+  </si>
+  <si>
+    <t>Ecken</t>
+  </si>
+  <si>
+    <t>Profil-Type (Steher/Handlauf)</t>
+  </si>
+  <si>
+    <t>P_Basis</t>
+  </si>
+  <si>
+    <t>Rund 42.4mm:100, Rund 48.3mm:120, Quadrat 40x40:110, Quadrat 50x50:140</t>
+  </si>
+  <si>
+    <t>Basispreis für Steher/Handlauf pro Meter</t>
+  </si>
+  <si>
+    <t>Füllung</t>
+  </si>
+  <si>
+    <t>P_Full</t>
+  </si>
+  <si>
+    <t>Stäbe Horizontal (OIB prüfen!):40, Stäbe Vertikal:120, Glas VSG Klar:180, Glas VSG Matt:200, Seile:30, Lochblech:140</t>
+  </si>
+  <si>
+    <t>Preis der Füllung pro Meter</t>
+  </si>
+  <si>
+    <t>Montageart</t>
+  </si>
+  <si>
+    <t>P_Mount</t>
+  </si>
+  <si>
+    <t>Von Oben (Boden):0, Von Seite (Stirn):25</t>
+  </si>
+  <si>
+    <t>Aufpreis pro Meter für Seitenmontage</t>
+  </si>
+  <si>
+    <t>Deckenblende / Verblendung</t>
+  </si>
+  <si>
+    <t>P_Blende</t>
+  </si>
+  <si>
+    <t>Keine:0, Alu-Blende:50, Edelstahl-Blende:90</t>
+  </si>
+  <si>
+    <t>Preis pro Meter für Rand-Abdeckung</t>
+  </si>
+  <si>
+    <t>M_Faktor</t>
+  </si>
+  <si>
+    <t>Montagepreis (€/lfm)</t>
+  </si>
+  <si>
+    <t>M_Preis</t>
+  </si>
+  <si>
+    <t>Dein Satz für Montage pro Meter</t>
+  </si>
+  <si>
+    <t>(L * (P_Basis + P_Full + P_Mount + P_Blende)) + (Ecken * 100) + (L * M_Preis * M_Faktor)</t>
   </si>
 </sst>
 </file>
@@ -755,8 +833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{924E8326-2C44-4008-94A7-1EBEB14EF31A}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -796,7 +874,7 @@
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="57.75" thickBot="1">
@@ -811,7 +889,7 @@
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="29.25" thickBot="1">
@@ -826,7 +904,7 @@
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="72" thickBot="1">
@@ -834,14 +912,14 @@
         <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="64.5" thickBot="1">
@@ -849,16 +927,16 @@
         <v>30</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="77.25" thickBot="1">
@@ -872,10 +950,10 @@
         <v>32</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="86.25" thickBot="1">
@@ -883,16 +961,16 @@
         <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="43.5" thickBot="1">
@@ -900,16 +978,16 @@
         <v>30</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="43.5" thickBot="1">
@@ -917,14 +995,14 @@
         <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="57.75" thickBot="1">
@@ -932,16 +1010,16 @@
         <v>30</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="72" thickBot="1">
@@ -949,14 +1027,14 @@
         <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="75.75" thickBot="1">
@@ -964,7 +1042,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C13" s="4" t="e" cm="1">
         <f t="array" ref="C13">((L * 2 * 26 + (L + 1) * B * 15 + 4 * H * 15) * P_Stahl * O_Faktor) + (L * B * D_Preis) + (L * 2 * Rinne) + (L * Wand) + Kran + (L * B * P_Arbeit * Montage)</f>
@@ -972,7 +1050,7 @@
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1035,51 +1113,197 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8823EE9D-8446-490B-816C-08D9242A7A40}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" customWidth="1"/>
+    <col min="5" max="5" width="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30.75" thickBot="1">
+    <row r="1" spans="1:5" ht="30.75" thickBot="1">
       <c r="A1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="43.5" thickBot="1">
+      <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" ht="115.5" thickBot="1">
+      <c r="A4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="179.25" thickBot="1">
+      <c r="A5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="51.75" thickBot="1">
+      <c r="A6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="64.5" thickBot="1">
+      <c r="A7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="29.25" thickBot="1">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="29.25" thickBot="1">
-      <c r="A3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="B10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A11" s="2"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA03D56-3FC5-4111-A27C-F315244B8151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27AF58A-3390-4F3F-A2A2-4ED8C9F1E17E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{EA640984-E762-481D-939B-DC90E5FB2D5B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EA640984-E762-481D-939B-DC90E5FB2D5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Startseite" sheetId="1" r:id="rId1"/>
@@ -774,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2C8611A-ECB4-401F-82BF-ED24AA06A8E0}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1115,7 +1115,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8823EE9D-8446-490B-816C-08D9242A7A40}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27AF58A-3390-4F3F-A2A2-4ED8C9F1E17E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FB263B-0315-499D-9ED8-6336A4288EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EA640984-E762-481D-939B-DC90E5FB2D5B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{EA640984-E762-481D-939B-DC90E5FB2D5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Startseite" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="93">
   <si>
     <t>B</t>
   </si>
@@ -165,9 +165,6 @@
     <t>Endpreis</t>
   </si>
   <si>
-    <t>Formel / Info</t>
-  </si>
-  <si>
     <t>Die Länge des Carports</t>
   </si>
   <si>
@@ -324,16 +321,25 @@
     <t>M_Faktor</t>
   </si>
   <si>
-    <t>Montagepreis (€/lfm)</t>
-  </si>
-  <si>
     <t>M_Preis</t>
   </si>
   <si>
     <t>Dein Satz für Montage pro Meter</t>
   </si>
   <si>
-    <t>(L * (P_Basis + P_Full + P_Mount + P_Blende)) + (Ecken * 100) + (L * M_Preis * M_Faktor)</t>
+    <t>Farbe</t>
+  </si>
+  <si>
+    <t>P_Farbe</t>
+  </si>
+  <si>
+    <t>Aufpreis pro Meter für Farbe</t>
+  </si>
+  <si>
+    <t>Montage Stunden</t>
+  </si>
+  <si>
+    <t>(L * (P_Basis + P_Full + P_Mount + P_Blende)) + (Ecken * 100) + (65 * M_Preis * M_Faktor) + ( L * P_Farbe)</t>
   </si>
 </sst>
 </file>
@@ -774,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2C8611A-ECB4-401F-82BF-ED24AA06A8E0}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -874,7 +880,7 @@
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="57.75" thickBot="1">
@@ -889,7 +895,7 @@
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="29.25" thickBot="1">
@@ -904,7 +910,7 @@
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="72" thickBot="1">
@@ -912,14 +918,14 @@
         <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="64.5" thickBot="1">
@@ -927,16 +933,16 @@
         <v>30</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="77.25" thickBot="1">
@@ -950,10 +956,10 @@
         <v>32</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="86.25" thickBot="1">
@@ -961,16 +967,16 @@
         <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="43.5" thickBot="1">
@@ -978,16 +984,16 @@
         <v>30</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="43.5" thickBot="1">
@@ -995,14 +1001,14 @@
         <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="57.75" thickBot="1">
@@ -1010,16 +1016,16 @@
         <v>30</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="72" thickBot="1">
@@ -1027,14 +1033,14 @@
         <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="75.75" thickBot="1">
@@ -1042,7 +1048,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C13" s="4" t="e" cm="1">
         <f t="array" ref="C13">((L * 2 * 26 + (L + 1) * B * 15 + 4 * H * 15) * P_Stahl * O_Faktor) + (L * B * D_Preis) + (L * 2 * Rinne) + (L * Wand) + Kran + (L * B * P_Arbeit * Montage)</f>
@@ -1050,7 +1056,7 @@
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1113,22 +1119,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8823EE9D-8446-490B-816C-08D9242A7A40}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="24.28515625" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="32.85546875" customWidth="1"/>
-    <col min="5" max="5" width="43" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="47.7109375" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="30.75" thickBot="1">
+    <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -1142,15 +1141,15 @@
         <v>28</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="43.5" thickBot="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>24</v>
@@ -1158,152 +1157,167 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="29.25" thickBot="1">
+    <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="115.5" thickBot="1">
+    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="179.25" thickBot="1">
+    </row>
+    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="51.75" thickBot="1">
+    </row>
+    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A6" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="64.5" thickBot="1">
+    </row>
+    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="29.25" thickBot="1">
+    </row>
+    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A8" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" ht="29.25" thickBot="1">
-      <c r="A9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="D10" s="1"/>
+      <c r="E10" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A10" s="2" t="s">
+    </row>
+    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="B11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A11" s="2"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1">
+      <c r="D11" s="1"/>
+      <c r="E11" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A12" s="2"/>
       <c r="B12" s="1"/>
       <c r="C12" s="4"/>
-      <c r="D12" s="1"/>
+      <c r="D12" s="4"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1">
+    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
+      <c r="B13" s="1"/>
       <c r="C13" s="4"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,20 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E36F24F-A732-42CF-9D75-985E111299A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C624E7F-8F11-4E53-A592-BEE408E0E67F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Startseite" sheetId="1" r:id="rId1"/>
-    <sheet name="Carport_Liste" sheetId="8" r:id="rId2"/>
-    <sheet name="GeländerEdelstahl_Daten" sheetId="9" r:id="rId3"/>
-    <sheet name="Brix_Stab" sheetId="2" r:id="rId4"/>
-    <sheet name="Brix_Flaechig" sheetId="3" r:id="rId5"/>
-    <sheet name="Brix_Latten" sheetId="4" r:id="rId6"/>
-    <sheet name="Brix_Horizontal" sheetId="5" r:id="rId7"/>
-    <sheet name="Brix_Glas" sheetId="6" r:id="rId8"/>
-    <sheet name="Brix_Extras" sheetId="7" r:id="rId9"/>
+    <sheet name="GeländerEdelstahl_Daten" sheetId="13" r:id="rId2"/>
+    <sheet name="Carport_Liste" sheetId="12" r:id="rId3"/>
+    <sheet name="Brix_Gel_Stab" sheetId="2" r:id="rId4"/>
+    <sheet name="Brix_Gel_Flaechig" sheetId="3" r:id="rId5"/>
+    <sheet name="Brix_Gel_Glas" sheetId="4" r:id="rId6"/>
+    <sheet name="Brix_Zaun_Stab" sheetId="5" r:id="rId7"/>
+    <sheet name="Brix_Zaun_Sicht" sheetId="6" r:id="rId8"/>
+    <sheet name="Brix_Tore" sheetId="7" r:id="rId9"/>
+    <sheet name="Brix_Schiebe" sheetId="8" r:id="rId10"/>
+    <sheet name="Draht_Matten" sheetId="9" r:id="rId11"/>
+    <sheet name="Draht_Mix" sheetId="10" r:id="rId12"/>
+    <sheet name="Extras" sheetId="11" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -63,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="179">
   <si>
     <t>System</t>
   </si>
@@ -71,40 +75,64 @@
     <t>Blattname</t>
   </si>
   <si>
-    <t>1. Stab-Optik (Decor, Staketen)</t>
-  </si>
-  <si>
-    <t>Brix_Stab</t>
-  </si>
-  <si>
-    <t>2. Flächige Optik (Perforée, Flat)</t>
-  </si>
-  <si>
-    <t>Brix_Flaechig</t>
-  </si>
-  <si>
-    <t>3. Latten &amp; Palisaden</t>
-  </si>
-  <si>
-    <t>Brix_Latten</t>
-  </si>
-  <si>
-    <t>4. Horizontal-Design</t>
-  </si>
-  <si>
-    <t>Brix_Horizontal</t>
-  </si>
-  <si>
-    <t>5. Glas-Geländer</t>
-  </si>
-  <si>
-    <t>Brix_Glas</t>
-  </si>
-  <si>
-    <t>6. Zubehör &amp; Extras</t>
-  </si>
-  <si>
-    <t>Brix_Extras</t>
+    <t>1. Alu-Geländer Stab (Decor, Staketen)</t>
+  </si>
+  <si>
+    <t>Brix_Gel_Stab</t>
+  </si>
+  <si>
+    <t>2. Alu-Geländer Flächig</t>
+  </si>
+  <si>
+    <t>Brix_Gel_Flaechig</t>
+  </si>
+  <si>
+    <t>3. Alu-Geländer Glas</t>
+  </si>
+  <si>
+    <t>Brix_Gel_Glas</t>
+  </si>
+  <si>
+    <t>4. Alu-Zaun Stab &amp; Latten</t>
+  </si>
+  <si>
+    <t>Brix_Zaun_Stab</t>
+  </si>
+  <si>
+    <t>5. Alu-Zaun Sichtschutz (Lamello)</t>
+  </si>
+  <si>
+    <t>Brix_Zaun_Sicht</t>
+  </si>
+  <si>
+    <t>6. Alu-Tore (Gehtür &amp; 2-Flügel)</t>
+  </si>
+  <si>
+    <t>Brix_Tore</t>
+  </si>
+  <si>
+    <t>7. Alu-Schiebetore</t>
+  </si>
+  <si>
+    <t>Brix_Schiebe</t>
+  </si>
+  <si>
+    <t>8. Draht-Gittermatten (Doppelstab)</t>
+  </si>
+  <si>
+    <t>Draht_Matten</t>
+  </si>
+  <si>
+    <t>9. Draht-Geflecht &amp; Stein</t>
+  </si>
+  <si>
+    <t>Draht_Mix</t>
+  </si>
+  <si>
+    <t>10. Zubehör &amp; Extras</t>
+  </si>
+  <si>
+    <t>Extras</t>
   </si>
   <si>
     <t>Typ</t>
@@ -125,7 +153,7 @@
     <t>Zahl</t>
   </si>
   <si>
-    <t>Länge des Geländers (m)</t>
+    <t>Länge (m)</t>
   </si>
   <si>
     <t>L</t>
@@ -140,7 +168,7 @@
     <t>P_Modell</t>
   </si>
   <si>
-    <t>Decor 22 (Stäbe eng):204, Decor 60 (Stäbe weit):204, Staketen 40mm:169, Staketen 60mm:169, Staketen 22mm:169, Verti.Sign (Kantig):207</t>
+    <t>Decor 22 (Stäbe eng):204, Decor 60 (Stäbe weit):204, Staketen 40mm:169, Staketen 60mm:169, Verti.Sign (Kantig):207</t>
   </si>
   <si>
     <t>Farbe</t>
@@ -152,31 +180,22 @@
     <t>Standard (STF):1.0, Sonder (SOF):1.10, Spezial (SPF):1.30</t>
   </si>
   <si>
-    <t>Montageart Steher</t>
+    <t>Montage Steher</t>
   </si>
   <si>
     <t>P_Steher</t>
   </si>
   <si>
-    <t>Aufsatzmontage (Boden):125, Seitenmontage (Wand):161</t>
-  </si>
-  <si>
-    <t>Verlauf</t>
-  </si>
-  <si>
-    <t>P_Form</t>
-  </si>
-  <si>
-    <t>Gerade:0, Schräg (Treppe):32</t>
-  </si>
-  <si>
-    <t>Anzahl Ecken (90°)</t>
+    <t>Aufsatz (Boden):125, Seite (Wand):161</t>
+  </si>
+  <si>
+    <t>Anzahl Ecken</t>
   </si>
   <si>
     <t>Ecken</t>
   </si>
   <si>
-    <t>Montage &amp; Arbeit (€/m)</t>
+    <t>Montage (€/m)</t>
   </si>
   <si>
     <t>P_Arbeit</t>
@@ -191,79 +210,202 @@
     <t>Endpreis</t>
   </si>
   <si>
-    <t>((P_Modell + P_Form) * L * F_Faktor) + ((math.ceil(L/1.3)+1) * P_Steher * F_Faktor) + (Ecken * 95) + (L * P_Arbeit)</t>
-  </si>
-  <si>
-    <t>Modell-Basis</t>
-  </si>
-  <si>
-    <t>Decor-Perforée (Lochblech):250, Staket-on-Flat (Stab+Blech):255, Flat-Design (Rahmenlos):265</t>
-  </si>
-  <si>
-    <t>Füllung Material</t>
+    <t>(P_Modell * L * F_Faktor) + ((math.ceil(L/1.3)+1) * P_Steher * F_Faktor) + (Ecken * 95) + (L * P_Arbeit)</t>
+  </si>
+  <si>
+    <t>P_System</t>
+  </si>
+  <si>
+    <t>Glasal (Rahmen):307, Glasalo (Seitlich):284, Glas-Klemmen:180</t>
+  </si>
+  <si>
+    <t>Glas-Füllung</t>
+  </si>
+  <si>
+    <t>P_Glas</t>
+  </si>
+  <si>
+    <t>VSG Klar:130, VSG Matt:165</t>
+  </si>
+  <si>
+    <t>Standard:1.0, Sonder:1.10</t>
+  </si>
+  <si>
+    <t>Aufsatz:125, Seite:161</t>
+  </si>
+  <si>
+    <t>((P_System + P_Glas) * L * F_Faktor) + ((math.ceil(L/1.3)+1) * P_Steher * F_Faktor) + (Ecken * 110) + (L * P_Arbeit)</t>
+  </si>
+  <si>
+    <t>Länge des Zauns (m)</t>
+  </si>
+  <si>
+    <t>Zaun-Modell</t>
+  </si>
+  <si>
+    <t>Decor 22 (Stäbe):180, Latten Classic:190, Palisaden:175, Inquer (Querstäbe):200</t>
+  </si>
+  <si>
+    <t>Höhe</t>
+  </si>
+  <si>
+    <t>H_Faktor</t>
+  </si>
+  <si>
+    <t>H 800-1000mm:1.0, H 1000-1200mm:1.2, H 1200-1500mm:1.4</t>
+  </si>
+  <si>
+    <t>Aufpreis für Höhe</t>
+  </si>
+  <si>
+    <t>Standard (STF):1.0, Sonder (SOF):1.10, Holzdekor:1.4</t>
+  </si>
+  <si>
+    <t>Säulen-Befestigung</t>
+  </si>
+  <si>
+    <t>P_Saeule</t>
+  </si>
+  <si>
+    <t>Zum Einbetonieren:85, Mit Dübelplatte:110</t>
+  </si>
+  <si>
+    <t>Stückpreis Alu-Säule</t>
+  </si>
+  <si>
+    <t>(P_Modell * H_Faktor * L * F_Faktor) + ((math.ceil(L/2.0)+1) * P_Saeule * F_Faktor) + (L * P_Arbeit)</t>
+  </si>
+  <si>
+    <t>Lamello (Blickdicht):290, Listello (Waagrecht):280, Platten-Füllung:260</t>
+  </si>
+  <si>
+    <t>H 1000mm:1.0, H 1250mm:1.25, H 1500mm:1.5, H 1800mm (Sichtschutz):1.8</t>
+  </si>
+  <si>
+    <t>Säulen (Stabil)</t>
+  </si>
+  <si>
+    <t>Zum Einbetonieren:120, Mit Dübelplatte:150</t>
+  </si>
+  <si>
+    <t>(P_Modell * H_Faktor * L * F_Faktor) + ((math.ceil(L/1.8)+1) * P_Saeule * F_Faktor) + (L * P_Arbeit)</t>
+  </si>
+  <si>
+    <t>Tor Typ</t>
+  </si>
+  <si>
+    <t>P_Basis</t>
+  </si>
+  <si>
+    <t>Gehtür 1-Flg (ca 1m):950, Zweiflügel-Tor (ca 3m):2200, Zweiflügel-Tor (ca 4m):2600</t>
+  </si>
+  <si>
+    <t>Füllung</t>
   </si>
   <si>
     <t>P_Full</t>
   </si>
   <si>
-    <t>Standard Lochblech/Vollblech:0, Acrylglas satiniert:0, Noppenblech:0</t>
-  </si>
-  <si>
-    <t>Aufsatzmontage:125, Seitenmontage:161</t>
-  </si>
-  <si>
-    <t>Anzahl Ecken</t>
-  </si>
-  <si>
-    <t>((P_Modell + P_Full + P_Form) * L * F_Faktor) + ((math.ceil(L/1.3)+1) * P_Steher * F_Faktor) + (Ecken * 95) + (L * P_Arbeit)</t>
-  </si>
-  <si>
-    <t>Latte Classic (Aufliegend):206, Latten Füllung (Innen):210, Palisaden (Rundstab):180, Paliquadra (Eckig):218</t>
-  </si>
-  <si>
-    <t>Standard (STF):1.0, Sonder (SOF):1.10, Holzdekor:1.4</t>
-  </si>
-  <si>
-    <t>Gerade:0, Schräg:30</t>
-  </si>
-  <si>
-    <t>Staketto (Zwischen Steher):221, Frontline (Vor Steher):210, Lamello (Schräglamelle):221, Inquer (Stab 19x40):190</t>
-  </si>
-  <si>
-    <t>Standard (STF):1.0, Sonder (SOF):1.10</t>
-  </si>
-  <si>
-    <t>Gerade:0, Schräg (max 6 Grad!):35</t>
-  </si>
-  <si>
-    <t>((P_Modell + P_Form) * L * F_Faktor) + ((math.ceil(L/1.3)+1) * P_Steher * F_Faktor) + (Ecken * 105) + (L * P_Arbeit)</t>
-  </si>
-  <si>
-    <t>System-Typ</t>
-  </si>
-  <si>
-    <t>P_System</t>
-  </si>
-  <si>
-    <t>Glasal (Rahmen oben/unten):307, Glasalo (Rahmen seitlich):284, Glas-Clips (Punktgehalten):170, Glas-Klemmen (Eckig):180</t>
-  </si>
-  <si>
-    <t>Glas-Füllung (VSG 10)</t>
-  </si>
-  <si>
-    <t>P_Glas</t>
-  </si>
-  <si>
-    <t>VSG Klar Rechteckig:130, VSG Matt Rechteckig:165, VSG Klar Schräg:220, VSG Matt Schräg:260</t>
-  </si>
-  <si>
-    <t>Farbe Rahmen</t>
-  </si>
-  <si>
-    <t>Gerade:0, Schräg:45</t>
-  </si>
-  <si>
-    <t>((P_System + P_Glas + P_Form) * L * F_Faktor) + ((math.ceil(L/1.3)+1) * P_Steher * F_Faktor) + (Ecken * 110) + (L * P_Arbeit)</t>
+    <t>Stab/Latten (Standard):0, Lamello (Sichtschutz):350</t>
+  </si>
+  <si>
+    <t>Aufpreis Pauschal</t>
+  </si>
+  <si>
+    <t>Antrieb / E-Öffner</t>
+  </si>
+  <si>
+    <t>P_Antrieb</t>
+  </si>
+  <si>
+    <t>Manuell (Schloss/Riegel):0, E-Öffner (für Gehtür):150, E-Antrieb Set (für 2-Flg Tor):1250</t>
+  </si>
+  <si>
+    <t>Anzahl</t>
+  </si>
+  <si>
+    <t>Menge</t>
+  </si>
+  <si>
+    <t>Montage (Pauschal €)</t>
+  </si>
+  <si>
+    <t>P_Montage</t>
+  </si>
+  <si>
+    <t>((P_Basis + P_Full) * F_Faktor * Menge) + (P_Antrieb * Menge) + P_Montage</t>
+  </si>
+  <si>
+    <t>Durchfahrtslichte (m)</t>
+  </si>
+  <si>
+    <t>H 1000:1.0, H 1250:1.1, H 1500:1.25</t>
+  </si>
+  <si>
+    <t>Modell-Basis (Preis/m)</t>
+  </si>
+  <si>
+    <t>Schiebetor C-Profil (Stab/Latte):1400, Schiebetor C-Profil (Sichtschutz):1600</t>
+  </si>
+  <si>
+    <t>Basispreis pro Meter Lichte (inkl. Laufwerk)</t>
+  </si>
+  <si>
+    <t>E-Antrieb Paket</t>
+  </si>
+  <si>
+    <t>Ohne (Manuell):0, E-Antrieb Set (Motor, Licht, LS):1450</t>
+  </si>
+  <si>
+    <t>Fundament/Montage Pauschale</t>
+  </si>
+  <si>
+    <t>(P_Modell * L * H_Faktor * F_Faktor) + P_Antrieb + P_Montage</t>
+  </si>
+  <si>
+    <t>Matte H</t>
+  </si>
+  <si>
+    <t>P_Matte</t>
+  </si>
+  <si>
+    <t>H 1030 (Leicht):22, H 1230 (Leicht):26, H 1030 (Schwer):32</t>
+  </si>
+  <si>
+    <t>Säule</t>
+  </si>
+  <si>
+    <t>Klemmhalter:35, Abdeckleiste:45</t>
+  </si>
+  <si>
+    <t>Montageart</t>
+  </si>
+  <si>
+    <t>P_Fund</t>
+  </si>
+  <si>
+    <t>Betonieren:0, Dübelplatte:18</t>
+  </si>
+  <si>
+    <t>(L * P_Matte) + ((math.ceil(L/2.5)+1) * (P_Saeule + P_Fund)) + (L * P_Arbeit)</t>
+  </si>
+  <si>
+    <t>P_Typ</t>
+  </si>
+  <si>
+    <t>Geflecht 150cm:18, Steinkorb 15cm:180</t>
+  </si>
+  <si>
+    <t>Zubehör/Steine (pro m)</t>
+  </si>
+  <si>
+    <t>P_Zub</t>
+  </si>
+  <si>
+    <t>Standard:20, Steinfüllung:150</t>
+  </si>
+  <si>
+    <t>L * (P_Typ + P_Zub + P_Arbeit)</t>
   </si>
   <si>
     <t>Artikel</t>
@@ -272,13 +414,7 @@
     <t>P_Art</t>
   </si>
   <si>
-    <t>Wand-Handlauf SideRail:70, Blumenkasten 85cm:135, Blumenkasten 115cm:156, Blumenkasten 165cm:192</t>
-  </si>
-  <si>
-    <t>Menge / Länge</t>
-  </si>
-  <si>
-    <t>Menge</t>
+    <t>Handlauf:70, Briefkasten:150, Paketbox:300</t>
   </si>
   <si>
     <t>Gesamt</t>
@@ -299,9 +435,6 @@
     <t>GeländerEdelstahl_Daten</t>
   </si>
   <si>
-    <t>Länge (m)</t>
-  </si>
-  <si>
     <t>Die Länge des Carports</t>
   </si>
   <si>
@@ -419,25 +552,16 @@
     <t>Profil-Type (Steher/Handlauf)</t>
   </si>
   <si>
-    <t>P_Basis</t>
-  </si>
-  <si>
     <t>Rund 42.4mm:100, Rund 48.3mm:120, Quadrat 40x40:110, Quadrat 50x50:140</t>
   </si>
   <si>
     <t>Basispreis für Steher/Handlauf pro Meter</t>
   </si>
   <si>
-    <t>Füllung</t>
-  </si>
-  <si>
     <t>Stäbe Horizontal (OIB prüfen!):40, Stäbe Vertikal:120, Glas VSG Klar:180, Glas VSG Matt:200, Seile:30, Lochblech:140</t>
   </si>
   <si>
     <t>Preis der Füllung pro Meter</t>
-  </si>
-  <si>
-    <t>Montageart</t>
   </si>
   <si>
     <t>P_Mount</t>
@@ -895,10 +1019,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -961,26 +1085,446 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -989,234 +1533,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ABAD219-0D6A-4DCD-967A-FC6E475EBDE7}">
-  <dimension ref="A1:E13"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="50.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="30.75" thickBot="1">
-      <c r="A1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="29.25" thickBot="1">
-      <c r="A2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="29.25" thickBot="1">
-      <c r="A3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="43.5" thickBot="1">
-      <c r="A5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="43.5" thickBot="1">
-      <c r="A6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="39" thickBot="1">
-      <c r="A7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="29.25" thickBot="1">
-      <c r="A8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="29.25" thickBot="1">
-      <c r="A9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="43.5" thickBot="1">
-      <c r="A10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="43.5" thickBot="1">
-      <c r="A11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="43.5" thickBot="1">
-      <c r="A12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="60.75" thickBot="1">
-      <c r="A13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="4" t="e" cm="1">
-        <f t="array" ref="C13">((L * 2 * 26 + (L + 1) * B * 15 + 4 * H * 15) * P_Stahl * O_Faktor) + (L * B * D_Preis) + (L * 2 * Rinne) + (L * Wand) + Kran + (L * B * P_Arbeit * Montage)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAD04AEE-9717-4B5B-B85B-BFA56E7F1B03}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58CE89F1-BD65-4638-9CA6-FCBAD4BF5660}">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1232,173 +1549,400 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1">
       <c r="A1" s="2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="29.25" thickBot="1">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>115</v>
+        <v>158</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>116</v>
+        <v>159</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" ht="51.75" thickBot="1">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>117</v>
+        <v>160</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>118</v>
+        <v>75</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>119</v>
+        <v>161</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>120</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="64.5" thickBot="1">
       <c r="A5" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>123</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="29.25" thickBot="1">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>125</v>
+        <v>165</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>126</v>
+        <v>166</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="29.25" thickBot="1">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>131</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>108</v>
+        <v>151</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>110</v>
+        <v>153</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="5" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="5" t="s">
-        <v>137</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="60.75" thickBot="1">
       <c r="A11" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334E6073-66E9-4A34-879A-CE4F3EC58D17}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="50.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="30.75" thickBot="1">
+      <c r="A1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="43.5" thickBot="1">
+      <c r="A5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="43.5" thickBot="1">
+      <c r="A6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="39" thickBot="1">
+      <c r="A7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>138</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="43.5" thickBot="1">
+      <c r="A10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="43.5" thickBot="1">
+      <c r="A11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="43.5" thickBot="1">
+      <c r="A12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="60.75" thickBot="1">
+      <c r="A13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="4" t="e" cm="1">
+        <f t="array" ref="C13">((L * 2 * 26 + (L + 1) * B * 15 + 4 * H * 15) * P_Stahl * O_Faktor) + (L * B * D_Preis) + (L * 2 * Rinne) + (L * Wand) + Kran + (L * B * P_Arbeit * Montage)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="2" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -1408,7 +1952,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1416,122 +1960,108 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" t="s">
-        <v>42</v>
+        <v>46</v>
+      </c>
+      <c r="E8" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1541,7 +2071,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1549,136 +2079,108 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" t="s">
-        <v>50</v>
+        <v>46</v>
+      </c>
+      <c r="E8" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1696,55 +2198,55 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
         <v>52</v>
@@ -1752,66 +2254,66 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1821,7 +2323,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1829,122 +2331,117 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>61</v>
+      </c>
+      <c r="E4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>66</v>
+      </c>
+      <c r="E6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" t="s">
-        <v>57</v>
+        <v>46</v>
+      </c>
+      <c r="E8" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1954,7 +2451,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1962,136 +2459,111 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" t="s">
-        <v>66</v>
+        <v>46</v>
+      </c>
+      <c r="E8" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2101,7 +2573,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2109,58 +2581,114 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>78</v>
+      </c>
+      <c r="D3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" t="s">
-        <v>73</v>
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C624E7F-8F11-4E53-A592-BEE408E0E67F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89DF3679-FCE3-4F18-AEC7-B01000F78931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Startseite" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="182">
   <si>
     <t>System</t>
   </si>
@@ -384,12 +384,6 @@
     <t>P_Fund</t>
   </si>
   <si>
-    <t>Betonieren:0, Dübelplatte:18</t>
-  </si>
-  <si>
-    <t>(L * P_Matte) + ((math.ceil(L/2.5)+1) * (P_Saeule + P_Fund)) + (L * P_Arbeit)</t>
-  </si>
-  <si>
     <t>P_Typ</t>
   </si>
   <si>
@@ -604,6 +598,21 @@
   </si>
   <si>
     <t>(L * (P_Basis + P_Full + P_Mount + P_Blende)) + (Ecken * 100) + (65 * M_Preis * M_Faktor) + ( L * P_Farbe)</t>
+  </si>
+  <si>
+    <t>Konsolen</t>
+  </si>
+  <si>
+    <t>Schwer:50, leicht:30</t>
+  </si>
+  <si>
+    <t>Betonieren:0, Konsole:1</t>
+  </si>
+  <si>
+    <t>(L * P_Matte) + ((math.ceil(L/2.5)+1) * (P_Saeule + (P_Fund*P_Konsole))) + (L * P_Arbeit)</t>
+  </si>
+  <si>
+    <t>P_Konsolen</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1030,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="C7" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -1117,18 +1126,18 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1263,11 +1272,17 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
@@ -1336,32 +1351,46 @@
         <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>105</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>177</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>181</v>
+      </c>
+      <c r="D6" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
         <v>44</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>45</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>46</v>
       </c>
-      <c r="E7" t="s">
-        <v>106</v>
+      <c r="E8" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -1413,10 +1442,10 @@
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1424,13 +1453,13 @@
         <v>30</v>
       </c>
       <c r="B4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" t="s">
         <v>109</v>
-      </c>
-      <c r="C4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D4" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1455,7 +1484,7 @@
         <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1493,13 +1522,13 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" t="s">
         <v>113</v>
-      </c>
-      <c r="C2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1518,13 +1547,13 @@
         <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C4" t="s">
         <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1569,7 +1598,7 @@
         <v>27</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>29</v>
@@ -1582,7 +1611,7 @@
         <v>27</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>41</v>
@@ -1595,16 +1624,16 @@
         <v>30</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="64.5" thickBot="1">
@@ -1618,10 +1647,10 @@
         <v>78</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="29.25" thickBot="1">
@@ -1632,13 +1661,13 @@
         <v>103</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>165</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="29.25" thickBot="1">
@@ -1646,16 +1675,16 @@
         <v>30</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="E7" s="5" t="s">
         <v>169</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1">
@@ -1663,13 +1692,13 @@
         <v>30</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>153</v>
       </c>
       <c r="E8" s="3"/>
     </row>
@@ -1681,11 +1710,11 @@
         <v>34</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1">
@@ -1693,14 +1722,14 @@
         <v>27</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="60.75" thickBot="1">
@@ -1715,7 +1744,7 @@
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -1766,7 +1795,7 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="29.25" thickBot="1">
@@ -1774,14 +1803,14 @@
         <v>27</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1">
@@ -1789,14 +1818,14 @@
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="43.5" thickBot="1">
@@ -1804,14 +1833,14 @@
         <v>27</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="43.5" thickBot="1">
@@ -1819,16 +1848,16 @@
         <v>30</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="E6" s="5" t="s">
         <v>133</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="39" thickBot="1">
@@ -1836,16 +1865,16 @@
         <v>30</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="E7" s="5" t="s">
         <v>137</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="29.25" thickBot="1">
@@ -1853,16 +1882,16 @@
         <v>30</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="E8" s="5" t="s">
         <v>141</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="29.25" thickBot="1">
@@ -1870,16 +1899,16 @@
         <v>30</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="E9" s="5" t="s">
         <v>145</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="43.5" thickBot="1">
@@ -1887,14 +1916,14 @@
         <v>27</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="43.5" thickBot="1">
@@ -1902,16 +1931,16 @@
         <v>30</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="E11" s="5" t="s">
         <v>152</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="43.5" thickBot="1">
@@ -1919,14 +1948,14 @@
         <v>27</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>43</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="60.75" thickBot="1">
@@ -1942,7 +1971,7 @@
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89DF3679-FCE3-4F18-AEC7-B01000F78931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06392824-B26F-4530-BF35-DBFD10BA14A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -609,10 +609,10 @@
     <t>Betonieren:0, Konsole:1</t>
   </si>
   <si>
-    <t>(L * P_Matte) + ((math.ceil(L/2.5)+1) * (P_Saeule + (P_Fund*P_Konsole))) + (L * P_Arbeit)</t>
-  </si>
-  <si>
     <t>P_Konsolen</t>
+  </si>
+  <si>
+    <t>(L * P_Matte) + ((math.ceil(L/2.5)+1) * (P_Saeule + (P_Fund*P_Konsolen))) + (L * P_Arbeit)</t>
   </si>
 </sst>
 </file>
@@ -1275,7 +1275,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1362,7 +1362,7 @@
         <v>177</v>
       </c>
       <c r="C6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D6" t="s">
         <v>178</v>
@@ -1390,7 +1390,7 @@
         <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06392824-B26F-4530-BF35-DBFD10BA14A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FFE38A-017F-4804-8C19-0E61519FC64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="184">
   <si>
     <t>System</t>
   </si>
@@ -606,13 +606,19 @@
     <t>Schwer:50, leicht:30</t>
   </si>
   <si>
-    <t>Betonieren:0, Konsole:1</t>
-  </si>
-  <si>
     <t>P_Konsolen</t>
   </si>
   <si>
     <t>(L * P_Matte) + ((math.ceil(L/2.5)+1) * (P_Saeule + (P_Fund*P_Konsolen))) + (L * P_Arbeit)</t>
+  </si>
+  <si>
+    <t>Beton</t>
+  </si>
+  <si>
+    <t>P_Beton</t>
+  </si>
+  <si>
+    <t>Betonieren:P_Beton, Konsole:1</t>
   </si>
 </sst>
 </file>
@@ -1272,10 +1278,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1351,7 +1357,7 @@
         <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1362,7 +1368,7 @@
         <v>177</v>
       </c>
       <c r="C6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D6" t="s">
         <v>178</v>
@@ -1373,24 +1379,38 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>181</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>182</v>
+      </c>
+      <c r="D7">
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
         <v>44</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>45</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>46</v>
       </c>
-      <c r="E8" t="s">
-        <v>181</v>
+      <c r="E9" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FFE38A-017F-4804-8C19-0E61519FC64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9022A79E-3AEF-43DF-AFB0-B770D13917AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="182">
   <si>
     <t>System</t>
   </si>
@@ -612,13 +612,7 @@
     <t>(L * P_Matte) + ((math.ceil(L/2.5)+1) * (P_Saeule + (P_Fund*P_Konsolen))) + (L * P_Arbeit)</t>
   </si>
   <si>
-    <t>Beton</t>
-  </si>
-  <si>
-    <t>P_Beton</t>
-  </si>
-  <si>
-    <t>Betonieren:P_Beton, Konsole:1</t>
+    <t>Betonieren:9, Konsole:1</t>
   </si>
 </sst>
 </file>
@@ -1278,10 +1272,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1357,7 +1351,7 @@
         <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1379,37 +1373,23 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>181</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>182</v>
-      </c>
-      <c r="D7">
-        <v>9</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" t="s">
         <v>46</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E8" t="s">
         <v>180</v>
       </c>
     </row>

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9022A79E-3AEF-43DF-AFB0-B770D13917AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707FABE4-DEF5-4D7A-896C-B8B0E9028016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="184">
   <si>
     <t>System</t>
   </si>
@@ -381,9 +381,6 @@
     <t>Montageart</t>
   </si>
   <si>
-    <t>P_Fund</t>
-  </si>
-  <si>
     <t>P_Typ</t>
   </si>
   <si>
@@ -609,10 +606,19 @@
     <t>P_Konsolen</t>
   </si>
   <si>
-    <t>(L * P_Matte) + ((math.ceil(L/2.5)+1) * (P_Saeule + (P_Fund*P_Konsolen))) + (L * P_Arbeit)</t>
-  </si>
-  <si>
-    <t>Betonieren:9, Konsole:1</t>
+    <t>Preis pro Sack Beton (€)</t>
+  </si>
+  <si>
+    <t>P_Sack</t>
+  </si>
+  <si>
+    <t>Ist_Beton</t>
+  </si>
+  <si>
+    <t>Betonieren:1, Konsole:0</t>
+  </si>
+  <si>
+    <t>(L * P_Matte_Lfm * F_Faktor) + ((math.ceil(L/2.5)+1) * ( (P_Saeule * F_Faktor) + (Ist_Beton * 2 * P_Sack) + ((1-Ist_Beton) * P_Konsole * F_Faktor) )) + (Ecken * 30) + (L * P_Arbeit)</t>
   </si>
 </sst>
 </file>
@@ -1126,18 +1132,18 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" t="s">
         <v>116</v>
-      </c>
-      <c r="B12" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" t="s">
         <v>118</v>
-      </c>
-      <c r="B13" t="s">
-        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1272,14 +1278,15 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
     <col min="3" max="3" width="15.140625" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
   </cols>
@@ -1348,49 +1355,60 @@
         <v>103</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>181</v>
       </c>
       <c r="D5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C6" t="s">
-        <v>179</v>
-      </c>
-      <c r="D6" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>176</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>178</v>
+      </c>
+      <c r="D7" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
         <v>44</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>45</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>46</v>
       </c>
-      <c r="E8" t="s">
-        <v>180</v>
+      <c r="E9" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -1442,10 +1460,10 @@
         <v>22</v>
       </c>
       <c r="C3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" t="s">
         <v>105</v>
-      </c>
-      <c r="D3" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1453,13 +1471,13 @@
         <v>30</v>
       </c>
       <c r="B4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" t="s">
         <v>107</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>108</v>
-      </c>
-      <c r="D4" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1484,7 +1502,7 @@
         <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1522,13 +1540,13 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" t="s">
         <v>111</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>112</v>
-      </c>
-      <c r="D2" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1547,13 +1565,13 @@
         <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C4" t="s">
         <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1598,7 +1616,7 @@
         <v>27</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>29</v>
@@ -1611,7 +1629,7 @@
         <v>27</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>41</v>
@@ -1624,16 +1642,16 @@
         <v>30</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>159</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="64.5" thickBot="1">
@@ -1647,10 +1665,10 @@
         <v>78</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>161</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="29.25" thickBot="1">
@@ -1661,13 +1679,13 @@
         <v>103</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="5" t="s">
         <v>164</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="29.25" thickBot="1">
@@ -1675,16 +1693,16 @@
         <v>30</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="5" t="s">
         <v>168</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1">
@@ -1692,13 +1710,13 @@
         <v>30</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E8" s="3"/>
     </row>
@@ -1710,11 +1728,11 @@
         <v>34</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1">
@@ -1722,14 +1740,14 @@
         <v>27</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>174</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="60.75" thickBot="1">
@@ -1744,7 +1762,7 @@
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -1795,7 +1813,7 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="29.25" thickBot="1">
@@ -1803,14 +1821,14 @@
         <v>27</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1">
@@ -1818,14 +1836,14 @@
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="43.5" thickBot="1">
@@ -1833,14 +1851,14 @@
         <v>27</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>128</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="43.5" thickBot="1">
@@ -1848,16 +1866,16 @@
         <v>30</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="5" t="s">
         <v>132</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="39" thickBot="1">
@@ -1865,16 +1883,16 @@
         <v>30</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="5" t="s">
         <v>136</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="29.25" thickBot="1">
@@ -1882,16 +1900,16 @@
         <v>30</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="29.25" thickBot="1">
@@ -1899,16 +1917,16 @@
         <v>30</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="5" t="s">
         <v>144</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="43.5" thickBot="1">
@@ -1916,14 +1934,14 @@
         <v>27</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>147</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="43.5" thickBot="1">
@@ -1931,16 +1949,16 @@
         <v>30</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="5" t="s">
         <v>151</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="43.5" thickBot="1">
@@ -1948,14 +1966,14 @@
         <v>27</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>43</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="60.75" thickBot="1">
@@ -1971,7 +1989,7 @@
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60AF41BF-7B09-44BE-849F-020D4161E213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D277C9-C487-4573-BD89-26C184048B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Startseite" sheetId="1" r:id="rId1"/>
@@ -23,14 +23,15 @@
     <sheet name="Brix_Schiebe" sheetId="8" r:id="rId8"/>
     <sheet name="Draht_Matten" sheetId="9" r:id="rId9"/>
     <sheet name="Draht_Mix" sheetId="10" r:id="rId10"/>
-    <sheet name="Extras" sheetId="11" r:id="rId11"/>
+    <sheet name="Stahl_Treppe" sheetId="12" r:id="rId11"/>
+    <sheet name="Extras" sheetId="11" r:id="rId12"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="147">
   <si>
     <t>System</t>
   </si>
@@ -372,6 +373,105 @@
   </si>
   <si>
     <t>P_Art * Menge</t>
+  </si>
+  <si>
+    <t>Stahl-Wangentreppe</t>
+  </si>
+  <si>
+    <t>Stahl_Treppe</t>
+  </si>
+  <si>
+    <t>Formel / Info</t>
+  </si>
+  <si>
+    <t>Geschoßhöhe (m)</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Treppenbreite (B)</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>800mm:0.8, 1000mm:1.0, 1200mm:1.2</t>
+  </si>
+  <si>
+    <t>Definiert Breite für Podest</t>
+  </si>
+  <si>
+    <t>Gitterrost-Stufe (Verzinkt)</t>
+  </si>
+  <si>
+    <t>P_Stufe</t>
+  </si>
+  <si>
+    <t>MW 30x30 (Standard):40, MW 30x10 (Fein):55, MW 30x30 (1200 breit):65</t>
+  </si>
+  <si>
+    <t>Preis pro Stufe</t>
+  </si>
+  <si>
+    <t>Wangen-Profil (lfm)</t>
+  </si>
+  <si>
+    <t>P_Wange</t>
+  </si>
+  <si>
+    <t>Flachstahl 10-12mm:60, U-Profil 200:85, C-Profil:110</t>
+  </si>
+  <si>
+    <t>Preis pro Meter Wange</t>
+  </si>
+  <si>
+    <t>Oberfläche Wangen</t>
+  </si>
+  <si>
+    <t>Verzinkt:1.0, Pulverbeschichtet:1.3, Roh:0.9</t>
+  </si>
+  <si>
+    <t>Aufschlag nur auf Wangen</t>
+  </si>
+  <si>
+    <t>Podest-Länge (m)</t>
+  </si>
+  <si>
+    <t>L_Podest</t>
+  </si>
+  <si>
+    <t>Breite wird oben (B) genommen</t>
+  </si>
+  <si>
+    <t>Podest-Belag (€/qm)</t>
+  </si>
+  <si>
+    <t>P_Rost</t>
+  </si>
+  <si>
+    <t>Gitterrost 30x30:80, Gitterrost 30x10:120, Tränenblech:90</t>
+  </si>
+  <si>
+    <t>Stundensatz (€)</t>
+  </si>
+  <si>
+    <t>P_Satz</t>
+  </si>
+  <si>
+    <t>Gib hier 75 ein</t>
+  </si>
+  <si>
+    <t>Montagematerial (Pauschale)</t>
+  </si>
+  <si>
+    <t>P_Mat</t>
+  </si>
+  <si>
+    <t>Schrauben, Dübel etc.</t>
+  </si>
+  <si>
+    <t>(math.ceil(H/0.18) * P_Stufe) + ((H * 1.8 * 2) * P_Wange * F_Faktor) + (L_Podest * B * P_Rost) + ((H/2.7) * 12 * P_Satz) + P_Mat</t>
   </si>
 </sst>
 </file>
@@ -734,11 +834,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -826,6 +931,14 @@
       </c>
       <c r="B11" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -928,6 +1041,192 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75802A93-9DDB-410C-A649-39DCDAB300CE}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="53.42578125" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" t="s">
+        <v>141</v>
+      </c>
+      <c r="E9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -1859,7 +2158,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D277C9-C487-4573-BD89-26C184048B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A87448-7E04-4BE7-A2A8-2C50029B7BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Startseite" sheetId="1" r:id="rId1"/>
@@ -420,18 +420,12 @@
     <t>P_Wange</t>
   </si>
   <si>
-    <t>Flachstahl 10-12mm:60, U-Profil 200:85, C-Profil:110</t>
-  </si>
-  <si>
     <t>Preis pro Meter Wange</t>
   </si>
   <si>
     <t>Oberfläche Wangen</t>
   </si>
   <si>
-    <t>Verzinkt:1.0, Pulverbeschichtet:1.3, Roh:0.9</t>
-  </si>
-  <si>
     <t>Aufschlag nur auf Wangen</t>
   </si>
   <si>
@@ -450,9 +444,6 @@
     <t>P_Rost</t>
   </si>
   <si>
-    <t>Gitterrost 30x30:80, Gitterrost 30x10:120, Tränenblech:90</t>
-  </si>
-  <si>
     <t>Stundensatz (€)</t>
   </si>
   <si>
@@ -471,7 +462,16 @@
     <t>Schrauben, Dübel etc.</t>
   </si>
   <si>
-    <t>(math.ceil(H/0.18) * P_Stufe) + ((H * 1.8 * 2) * P_Wange * F_Faktor) + (L_Podest * B * P_Rost) + ((H/2.7) * 12 * P_Satz) + P_Mat</t>
+    <t>Gitterrost 30x30:150, Gitterrost 30x10:170, Tränenblech:150</t>
+  </si>
+  <si>
+    <t>Verzinkt:1.0, Pulverbeschichtet:2, Roh:0.9</t>
+  </si>
+  <si>
+    <t>Flachstahl 10-12mm:120, U-Profil 200:150, C-Profil:160</t>
+  </si>
+  <si>
+    <t>(math.ceil(H/0.18) * P_Stufe * 1.2) + ((H * 1.8 * 2) * P_Wange * F_Faktor * 1.3) + (L_Podest * B * P_Rost) + ((H/2.7) * 20 * P_Satz) + P_Mat</t>
   </si>
 </sst>
 </file>
@@ -1044,8 +1044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75802A93-9DDB-410C-A649-39DCDAB300CE}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1128,10 +1128,10 @@
         <v>128</v>
       </c>
       <c r="D5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E5" t="s">
         <v>129</v>
-      </c>
-      <c r="E5" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1139,16 +1139,16 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C6" t="s">
         <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="E6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1156,13 +1156,13 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E7" t="s">
         <v>134</v>
-      </c>
-      <c r="C7" t="s">
-        <v>135</v>
-      </c>
-      <c r="E7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1170,13 +1170,13 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D8" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1184,13 +1184,13 @@
         <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1198,13 +1198,13 @@
         <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C10" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E10" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A87448-7E04-4BE7-A2A8-2C50029B7BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F3BDAC-C7CC-416E-B0B7-D38DDB758D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -462,16 +462,16 @@
     <t>Schrauben, Dübel etc.</t>
   </si>
   <si>
-    <t>Gitterrost 30x30:150, Gitterrost 30x10:170, Tränenblech:150</t>
-  </si>
-  <si>
     <t>Verzinkt:1.0, Pulverbeschichtet:2, Roh:0.9</t>
   </si>
   <si>
-    <t>Flachstahl 10-12mm:120, U-Profil 200:150, C-Profil:160</t>
-  </si>
-  <si>
     <t>(math.ceil(H/0.18) * P_Stufe * 1.2) + ((H * 1.8 * 2) * P_Wange * F_Faktor * 1.3) + (L_Podest * B * P_Rost) + ((H/2.7) * 20 * P_Satz) + P_Mat</t>
+  </si>
+  <si>
+    <t>Flachstahl 10-12mm:220, U-Profil 200:250, C-Profil:260</t>
+  </si>
+  <si>
+    <t>Gitterrost 30x30:170, Gitterrost 30x10:190, Tränenblech:180</t>
   </si>
 </sst>
 </file>
@@ -1045,7 +1045,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1145,7 +1145,7 @@
         <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E6" t="s">
         <v>131</v>
@@ -1176,7 +1176,7 @@
         <v>136</v>
       </c>
       <c r="D8" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1218,7 +1218,7 @@
         <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F3BDAC-C7CC-416E-B0B7-D38DDB758D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054F1A2F-22E0-4BFA-91FB-75597796D20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="144">
   <si>
     <t>System</t>
   </si>
@@ -444,15 +444,6 @@
     <t>P_Rost</t>
   </si>
   <si>
-    <t>Stundensatz (€)</t>
-  </si>
-  <si>
-    <t>P_Satz</t>
-  </si>
-  <si>
-    <t>Gib hier 75 ein</t>
-  </si>
-  <si>
     <t>Montagematerial (Pauschale)</t>
   </si>
   <si>
@@ -465,13 +456,13 @@
     <t>Verzinkt:1.0, Pulverbeschichtet:2, Roh:0.9</t>
   </si>
   <si>
-    <t>(math.ceil(H/0.18) * P_Stufe * 1.2) + ((H * 1.8 * 2) * P_Wange * F_Faktor * 1.3) + (L_Podest * B * P_Rost) + ((H/2.7) * 20 * P_Satz) + P_Mat</t>
-  </si>
-  <si>
     <t>Flachstahl 10-12mm:220, U-Profil 200:250, C-Profil:260</t>
   </si>
   <si>
     <t>Gitterrost 30x30:170, Gitterrost 30x10:190, Tränenblech:180</t>
+  </si>
+  <si>
+    <t>(math.ceil(H/0.18) * P_Stufe * 1.2) + ((H * 1.8 * 2) * P_Wange * F_Faktor * 1.3) + (L_Podest * B * P_Rost) + ((H/2.7) * 20 * 75) + P_Mat</t>
   </si>
 </sst>
 </file>
@@ -1042,10 +1033,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75802A93-9DDB-410C-A649-39DCDAB300CE}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1128,7 +1119,7 @@
         <v>128</v>
       </c>
       <c r="D5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E5" t="s">
         <v>129</v>
@@ -1145,7 +1136,7 @@
         <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E6" t="s">
         <v>131</v>
@@ -1176,7 +1167,7 @@
         <v>136</v>
       </c>
       <c r="D8" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1195,30 +1186,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>140</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>141</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054F1A2F-22E0-4BFA-91FB-75597796D20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7454DD82-A7F9-4A31-BE04-827FCB44EA12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="3465" windowWidth="21600" windowHeight="11295" firstSheet="7" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Startseite" sheetId="1" r:id="rId1"/>
@@ -23,15 +23,16 @@
     <sheet name="Brix_Schiebe" sheetId="8" r:id="rId8"/>
     <sheet name="Draht_Matten" sheetId="9" r:id="rId9"/>
     <sheet name="Draht_Mix" sheetId="10" r:id="rId10"/>
-    <sheet name="Stahl_Treppe" sheetId="12" r:id="rId11"/>
-    <sheet name="Extras" sheetId="11" r:id="rId12"/>
+    <sheet name="Stahl_Treppe" sheetId="11" r:id="rId11"/>
+    <sheet name="Extras" sheetId="12" r:id="rId12"/>
+    <sheet name="Eigen_Edelstahl" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="106">
   <si>
     <t>System</t>
   </si>
@@ -93,12 +94,24 @@
     <t>Draht_Mix</t>
   </si>
   <si>
-    <t>10. Zubehör &amp; Extras</t>
+    <t>10. Stahl-Wangentreppe</t>
+  </si>
+  <si>
+    <t>Stahl_Treppe</t>
+  </si>
+  <si>
+    <t>11. Zubehör &amp; Extras</t>
   </si>
   <si>
     <t>Extras</t>
   </si>
   <si>
+    <t>12. Edelstahl-Geländer (Eigen)</t>
+  </si>
+  <si>
+    <t>Eigen_Edelstahl</t>
+  </si>
+  <si>
     <t>Typ</t>
   </si>
   <si>
@@ -132,7 +145,7 @@
     <t>P_Modell</t>
   </si>
   <si>
-    <t>Decor 22 (Stäbe eng):204, Decor 60 (Stäbe weit):204, Staketen 40mm:169, Staketen 60mm:169, Verti.Sign:207</t>
+    <t>Decor 22:204, Staketen:169</t>
   </si>
   <si>
     <t>Farbe</t>
@@ -141,7 +154,7 @@
     <t>F_Faktor</t>
   </si>
   <si>
-    <t>Standard:1.0, Sonder:1.10, Spezial:1.30</t>
+    <t>Standard:1.0, Sonder:1.10</t>
   </si>
   <si>
     <t>Montage Steher</t>
@@ -150,319 +163,193 @@
     <t>P_Steher</t>
   </si>
   <si>
-    <t>Aufsatz (Boden):125, Seite (Wand):161</t>
+    <t>Aufsatz:125, Seite:161</t>
+  </si>
+  <si>
+    <t>Ecken</t>
+  </si>
+  <si>
+    <t>Montage (€/m)</t>
+  </si>
+  <si>
+    <t>P_Arbeit</t>
+  </si>
+  <si>
+    <t>Preis</t>
+  </si>
+  <si>
+    <t>Gesamtpreis</t>
+  </si>
+  <si>
+    <t>Endpreis</t>
+  </si>
+  <si>
+    <t>(P_Modell * L * F_Faktor) + ((math.ceil(L/1.3)+1) * P_Steher * F_Faktor) + (Ecken * 95) + (L * P_Arbeit)</t>
+  </si>
+  <si>
+    <t>Preis/Sack Beton (€)</t>
+  </si>
+  <si>
+    <t>P_Sack</t>
+  </si>
+  <si>
+    <t>Konsole Typ</t>
+  </si>
+  <si>
+    <t>P_Konsole</t>
+  </si>
+  <si>
+    <t>---:0, Leicht:15, Schwer:45</t>
+  </si>
+  <si>
+    <t>Montage-Art</t>
+  </si>
+  <si>
+    <t>Ist_Beton</t>
+  </si>
+  <si>
+    <t>Einbetonieren:1, Aufdübeln:0</t>
+  </si>
+  <si>
+    <t>Matte Höhe</t>
+  </si>
+  <si>
+    <t>P_Matte</t>
+  </si>
+  <si>
+    <t>H 1030:22, H 1230:26</t>
+  </si>
+  <si>
+    <t>Säulen-Typ</t>
+  </si>
+  <si>
+    <t>P_Saeule</t>
+  </si>
+  <si>
+    <t>Klemmhalter:35</t>
+  </si>
+  <si>
+    <t>Verzinkt:1.0, Farbe:1.15</t>
+  </si>
+  <si>
+    <t>(L * P_Matte * F_Faktor) + ((math.ceil(L/2.5)+1) * ((P_Saeule * F_Faktor) + (Ist_Beton * 2 * P_Sack) + ((1-Ist_Beton) * P_Konsole))) + (L * P_Arbeit)</t>
+  </si>
+  <si>
+    <t>Geschoßhöhe (m)</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Treppenbreite (B)</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>800mm:0.8, 1000mm:1.0, 1200mm:1.2</t>
+  </si>
+  <si>
+    <t>Gitterrost-Stufe</t>
+  </si>
+  <si>
+    <t>P_Stufe</t>
+  </si>
+  <si>
+    <t>MW 30x30:40, MW 30x10:55</t>
+  </si>
+  <si>
+    <t>Wangen-Profil (lfm)</t>
+  </si>
+  <si>
+    <t>P_Wange</t>
+  </si>
+  <si>
+    <t>Flachstahl:60, U-Profil:85</t>
+  </si>
+  <si>
+    <t>Oberfläche Wangen</t>
+  </si>
+  <si>
+    <t>Verzinkt:1.0, Pulver:1.3</t>
+  </si>
+  <si>
+    <t>Podest-Länge (m)</t>
+  </si>
+  <si>
+    <t>L_Podest</t>
+  </si>
+  <si>
+    <t>Podest-Belag (€/qm)</t>
+  </si>
+  <si>
+    <t>P_Rost</t>
+  </si>
+  <si>
+    <t>Gitterrost:80, Tränenblech:90</t>
+  </si>
+  <si>
+    <t>Stundensatz (€)</t>
+  </si>
+  <si>
+    <t>P_Satz</t>
+  </si>
+  <si>
+    <t>Montagematerial</t>
+  </si>
+  <si>
+    <t>P_Mat</t>
+  </si>
+  <si>
+    <t>(math.ceil(H/0.18) * P_Stufe) + ((H * 1.8 * 2) * P_Wange * F_Faktor) + (L_Podest * B * P_Rost) + ((H/2.7) * 12 * P_Satz) + P_Mat</t>
+  </si>
+  <si>
+    <t>Dummy</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Länge des Geländers (m)</t>
+  </si>
+  <si>
+    <t>Relinggeländer 5 Stäbe:240, Relinggeländer 7 Stäbe:260, Glasgeländer (V2A+VSG):450, Nur Handlauf V2A:85</t>
+  </si>
+  <si>
+    <t>Meterpreis Material</t>
+  </si>
+  <si>
+    <t>Steher-Profil</t>
+  </si>
+  <si>
+    <t>Rundrohr 42.4mm:90, Quadratrohr 40x40mm:110, Flachstahlsteher:130</t>
+  </si>
+  <si>
+    <t>Stückpreis</t>
+  </si>
+  <si>
+    <t>Montageart Steher</t>
+  </si>
+  <si>
+    <t>P_Montageart</t>
+  </si>
+  <si>
+    <t>Aufgeschraubt (Boden):0, Stirnseitig (Wand):35</t>
+  </si>
+  <si>
+    <t>Aufpreis pro Steher</t>
   </si>
   <si>
     <t>Anzahl Ecken</t>
   </si>
   <si>
-    <t>Ecken</t>
-  </si>
-  <si>
-    <t>Montage (€/m)</t>
-  </si>
-  <si>
-    <t>P_Arbeit</t>
-  </si>
-  <si>
-    <t>Preis</t>
-  </si>
-  <si>
-    <t>Gesamtpreis</t>
-  </si>
-  <si>
-    <t>Endpreis</t>
-  </si>
-  <si>
-    <t>(P_Modell * L * F_Faktor) + ((math.ceil(L/1.3)+1) * P_Steher * F_Faktor) + (Ecken * 95) + (L * P_Arbeit)</t>
-  </si>
-  <si>
-    <t>P_System</t>
-  </si>
-  <si>
-    <t>Glasal:307, Glasalo:284, Glas-Klemmen:180</t>
-  </si>
-  <si>
-    <t>Glas-Füllung</t>
-  </si>
-  <si>
-    <t>P_Glas</t>
-  </si>
-  <si>
-    <t>VSG Klar:130, VSG Matt:165</t>
-  </si>
-  <si>
-    <t>Standard:1.0, Sonder:1.10</t>
-  </si>
-  <si>
-    <t>Aufsatz:125, Seite:161</t>
-  </si>
-  <si>
-    <t>((P_System + P_Glas) * L * F_Faktor) + ((math.ceil(L/1.3)+1) * P_Steher * F_Faktor) + (Ecken * 110) + (L * P_Arbeit)</t>
-  </si>
-  <si>
-    <t>Decor 22:180, Latten Classic:190, Palisaden:175, Inquer:200</t>
-  </si>
-  <si>
-    <t>Höhe</t>
-  </si>
-  <si>
-    <t>H_Faktor</t>
-  </si>
-  <si>
-    <t>H 800-1000:1.0, H 1000-1200:1.2, H 1200-1500:1.4</t>
-  </si>
-  <si>
-    <t>Standard:1.0, Sonder:1.10, Holz:1.4</t>
-  </si>
-  <si>
-    <t>Säule</t>
-  </si>
-  <si>
-    <t>P_Saeule</t>
-  </si>
-  <si>
-    <t>Betonieren:85, Dübeln:110</t>
-  </si>
-  <si>
-    <t>(P_Modell * H_Faktor * L * F_Faktor) + ((math.ceil(L/2.0)+1) * P_Saeule * F_Faktor) + (L * P_Arbeit)</t>
-  </si>
-  <si>
-    <t>Lamello:290, Listello:280, Platten:260</t>
-  </si>
-  <si>
-    <t>H 1000:1.0, H 1250:1.25, H 1500:1.5, H 1800:1.8</t>
-  </si>
-  <si>
-    <t>Betonieren:120, Dübeln:150</t>
-  </si>
-  <si>
-    <t>(P_Modell * H_Faktor * L * F_Faktor) + ((math.ceil(L/1.8)+1) * P_Saeule * F_Faktor) + (L * P_Arbeit)</t>
-  </si>
-  <si>
-    <t>P_Basis</t>
-  </si>
-  <si>
-    <t>Gehtür (1m):950, 2-Flg Tor (3m):2200, 2-Flg Tor (4m):2600</t>
-  </si>
-  <si>
-    <t>Füllung</t>
-  </si>
-  <si>
-    <t>P_Full</t>
-  </si>
-  <si>
-    <t>Stab/Latten:0, Sichtschutz:350</t>
-  </si>
-  <si>
-    <t>Antrieb</t>
-  </si>
-  <si>
-    <t>P_Antrieb</t>
-  </si>
-  <si>
-    <t>Manuell:0, E-Öffner:150, E-Antrieb Set:1250</t>
-  </si>
-  <si>
-    <t>Anzahl</t>
-  </si>
-  <si>
-    <t>Menge</t>
-  </si>
-  <si>
-    <t>Montage (Pauschal)</t>
-  </si>
-  <si>
-    <t>P_Montage</t>
-  </si>
-  <si>
-    <t>((P_Basis + P_Full) * F_Faktor * Menge) + (P_Antrieb * Menge) + P_Montage</t>
-  </si>
-  <si>
-    <t>Durchfahrtslichte (m)</t>
-  </si>
-  <si>
-    <t>H 1000:1.0, H 1250:1.1, H 1500:1.25</t>
-  </si>
-  <si>
-    <t>C-Profil Stab:1400, C-Profil Sichtschutz:1600</t>
-  </si>
-  <si>
-    <t>Manuell:0, E-Antrieb Set:1450</t>
-  </si>
-  <si>
-    <t>Fundament/Montage Pauschale</t>
-  </si>
-  <si>
-    <t>(P_Modell * L * H_Faktor * F_Faktor) + P_Antrieb + P_Montage</t>
-  </si>
-  <si>
-    <t>Preis/Sack Beton (€)</t>
-  </si>
-  <si>
-    <t>P_Sack</t>
-  </si>
-  <si>
-    <t>Konsole Typ (wenn Dübeln)</t>
-  </si>
-  <si>
-    <t>P_Konsole</t>
-  </si>
-  <si>
-    <t>---:0, Leicht:15, Mittel:25, Schwer:45</t>
-  </si>
-  <si>
-    <t>Montage-Art</t>
-  </si>
-  <si>
-    <t>Ist_Beton</t>
-  </si>
-  <si>
-    <t>Einbetonieren:1, Aufdübeln:0</t>
-  </si>
-  <si>
-    <t>Matte Höhe</t>
-  </si>
-  <si>
-    <t>P_Matte</t>
-  </si>
-  <si>
-    <t>H 830:18, H 1030:22, H 1230:26, H 1430:31</t>
-  </si>
-  <si>
-    <t>Säulen-Typ</t>
-  </si>
-  <si>
-    <t>Klemmhalter:35, Abdeckleiste:45</t>
-  </si>
-  <si>
-    <t>Verzinkt:1.0, Farbe:1.15</t>
-  </si>
-  <si>
-    <t>(L * P_Matte * F_Faktor) + ((math.ceil(L/2.5)+1) * ((P_Saeule * F_Faktor) + (Ist_Beton * 2 * P_Sack) + ((1-Ist_Beton) * P_Konsole))) + (L * P_Arbeit)</t>
-  </si>
-  <si>
-    <t>P_Typ</t>
-  </si>
-  <si>
-    <t>Geflecht 150cm:18, Steinkorb 15cm:180</t>
-  </si>
-  <si>
-    <t>Zubehör/Steine</t>
-  </si>
-  <si>
-    <t>P_Zub</t>
-  </si>
-  <si>
-    <t>Standard:20, Steinfüllung:150</t>
-  </si>
-  <si>
-    <t>L * (P_Typ + P_Zub + P_Arbeit)</t>
-  </si>
-  <si>
-    <t>Artikel</t>
-  </si>
-  <si>
-    <t>P_Art</t>
-  </si>
-  <si>
-    <t>Handlauf:70, Briefkasten:150, Paketbox:300</t>
-  </si>
-  <si>
-    <t>Gesamt</t>
-  </si>
-  <si>
-    <t>P_Art * Menge</t>
-  </si>
-  <si>
-    <t>Stahl-Wangentreppe</t>
-  </si>
-  <si>
-    <t>Stahl_Treppe</t>
-  </si>
-  <si>
-    <t>Formel / Info</t>
-  </si>
-  <si>
-    <t>Geschoßhöhe (m)</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>Treppenbreite (B)</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>800mm:0.8, 1000mm:1.0, 1200mm:1.2</t>
-  </si>
-  <si>
-    <t>Definiert Breite für Podest</t>
-  </si>
-  <si>
-    <t>Gitterrost-Stufe (Verzinkt)</t>
-  </si>
-  <si>
-    <t>P_Stufe</t>
-  </si>
-  <si>
-    <t>MW 30x30 (Standard):40, MW 30x10 (Fein):55, MW 30x30 (1200 breit):65</t>
-  </si>
-  <si>
-    <t>Preis pro Stufe</t>
-  </si>
-  <si>
-    <t>Wangen-Profil (lfm)</t>
-  </si>
-  <si>
-    <t>P_Wange</t>
-  </si>
-  <si>
-    <t>Preis pro Meter Wange</t>
-  </si>
-  <si>
-    <t>Oberfläche Wangen</t>
-  </si>
-  <si>
-    <t>Aufschlag nur auf Wangen</t>
-  </si>
-  <si>
-    <t>Podest-Länge (m)</t>
-  </si>
-  <si>
-    <t>L_Podest</t>
-  </si>
-  <si>
-    <t>Breite wird oben (B) genommen</t>
-  </si>
-  <si>
-    <t>Podest-Belag (€/qm)</t>
-  </si>
-  <si>
-    <t>P_Rost</t>
-  </si>
-  <si>
-    <t>Montagematerial (Pauschale)</t>
-  </si>
-  <si>
-    <t>P_Mat</t>
-  </si>
-  <si>
-    <t>Schrauben, Dübel etc.</t>
-  </si>
-  <si>
-    <t>Verzinkt:1.0, Pulverbeschichtet:2, Roh:0.9</t>
-  </si>
-  <si>
-    <t>Flachstahl 10-12mm:220, U-Profil 200:250, C-Profil:260</t>
-  </si>
-  <si>
-    <t>Gitterrost 30x30:170, Gitterrost 30x10:190, Tränenblech:180</t>
-  </si>
-  <si>
-    <t>(math.ceil(H/0.18) * P_Stufe * 1.2) + ((H * 1.8 * 2) * P_Wange * F_Faktor * 1.3) + (L_Podest * B * P_Rost) + ((H/2.7) * 20 * 75) + P_Mat</t>
+    <t>Montage &amp; Fertigung (€/m)</t>
+  </si>
+  <si>
+    <t>(L * P_Modell) + ((math.ceil(L/1.2)+1) * (P_Steher + P_Montageart)) + (Ecken * 150) + (L * P_Arbeit)</t>
   </si>
 </sst>
 </file>
@@ -825,16 +712,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -926,10 +808,18 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>114</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>115</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -939,7 +829,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -947,83 +837,108 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>104</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>107</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
         <v>42</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
         <v>44</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
         <v>45</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>46</v>
       </c>
-      <c r="E6" t="s">
-        <v>108</v>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1032,180 +947,8 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75802A93-9DDB-410C-A649-39DCDAB300CE}">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="53.42578125" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" t="s">
-        <v>140</v>
-      </c>
-      <c r="E6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C7" t="s">
-        <v>133</v>
-      </c>
-      <c r="E7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" t="s">
-        <v>137</v>
-      </c>
-      <c r="C9" t="s">
-        <v>138</v>
-      </c>
-      <c r="E9" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" t="s">
-        <v>143</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1213,58 +956,321 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D2" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>70</v>
+      </c>
+      <c r="D3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" t="s">
         <v>44</v>
       </c>
-      <c r="B4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" t="s">
         <v>46</v>
       </c>
-      <c r="E4" t="s">
-        <v>113</v>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1282,108 +1288,108 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1401,108 +1407,108 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1512,7 +1518,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1520,122 +1526,108 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" t="s">
-        <v>55</v>
+        <v>49</v>
+      </c>
+      <c r="E8" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1653,111 +1645,108 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1775,111 +1764,108 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1897,111 +1883,108 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2019,111 +2002,108 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" t="s">
-        <v>85</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2135,147 +2115,142 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D7" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,31 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7454DD82-A7F9-4A31-BE04-827FCB44EA12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D3BA47C-7D21-4163-8996-26A4279DF316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3465" windowWidth="21600" windowHeight="11295" firstSheet="7" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3765" yWindow="3810" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Startseite" sheetId="1" r:id="rId1"/>
     <sheet name="Brix_Gel_Stab" sheetId="2" r:id="rId2"/>
     <sheet name="Brix_Gel_Flaechig" sheetId="3" r:id="rId3"/>
     <sheet name="Brix_Gel_Glas" sheetId="4" r:id="rId4"/>
-    <sheet name="Brix_Zaun_Stab" sheetId="5" r:id="rId5"/>
-    <sheet name="Brix_Zaun_Sicht" sheetId="6" r:id="rId6"/>
-    <sheet name="Brix_Tore" sheetId="7" r:id="rId7"/>
-    <sheet name="Brix_Schiebe" sheetId="8" r:id="rId8"/>
-    <sheet name="Draht_Matten" sheetId="9" r:id="rId9"/>
-    <sheet name="Draht_Mix" sheetId="10" r:id="rId10"/>
-    <sheet name="Stahl_Treppe" sheetId="11" r:id="rId11"/>
-    <sheet name="Extras" sheetId="12" r:id="rId12"/>
-    <sheet name="Eigen_Edelstahl" sheetId="13" r:id="rId13"/>
+    <sheet name="Zub_Gel" sheetId="5" r:id="rId5"/>
+    <sheet name="Brix_Zaun_Stab" sheetId="6" r:id="rId6"/>
+    <sheet name="Brix_Zaun_Sicht" sheetId="7" r:id="rId7"/>
+    <sheet name="Brix_Tore" sheetId="8" r:id="rId8"/>
+    <sheet name="Brix_Schiebe" sheetId="9" r:id="rId9"/>
+    <sheet name="Zub_Zaun" sheetId="10" r:id="rId10"/>
+    <sheet name="Draht_Matten" sheetId="11" r:id="rId11"/>
+    <sheet name="Draht_Mix" sheetId="12" r:id="rId12"/>
+    <sheet name="Zub_Draht" sheetId="13" r:id="rId13"/>
+    <sheet name="Stahl_Treppe" sheetId="14" r:id="rId14"/>
+    <sheet name="Eigen_Edelstahl" sheetId="15" r:id="rId15"/>
+    <sheet name="Zub_Montage" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="153">
+  <si>
+    <t>Kategorie</t>
+  </si>
   <si>
     <t>System</t>
   </si>
@@ -40,78 +46,108 @@
     <t>Blattname</t>
   </si>
   <si>
-    <t>1. Alu-Geländer Stab</t>
+    <t>Brix Geländer (Alu)</t>
+  </si>
+  <si>
+    <t>Stab-Optik</t>
   </si>
   <si>
     <t>Brix_Gel_Stab</t>
   </si>
   <si>
-    <t>2. Alu-Geländer Flächig</t>
+    <t>Flächige Optik</t>
   </si>
   <si>
     <t>Brix_Gel_Flaechig</t>
   </si>
   <si>
-    <t>3. Alu-Geländer Glas</t>
+    <t>Glas-Geländer</t>
   </si>
   <si>
     <t>Brix_Gel_Glas</t>
   </si>
   <si>
-    <t>4. Alu-Zaun Stab &amp; Latten</t>
+    <t>&gt;&gt; Zubehör Geländer (Blumenkasten...)</t>
+  </si>
+  <si>
+    <t>Zub_Gel</t>
+  </si>
+  <si>
+    <t>Brix Zäune &amp; Tore</t>
+  </si>
+  <si>
+    <t>Zaun Stab &amp; Latten</t>
   </si>
   <si>
     <t>Brix_Zaun_Stab</t>
   </si>
   <si>
-    <t>5. Alu-Zaun Sichtschutz</t>
+    <t>Zaun Sichtschutz</t>
   </si>
   <si>
     <t>Brix_Zaun_Sicht</t>
   </si>
   <si>
-    <t>6. Alu-Tore</t>
+    <t>Tore (Drehflügel)</t>
   </si>
   <si>
     <t>Brix_Tore</t>
   </si>
   <si>
-    <t>7. Alu-Schiebetore</t>
+    <t>Schiebetore</t>
   </si>
   <si>
     <t>Brix_Schiebe</t>
   </si>
   <si>
-    <t>8. Draht-Gittermatten (Smart)</t>
+    <t>&gt;&gt; Zubehör Zaun (Briefkasten...)</t>
+  </si>
+  <si>
+    <t>Zub_Zaun</t>
+  </si>
+  <si>
+    <t>Drahtgitter &amp; Stein</t>
+  </si>
+  <si>
+    <t>Gittermatten (Smart)</t>
   </si>
   <si>
     <t>Draht_Matten</t>
   </si>
   <si>
-    <t>9. Draht-Geflecht &amp; Stein</t>
+    <t>Geflecht &amp; Steinkorb</t>
   </si>
   <si>
     <t>Draht_Mix</t>
   </si>
   <si>
-    <t>10. Stahl-Wangentreppe</t>
+    <t>&gt;&gt; Zubehör Draht (Sichtschutz...)</t>
+  </si>
+  <si>
+    <t>Zub_Draht</t>
+  </si>
+  <si>
+    <t>Eigenfertigung</t>
+  </si>
+  <si>
+    <t>Stahl-Wangentreppe</t>
   </si>
   <si>
     <t>Stahl_Treppe</t>
   </si>
   <si>
-    <t>11. Zubehör &amp; Extras</t>
-  </si>
-  <si>
-    <t>Extras</t>
-  </si>
-  <si>
-    <t>12. Edelstahl-Geländer (Eigen)</t>
+    <t>Edelstahl-Geländer</t>
   </si>
   <si>
     <t>Eigen_Edelstahl</t>
   </si>
   <si>
+    <t>&gt;&gt; Montagematerial (Dübel...)</t>
+  </si>
+  <si>
+    <t>Zub_Montage</t>
+  </si>
+  <si>
     <t>Typ</t>
   </si>
   <si>
@@ -187,6 +223,138 @@
     <t>(P_Modell * L * F_Faktor) + ((math.ceil(L/1.3)+1) * P_Steher * F_Faktor) + (Ecken * 95) + (L * P_Arbeit)</t>
   </si>
   <si>
+    <t>P_System</t>
+  </si>
+  <si>
+    <t>Glasal:307, Glasalo:284, Glas-Klemmen:180</t>
+  </si>
+  <si>
+    <t>Glas-Füllung</t>
+  </si>
+  <si>
+    <t>P_Glas</t>
+  </si>
+  <si>
+    <t>VSG Klar:130, VSG Matt:165</t>
+  </si>
+  <si>
+    <t>((P_System + P_Glas) * L * F_Faktor) + ((math.ceil(L/1.3)+1) * P_Steher * F_Faktor) + (Ecken * 110) + (L * P_Arbeit)</t>
+  </si>
+  <si>
+    <t>Artikel</t>
+  </si>
+  <si>
+    <t>P_Art</t>
+  </si>
+  <si>
+    <t>Wand-Handlauf SideRail (lfm):70, Blumenkasten 85cm:135, Blumenkasten 115cm:156, Blumenkasten 165cm:192, Reinigungs-Set:45</t>
+  </si>
+  <si>
+    <t>Menge / Länge</t>
+  </si>
+  <si>
+    <t>Menge</t>
+  </si>
+  <si>
+    <t>P_Art * Menge</t>
+  </si>
+  <si>
+    <t>Decor 22:180, Latten Classic:190, Palisaden:175, Inquer:200</t>
+  </si>
+  <si>
+    <t>Höhe</t>
+  </si>
+  <si>
+    <t>H_Faktor</t>
+  </si>
+  <si>
+    <t>H 800-1000:1.0, H 1000-1200:1.2, H 1200-1500:1.4</t>
+  </si>
+  <si>
+    <t>Standard:1.0, Sonder:1.10, Holz:1.4</t>
+  </si>
+  <si>
+    <t>Säule</t>
+  </si>
+  <si>
+    <t>P_Saeule</t>
+  </si>
+  <si>
+    <t>Betonieren:85, Dübeln:110</t>
+  </si>
+  <si>
+    <t>(P_Modell * H_Faktor * L * F_Faktor) + ((math.ceil(L/2.0)+1) * P_Saeule * F_Faktor) + (L * P_Arbeit)</t>
+  </si>
+  <si>
+    <t>Lamello:290, Listello:280, Platten:260</t>
+  </si>
+  <si>
+    <t>H 1000:1.0, H 1250:1.25, H 1500:1.5, H 1800:1.8</t>
+  </si>
+  <si>
+    <t>Betonieren:120, Dübeln:150</t>
+  </si>
+  <si>
+    <t>(P_Modell * H_Faktor * L * F_Faktor) + ((math.ceil(L/1.8)+1) * P_Saeule * F_Faktor) + (L * P_Arbeit)</t>
+  </si>
+  <si>
+    <t>P_Basis</t>
+  </si>
+  <si>
+    <t>Gehtür (1m):950, 2-Flg Tor (3m):2200, 2-Flg Tor (4m):2600</t>
+  </si>
+  <si>
+    <t>Füllung</t>
+  </si>
+  <si>
+    <t>P_Full</t>
+  </si>
+  <si>
+    <t>Stab/Latten:0, Sichtschutz:350</t>
+  </si>
+  <si>
+    <t>Antrieb</t>
+  </si>
+  <si>
+    <t>P_Antrieb</t>
+  </si>
+  <si>
+    <t>Manuell:0, E-Öffner:150, E-Antrieb Set:1250</t>
+  </si>
+  <si>
+    <t>Anzahl</t>
+  </si>
+  <si>
+    <t>Montage (Pauschal)</t>
+  </si>
+  <si>
+    <t>P_Montage</t>
+  </si>
+  <si>
+    <t>((P_Basis + P_Full) * F_Faktor * Menge) + (P_Antrieb * Menge) + P_Montage</t>
+  </si>
+  <si>
+    <t>Durchfahrtslichte (m)</t>
+  </si>
+  <si>
+    <t>H 1000:1.0, H 1250:1.1, H 1500:1.25</t>
+  </si>
+  <si>
+    <t>C-Profil Stab:1400, C-Profil Sichtschutz:1600</t>
+  </si>
+  <si>
+    <t>Manuell:0, E-Antrieb Set:1450</t>
+  </si>
+  <si>
+    <t>Fundament/Montage Pauschale</t>
+  </si>
+  <si>
+    <t>(P_Modell * L * H_Faktor * F_Faktor) + P_Antrieb + P_Montage</t>
+  </si>
+  <si>
+    <t>Briefkasten Standard:155, Briefkasten Groß (Paketfach):400, Zeitungsrolle:35, Sprechanlagen-Vorbereitung:150, Lackspray Dose:25</t>
+  </si>
+  <si>
     <t>Preis/Sack Beton (€)</t>
   </si>
   <si>
@@ -223,9 +391,6 @@
     <t>Säulen-Typ</t>
   </si>
   <si>
-    <t>P_Saeule</t>
-  </si>
-  <si>
     <t>Klemmhalter:35</t>
   </si>
   <si>
@@ -235,6 +400,9 @@
     <t>(L * P_Matte * F_Faktor) + ((math.ceil(L/2.5)+1) * ((P_Saeule * F_Faktor) + (Ist_Beton * 2 * P_Sack) + ((1-Ist_Beton) * P_Konsole))) + (L * P_Arbeit)</t>
   </si>
   <si>
+    <t>Sichtschutz-Streifen (Rolle 35m):45, Klemmen Ersatz (Stk):2, Farbspray (Dose):18, Zange für Klemmen:35</t>
+  </si>
+  <si>
     <t>Geschoßhöhe (m)</t>
   </si>
   <si>
@@ -304,52 +472,28 @@
     <t>(math.ceil(H/0.18) * P_Stufe) + ((H * 1.8 * 2) * P_Wange * F_Faktor) + (L_Podest * B * P_Rost) + ((H/2.7) * 12 * P_Satz) + P_Mat</t>
   </si>
   <si>
-    <t>Dummy</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Länge des Geländers (m)</t>
-  </si>
-  <si>
-    <t>Relinggeländer 5 Stäbe:240, Relinggeländer 7 Stäbe:260, Glasgeländer (V2A+VSG):450, Nur Handlauf V2A:85</t>
-  </si>
-  <si>
-    <t>Meterpreis Material</t>
+    <t>Reling 5-Stab:240, Reling 7-Stab:260, Glas (VSG):450</t>
   </si>
   <si>
     <t>Steher-Profil</t>
   </si>
   <si>
-    <t>Rundrohr 42.4mm:90, Quadratrohr 40x40mm:110, Flachstahlsteher:130</t>
-  </si>
-  <si>
-    <t>Stückpreis</t>
-  </si>
-  <si>
-    <t>Montageart Steher</t>
+    <t>Rundrohr:90, Quadratrohr:110, Flachstahl:130</t>
+  </si>
+  <si>
+    <t>Montageart</t>
   </si>
   <si>
     <t>P_Montageart</t>
   </si>
   <si>
-    <t>Aufgeschraubt (Boden):0, Stirnseitig (Wand):35</t>
-  </si>
-  <si>
-    <t>Aufpreis pro Steher</t>
-  </si>
-  <si>
-    <t>Anzahl Ecken</t>
-  </si>
-  <si>
-    <t>Montage &amp; Fertigung (€/m)</t>
+    <t>Aufgeschraubt:0, Stirnseitig:35</t>
   </si>
   <si>
     <t>(L * P_Modell) + ((math.ceil(L/1.2)+1) * (P_Steher + P_Montageart)) + (Ecken * 150) + (L * P_Arbeit)</t>
+  </si>
+  <si>
+    <t>Schwerlastanker M10:2.5, Schwerlastanker M12:3.5, Injektionsmörtel (Kartusche):25, Gewindestange M12 (lfm):8</t>
   </si>
 </sst>
 </file>
@@ -712,114 +856,191 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="2" width="34.5703125" customWidth="1"/>
+    <col min="3" max="3" width="37" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -829,6 +1050,222 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -837,108 +1274,108 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -946,8 +1383,77 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -956,147 +1462,147 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>124</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>127</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="D8" t="s">
-        <v>84</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>89</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1104,9 +1610,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:E2"/>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1114,33 +1620,108 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
         <v>47</v>
       </c>
-      <c r="B2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" t="s">
-        <v>92</v>
+      <c r="D3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -1148,129 +1729,68 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:E8"/>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>69</v>
+      </c>
+      <c r="D2" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E3" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1288,108 +1808,108 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1407,108 +1927,108 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1518,7 +2038,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1526,108 +2046,122 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>53</v>
+      </c>
+      <c r="D6" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" t="s">
-        <v>50</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1637,7 +2171,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1645,108 +2179,58 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>69</v>
+      </c>
+      <c r="D2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" t="s">
-        <v>50</v>
+        <v>60</v>
+      </c>
+      <c r="E4" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1764,108 +2248,111 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>80</v>
+      </c>
+      <c r="D6" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1883,108 +2370,111 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>80</v>
+      </c>
+      <c r="D6" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2002,108 +2492,111 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>87</v>
+      </c>
+      <c r="D2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2113,7 +2606,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2121,136 +2614,111 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>76</v>
+      </c>
+      <c r="D3" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" t="s">
-        <v>66</v>
+        <v>60</v>
+      </c>
+      <c r="E8" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D3BA47C-7D21-4163-8996-26A4279DF316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38E6B51-02EB-433A-84E2-A0D89FD8EF10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3765" yWindow="3810" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3765" yWindow="3810" windowWidth="21600" windowHeight="11295" firstSheet="9" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Startseite" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="151">
   <si>
     <t>Kategorie</t>
   </si>
@@ -457,21 +457,12 @@
     <t>Gitterrost:80, Tränenblech:90</t>
   </si>
   <si>
-    <t>Stundensatz (€)</t>
-  </si>
-  <si>
-    <t>P_Satz</t>
-  </si>
-  <si>
     <t>Montagematerial</t>
   </si>
   <si>
     <t>P_Mat</t>
   </si>
   <si>
-    <t>(math.ceil(H/0.18) * P_Stufe) + ((H * 1.8 * 2) * P_Wange * F_Faktor) + (L_Podest * B * P_Rost) + ((H/2.7) * 12 * P_Satz) + P_Mat</t>
-  </si>
-  <si>
     <t>Reling 5-Stab:240, Reling 7-Stab:260, Glas (VSG):450</t>
   </si>
   <si>
@@ -494,6 +485,9 @@
   </si>
   <si>
     <t>Schwerlastanker M10:2.5, Schwerlastanker M12:3.5, Injektionsmörtel (Kartusche):25, Gewindestange M12 (lfm):8</t>
+  </si>
+  <si>
+    <t>(math.ceil(H/0.18) * P_Stufe) + ((H * 1.8 * 2) * P_Wange * F_Faktor) + (L_Podest * B * P_Rost) + ((H/2.7) * 12 *75) + P_Mat</t>
   </si>
 </sst>
 </file>
@@ -858,7 +852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1454,9 +1448,11 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1582,27 +1578,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>142</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" t="s">
         <v>60</v>
       </c>
-      <c r="E11" t="s">
-        <v>144</v>
+      <c r="E10" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1657,7 +1642,7 @@
         <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1665,13 +1650,13 @@
         <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C4" t="s">
         <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1679,13 +1664,13 @@
         <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1721,7 +1706,7 @@
         <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -1765,7 +1750,7 @@
         <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38E6B51-02EB-433A-84E2-A0D89FD8EF10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3D21A64-E473-4709-9ACC-EAEF057608FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3765" yWindow="3810" windowWidth="21600" windowHeight="11295" firstSheet="9" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Startseite" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="157">
   <si>
     <t>Kategorie</t>
   </si>
@@ -67,7 +67,7 @@
     <t>Brix_Gel_Glas</t>
   </si>
   <si>
-    <t>&gt;&gt; Zubehör Geländer (Blumenkasten...)</t>
+    <t>&gt;&gt; Zubehör Geländer</t>
   </si>
   <si>
     <t>Zub_Gel</t>
@@ -100,7 +100,7 @@
     <t>Brix_Schiebe</t>
   </si>
   <si>
-    <t>&gt;&gt; Zubehör Zaun (Briefkasten...)</t>
+    <t>&gt;&gt; Zubehör Zaun</t>
   </si>
   <si>
     <t>Zub_Zaun</t>
@@ -121,7 +121,7 @@
     <t>Draht_Mix</t>
   </si>
   <si>
-    <t>&gt;&gt; Zubehör Draht (Sichtschutz...)</t>
+    <t>&gt;&gt; Zubehör Draht</t>
   </si>
   <si>
     <t>Zub_Draht</t>
@@ -142,7 +142,7 @@
     <t>Eigen_Edelstahl</t>
   </si>
   <si>
-    <t>&gt;&gt; Montagematerial (Dübel...)</t>
+    <t>&gt;&gt; Montagematerial</t>
   </si>
   <si>
     <t>Zub_Montage</t>
@@ -247,7 +247,7 @@
     <t>P_Art</t>
   </si>
   <si>
-    <t>Wand-Handlauf SideRail (lfm):70, Blumenkasten 85cm:135, Blumenkasten 115cm:156, Blumenkasten 165cm:192, Reinigungs-Set:45</t>
+    <t>Handlauf SideRail:70, Blumenkasten:135</t>
   </si>
   <si>
     <t>Menge / Länge</t>
@@ -259,7 +259,7 @@
     <t>P_Art * Menge</t>
   </si>
   <si>
-    <t>Decor 22:180, Latten Classic:190, Palisaden:175, Inquer:200</t>
+    <t>Decor 22:180, Latten Classic:190, Palisaden:175</t>
   </si>
   <si>
     <t>Höhe</t>
@@ -268,7 +268,7 @@
     <t>H_Faktor</t>
   </si>
   <si>
-    <t>H 800-1000:1.0, H 1000-1200:1.2, H 1200-1500:1.4</t>
+    <t>H 1000:1.0, H 1200:1.2, H 1500:1.4</t>
   </si>
   <si>
     <t>Standard:1.0, Sonder:1.10, Holz:1.4</t>
@@ -286,10 +286,10 @@
     <t>(P_Modell * H_Faktor * L * F_Faktor) + ((math.ceil(L/2.0)+1) * P_Saeule * F_Faktor) + (L * P_Arbeit)</t>
   </si>
   <si>
-    <t>Lamello:290, Listello:280, Platten:260</t>
-  </si>
-  <si>
-    <t>H 1000:1.0, H 1250:1.25, H 1500:1.5, H 1800:1.8</t>
+    <t>Lamello:290, Listello:280</t>
+  </si>
+  <si>
+    <t>H 1000:1.0, H 1500:1.5, H 1800:1.8</t>
   </si>
   <si>
     <t>Betonieren:120, Dübeln:150</t>
@@ -301,7 +301,7 @@
     <t>P_Basis</t>
   </si>
   <si>
-    <t>Gehtür (1m):950, 2-Flg Tor (3m):2200, 2-Flg Tor (4m):2600</t>
+    <t>Gehtür (1m):950, 2-Flg Tor (3m):2200</t>
   </si>
   <si>
     <t>Füllung</t>
@@ -310,7 +310,7 @@
     <t>P_Full</t>
   </si>
   <si>
-    <t>Stab/Latten:0, Sichtschutz:350</t>
+    <t>Standard:0, Sichtschutz:350</t>
   </si>
   <si>
     <t>Antrieb</t>
@@ -319,7 +319,7 @@
     <t>P_Antrieb</t>
   </si>
   <si>
-    <t>Manuell:0, E-Öffner:150, E-Antrieb Set:1250</t>
+    <t>Manuell:0, E-Öffner:150, E-Antrieb:1250</t>
   </si>
   <si>
     <t>Anzahl</t>
@@ -334,10 +334,7 @@
     <t>((P_Basis + P_Full) * F_Faktor * Menge) + (P_Antrieb * Menge) + P_Montage</t>
   </si>
   <si>
-    <t>Durchfahrtslichte (m)</t>
-  </si>
-  <si>
-    <t>H 1000:1.0, H 1250:1.1, H 1500:1.25</t>
+    <t>Lichte (m)</t>
   </si>
   <si>
     <t>C-Profil Stab:1400, C-Profil Sichtschutz:1600</t>
@@ -346,22 +343,28 @@
     <t>Manuell:0, E-Antrieb Set:1450</t>
   </si>
   <si>
-    <t>Fundament/Montage Pauschale</t>
-  </si>
-  <si>
-    <t>(P_Modell * L * H_Faktor * F_Faktor) + P_Antrieb + P_Montage</t>
-  </si>
-  <si>
-    <t>Briefkasten Standard:155, Briefkasten Groß (Paketfach):400, Zeitungsrolle:35, Sprechanlagen-Vorbereitung:150, Lackspray Dose:25</t>
-  </si>
-  <si>
-    <t>Preis/Sack Beton (€)</t>
+    <t>Montage Pauschale</t>
+  </si>
+  <si>
+    <t>(P_Modell * L * F_Faktor) + P_Antrieb + P_Montage</t>
+  </si>
+  <si>
+    <t>Briefkasten:155, Paketbox:400, Lackspray:25</t>
+  </si>
+  <si>
+    <t>Gesamt</t>
+  </si>
+  <si>
+    <t>Preis pro Sack Beton (€)</t>
   </si>
   <si>
     <t>P_Sack</t>
   </si>
   <si>
-    <t>Konsole Typ</t>
+    <t>Standard zB 9 Euro</t>
+  </si>
+  <si>
+    <t>Konsole Typ (wenn Dübeln)</t>
   </si>
   <si>
     <t>P_Konsole</t>
@@ -379,19 +382,22 @@
     <t>Einbetonieren:1, Aufdübeln:0</t>
   </si>
   <si>
+    <t>Schalter: 1=Sack, 0=Konsole</t>
+  </si>
+  <si>
     <t>Matte Höhe</t>
   </si>
   <si>
     <t>P_Matte</t>
   </si>
   <si>
-    <t>H 1030:22, H 1230:26</t>
+    <t>H 1030:22, H 1230:26, H 1430:31</t>
   </si>
   <si>
     <t>Säulen-Typ</t>
   </si>
   <si>
-    <t>Klemmhalter:35</t>
+    <t>Klemmhalter:35, Abdeckleiste:45</t>
   </si>
   <si>
     <t>Verzinkt:1.0, Farbe:1.15</t>
@@ -400,7 +406,7 @@
     <t>(L * P_Matte * F_Faktor) + ((math.ceil(L/2.5)+1) * ((P_Saeule * F_Faktor) + (Ist_Beton * 2 * P_Sack) + ((1-Ist_Beton) * P_Konsole))) + (L * P_Arbeit)</t>
   </si>
   <si>
-    <t>Sichtschutz-Streifen (Rolle 35m):45, Klemmen Ersatz (Stk):2, Farbspray (Dose):18, Zange für Klemmen:35</t>
+    <t>Sichtschutz Rolle:45, Klemmen:2, Spray:18</t>
   </si>
   <si>
     <t>Geschoßhöhe (m)</t>
@@ -457,19 +463,28 @@
     <t>Gitterrost:80, Tränenblech:90</t>
   </si>
   <si>
+    <t>T_Meter</t>
+  </si>
+  <si>
+    <t>Stundensatz (€)</t>
+  </si>
+  <si>
+    <t>P_Satz</t>
+  </si>
+  <si>
     <t>Montagematerial</t>
   </si>
   <si>
     <t>P_Mat</t>
   </si>
   <si>
-    <t>Reling 5-Stab:240, Reling 7-Stab:260, Glas (VSG):450</t>
+    <t>Reling 5-Stab:240, Glas:450</t>
   </si>
   <si>
     <t>Steher-Profil</t>
   </si>
   <si>
-    <t>Rundrohr:90, Quadratrohr:110, Flachstahl:130</t>
+    <t>Rundrohr:90, Quadratrohr:110</t>
   </si>
   <si>
     <t>Montageart</t>
@@ -484,10 +499,13 @@
     <t>(L * P_Modell) + ((math.ceil(L/1.2)+1) * (P_Steher + P_Montageart)) + (Ecken * 150) + (L * P_Arbeit)</t>
   </si>
   <si>
-    <t>Schwerlastanker M10:2.5, Schwerlastanker M12:3.5, Injektionsmörtel (Kartusche):25, Gewindestange M12 (lfm):8</t>
-  </si>
-  <si>
-    <t>(math.ceil(H/0.18) * P_Stufe) + ((H * 1.8 * 2) * P_Wange * F_Faktor) + (L_Podest * B * P_Rost) + ((H/2.7) * 12 *75) + P_Mat</t>
+    <t>Anker M10:2.5, Mörtel:25, Gewindestange:8</t>
+  </si>
+  <si>
+    <t>(math.ceil(H/0.18) * P_Stufe) + ((H * 1.8 * 2) * P_Wange * F_Faktor) + (L_Podest * B * P_Rost) + ((5 + (H * 4)) * P_Satz) + P_Mat</t>
+  </si>
+  <si>
+    <t>Fertigungszeit pro Meter Höhe (h)</t>
   </si>
 </sst>
 </file>
@@ -855,11 +873,6 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
-    <col min="2" max="2" width="34.5703125" customWidth="1"/>
-    <col min="3" max="3" width="37" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1078,7 +1091,7 @@
         <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1097,7 +1110,7 @@
         <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="C4" t="s">
         <v>60</v>
@@ -1157,19 +1170,22 @@
       <c r="C3" t="s">
         <v>107</v>
       </c>
+      <c r="E3" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1177,13 +1193,16 @@
         <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D5" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="E5" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1191,13 +1210,13 @@
         <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C6" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1205,13 +1224,13 @@
         <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C7" t="s">
         <v>80</v>
       </c>
       <c r="D7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1225,7 +1244,7 @@
         <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1250,7 +1269,7 @@
         <v>60</v>
       </c>
       <c r="E10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1413,7 +1432,7 @@
         <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1432,7 +1451,7 @@
         <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="C4" t="s">
         <v>60</v>
@@ -1448,13 +1467,16 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1478,10 +1500,10 @@
         <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1489,13 +1511,13 @@
         <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1503,13 +1525,13 @@
         <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1517,13 +1539,13 @@
         <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1531,13 +1553,13 @@
         <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C6" t="s">
         <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1545,10 +1567,10 @@
         <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1556,13 +1578,13 @@
         <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1570,24 +1592,46 @@
         <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="C9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>58</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
         <v>59</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C12" t="s">
         <v>60</v>
       </c>
-      <c r="E10" t="s">
-        <v>150</v>
+      <c r="E12" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -1642,7 +1686,7 @@
         <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1650,13 +1694,13 @@
         <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C4" t="s">
         <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1664,13 +1708,13 @@
         <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C5" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D5" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1706,7 +1750,7 @@
         <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -1750,7 +1794,7 @@
         <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1769,7 +1813,7 @@
         <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="C4" t="s">
         <v>60</v>
@@ -2591,7 +2635,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2630,10 +2674,10 @@
         <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
         <v>100</v>
@@ -2644,13 +2688,13 @@
         <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2658,52 +2702,38 @@
         <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D6" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" t="s">
         <v>103</v>
-      </c>
-      <c r="C7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" t="s">
-        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3D21A64-E473-4709-9ACC-EAEF057608FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D2E1C1-4278-4116-8792-AF7522557ADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="155">
   <si>
     <t>Kategorie</t>
   </si>
@@ -463,9 +463,6 @@
     <t>Gitterrost:80, Tränenblech:90</t>
   </si>
   <si>
-    <t>T_Meter</t>
-  </si>
-  <si>
     <t>Stundensatz (€)</t>
   </si>
   <si>
@@ -503,9 +500,6 @@
   </si>
   <si>
     <t>(math.ceil(H/0.18) * P_Stufe) + ((H * 1.8 * 2) * P_Wange * F_Faktor) + (L_Podest * B * P_Rost) + ((5 + (H * 4)) * P_Satz) + P_Mat</t>
-  </si>
-  <si>
-    <t>Fertigungszeit pro Meter Höhe (h)</t>
   </si>
 </sst>
 </file>
@@ -1467,10 +1461,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1592,10 +1586,10 @@
         <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="C9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1603,35 +1597,24 @@
         <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
-        <v>145</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" t="s">
         <v>60</v>
       </c>
-      <c r="E12" t="s">
-        <v>155</v>
+      <c r="E11" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -1686,7 +1669,7 @@
         <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1694,13 +1677,13 @@
         <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C4" t="s">
         <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1708,13 +1691,13 @@
         <v>45</v>
       </c>
       <c r="B5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" t="s">
         <v>150</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>151</v>
-      </c>
-      <c r="D5" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1750,7 +1733,7 @@
         <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -1794,7 +1777,7 @@
         <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D2E1C1-4278-4116-8792-AF7522557ADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA41499E-4D39-4056-8A19-4BB59B454F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Startseite" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="158">
   <si>
     <t>Kategorie</t>
   </si>
@@ -403,9 +403,6 @@
     <t>Verzinkt:1.0, Farbe:1.15</t>
   </si>
   <si>
-    <t>(L * P_Matte * F_Faktor) + ((math.ceil(L/2.5)+1) * ((P_Saeule * F_Faktor) + (Ist_Beton * 2 * P_Sack) + ((1-Ist_Beton) * P_Konsole))) + (L * P_Arbeit)</t>
-  </si>
-  <si>
     <t>Sichtschutz Rolle:45, Klemmen:2, Spray:18</t>
   </si>
   <si>
@@ -500,6 +497,18 @@
   </si>
   <si>
     <t>(math.ceil(H/0.18) * P_Stufe) + ((H * 1.8 * 2) * P_Wange * F_Faktor) + (L_Podest * B * P_Rost) + ((5 + (H * 4)) * P_Satz) + P_Mat</t>
+  </si>
+  <si>
+    <t>Steher-Abstand</t>
+  </si>
+  <si>
+    <t>Dist</t>
+  </si>
+  <si>
+    <t>Standard (2.5m):2.5, Verkürzt (2.0m):2.0, Eng (1.25m):1.25</t>
+  </si>
+  <si>
+    <t>(L * P_Matte * F_Faktor) + ((math.ceil(L/Dist)+1) * ((P_Saeule * F_Faktor) + (Ist_Beton * 2 * P_Sack) + ((1-Ist_Beton) * P_Konsole))) + (L * P_Arbeit)</t>
   </si>
 </sst>
 </file>
@@ -1120,11 +1129,17 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1173,13 +1188,13 @@
         <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>109</v>
+        <v>154</v>
       </c>
       <c r="C4" t="s">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="D4" t="s">
-        <v>111</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1187,16 +1202,13 @@
         <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1204,13 +1216,16 @@
         <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D6" t="s">
-        <v>118</v>
+        <v>114</v>
+      </c>
+      <c r="E6" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1218,13 +1233,13 @@
         <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="D7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1232,38 +1247,52 @@
         <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>119</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="D8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>58</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>59</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>60</v>
       </c>
-      <c r="E10" t="s">
-        <v>122</v>
+      <c r="E11" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -1426,7 +1455,7 @@
         <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1463,7 +1492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
@@ -1494,10 +1523,10 @@
         <v>42</v>
       </c>
       <c r="B2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" t="s">
         <v>124</v>
-      </c>
-      <c r="C2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1505,13 +1534,13 @@
         <v>45</v>
       </c>
       <c r="B3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" t="s">
         <v>126</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>127</v>
-      </c>
-      <c r="D3" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1519,13 +1548,13 @@
         <v>45</v>
       </c>
       <c r="B4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" t="s">
         <v>129</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>130</v>
-      </c>
-      <c r="D4" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1533,13 +1562,13 @@
         <v>45</v>
       </c>
       <c r="B5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" t="s">
         <v>132</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>133</v>
-      </c>
-      <c r="D5" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1547,13 +1576,13 @@
         <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C6" t="s">
         <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1561,10 +1590,10 @@
         <v>42</v>
       </c>
       <c r="B7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" t="s">
         <v>137</v>
-      </c>
-      <c r="C7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1572,13 +1601,13 @@
         <v>45</v>
       </c>
       <c r="B8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" t="s">
         <v>139</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>140</v>
-      </c>
-      <c r="D8" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1586,10 +1615,10 @@
         <v>42</v>
       </c>
       <c r="B9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9" t="s">
         <v>142</v>
-      </c>
-      <c r="C9" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1597,10 +1626,10 @@
         <v>42</v>
       </c>
       <c r="B10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" t="s">
         <v>144</v>
-      </c>
-      <c r="C10" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1614,7 +1643,7 @@
         <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -1669,7 +1698,7 @@
         <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1677,13 +1706,13 @@
         <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C4" t="s">
         <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1691,13 +1720,13 @@
         <v>45</v>
       </c>
       <c r="B5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" t="s">
         <v>149</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>150</v>
-      </c>
-      <c r="D5" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1733,7 +1762,7 @@
         <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -1777,7 +1806,7 @@
         <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2252,11 +2281,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -2344,26 +2382,15 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" t="s">
         <v>60</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E7" t="s">
         <v>82</v>
       </c>
     </row>

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA41499E-4D39-4056-8A19-4BB59B454F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55393CB3-5EFE-4975-B5E3-BCF0D9107CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Startseite" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="157">
   <si>
     <t>Kategorie</t>
   </si>
@@ -343,15 +343,9 @@
     <t>Manuell:0, E-Antrieb Set:1450</t>
   </si>
   <si>
-    <t>Montage Pauschale</t>
-  </si>
-  <si>
     <t>(P_Modell * L * F_Faktor) + P_Antrieb + P_Montage</t>
   </si>
   <si>
-    <t>Briefkasten:155, Paketbox:400, Lackspray:25</t>
-  </si>
-  <si>
     <t>Gesamt</t>
   </si>
   <si>
@@ -391,9 +385,6 @@
     <t>P_Matte</t>
   </si>
   <si>
-    <t>H 1030:22, H 1230:26, H 1430:31</t>
-  </si>
-  <si>
     <t>Säulen-Typ</t>
   </si>
   <si>
@@ -509,6 +500,12 @@
   </si>
   <si>
     <t>(L * P_Matte * F_Faktor) + ((math.ceil(L/Dist)+1) * ((P_Saeule * F_Faktor) + (Ist_Beton * 2 * P_Sack) + ((1-Ist_Beton) * P_Konsole))) + (L * P_Arbeit)</t>
+  </si>
+  <si>
+    <t>H 1030:22, H 1230:26, H 1430:31, 1630:35</t>
+  </si>
+  <si>
+    <t>Briefkasten:155, Paketbox:400, Lackspray:25, Handsender 2-Kanal:55, Handsender 4-Kanal:68, Lichtschranke (Paar):145, Blinkleuchte LED:95, Schlüsseltaster (Auf/Zu):120, Codetaster Funk:180, GSM-Modul (Handy-Steuerung):350, Zahnstange Kunststoff (lfm):35, Zahnstange Stahl 12mm (lfm):48, Sicherheits-Kontaktleiste (aktiv):220, Wandhalterung Handsender:15, Externe Antenne:65</t>
   </si>
 </sst>
 </file>
@@ -873,9 +870,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1054,6 +1058,18 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1062,7 +1078,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1094,7 +1112,7 @@
         <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>104</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1113,7 +1131,7 @@
         <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C4" t="s">
         <v>60</v>
@@ -1131,8 +1149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1174,13 +1192,13 @@
         <v>42</v>
       </c>
       <c r="B3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" t="s">
         <v>106</v>
-      </c>
-      <c r="C3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E3" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1188,13 +1206,13 @@
         <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1202,13 +1220,13 @@
         <v>45</v>
       </c>
       <c r="B5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" t="s">
         <v>109</v>
-      </c>
-      <c r="C5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D5" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1216,16 +1234,16 @@
         <v>45</v>
       </c>
       <c r="B6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" t="s">
         <v>112</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>113</v>
-      </c>
-      <c r="D6" t="s">
-        <v>114</v>
-      </c>
-      <c r="E6" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1233,13 +1251,13 @@
         <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D7" t="s">
-        <v>118</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1247,13 +1265,13 @@
         <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C8" t="s">
         <v>80</v>
       </c>
       <c r="D8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1267,7 +1285,7 @@
         <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1292,7 +1310,7 @@
         <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -1304,9 +1322,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="91.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1455,7 +1482,7 @@
         <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1474,7 +1501,7 @@
         <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C4" t="s">
         <v>60</v>
@@ -1523,10 +1550,10 @@
         <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1534,13 +1561,13 @@
         <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1548,13 +1575,13 @@
         <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1562,13 +1589,13 @@
         <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1576,13 +1603,13 @@
         <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C6" t="s">
         <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1590,10 +1617,10 @@
         <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1601,13 +1628,13 @@
         <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D8" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1615,10 +1642,10 @@
         <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1626,10 +1653,10 @@
         <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C10" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1643,7 +1670,7 @@
         <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1698,7 +1725,7 @@
         <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1706,13 +1733,13 @@
         <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C4" t="s">
         <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1720,13 +1747,13 @@
         <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1762,7 +1789,7 @@
         <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -1806,7 +1833,7 @@
         <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1825,7 +1852,7 @@
         <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C4" t="s">
         <v>60</v>
@@ -2645,11 +2672,20 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -2723,27 +2759,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" t="s">
         <v>102</v>
-      </c>
-      <c r="C6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" t="s">
-        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55393CB3-5EFE-4975-B5E3-BCF0D9107CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD601C6-361F-41E7-87B6-C9D46C84852A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Startseite" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="162">
   <si>
     <t>Kategorie</t>
   </si>
@@ -506,6 +506,21 @@
   </si>
   <si>
     <t>Briefkasten:155, Paketbox:400, Lackspray:25, Handsender 2-Kanal:55, Handsender 4-Kanal:68, Lichtschranke (Paar):145, Blinkleuchte LED:95, Schlüsseltaster (Auf/Zu):120, Codetaster Funk:180, GSM-Modul (Handy-Steuerung):350, Zahnstange Kunststoff (lfm):35, Zahnstange Stahl 12mm (lfm):48, Sicherheits-Kontaktleiste (aktiv):220, Wandhalterung Handsender:15, Externe Antenne:65</t>
+  </si>
+  <si>
+    <t>Mehrfach</t>
+  </si>
+  <si>
+    <t>Sicherheits- &amp; Zutritts-Zubehör</t>
+  </si>
+  <si>
+    <t>P_Zub</t>
+  </si>
+  <si>
+    <t>Lichtschranke:145, Blinkleuchte:95, Schlüsseltaster:120, GSM-Modul:350, Codetaster:180</t>
+  </si>
+  <si>
+    <t>Wird addiert</t>
   </si>
 </sst>
 </file>
@@ -1078,7 +1093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -2672,10 +2687,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2731,16 +2746,19 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>157</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>158</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>159</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>160</v>
+      </c>
+      <c r="E4" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2748,26 +2766,40 @@
         <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>58</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>59</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>60</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" t="s">
         <v>102</v>
       </c>
     </row>

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD601C6-361F-41E7-87B6-C9D46C84852A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48798C69-1435-43FC-95A4-69BF246B05A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -343,9 +343,6 @@
     <t>Manuell:0, E-Antrieb Set:1450</t>
   </si>
   <si>
-    <t>(P_Modell * L * F_Faktor) + P_Antrieb + P_Montage</t>
-  </si>
-  <si>
     <t>Gesamt</t>
   </si>
   <si>
@@ -521,6 +518,9 @@
   </si>
   <si>
     <t>Wird addiert</t>
+  </si>
+  <si>
+    <t>(P_Modell * L * F_Faktor) + P_Zub + P_Antrieb + P_Montage</t>
   </si>
 </sst>
 </file>
@@ -1127,7 +1127,7 @@
         <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1146,7 +1146,7 @@
         <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C4" t="s">
         <v>60</v>
@@ -1207,13 +1207,13 @@
         <v>42</v>
       </c>
       <c r="B3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" t="s">
         <v>104</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>105</v>
-      </c>
-      <c r="E3" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1221,13 +1221,13 @@
         <v>45</v>
       </c>
       <c r="B4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" t="s">
         <v>151</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>152</v>
-      </c>
-      <c r="D4" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1235,13 +1235,13 @@
         <v>45</v>
       </c>
       <c r="B5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" t="s">
         <v>107</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>108</v>
-      </c>
-      <c r="D5" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1249,16 +1249,16 @@
         <v>45</v>
       </c>
       <c r="B6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" t="s">
         <v>110</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>111</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>112</v>
-      </c>
-      <c r="E6" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1266,13 +1266,13 @@
         <v>45</v>
       </c>
       <c r="B7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" t="s">
         <v>114</v>
       </c>
-      <c r="C7" t="s">
-        <v>115</v>
-      </c>
       <c r="D7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1280,13 +1280,13 @@
         <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C8" t="s">
         <v>80</v>
       </c>
       <c r="D8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1300,7 +1300,7 @@
         <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1325,7 +1325,7 @@
         <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -1497,7 +1497,7 @@
         <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1516,7 +1516,7 @@
         <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C4" t="s">
         <v>60</v>
@@ -1565,10 +1565,10 @@
         <v>42</v>
       </c>
       <c r="B2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" t="s">
         <v>120</v>
-      </c>
-      <c r="C2" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1576,13 +1576,13 @@
         <v>45</v>
       </c>
       <c r="B3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" t="s">
         <v>122</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>123</v>
-      </c>
-      <c r="D3" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1590,13 +1590,13 @@
         <v>45</v>
       </c>
       <c r="B4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" t="s">
         <v>125</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>126</v>
-      </c>
-      <c r="D4" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1604,13 +1604,13 @@
         <v>45</v>
       </c>
       <c r="B5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" t="s">
         <v>128</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>129</v>
-      </c>
-      <c r="D5" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1618,13 +1618,13 @@
         <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C6" t="s">
         <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1632,10 +1632,10 @@
         <v>42</v>
       </c>
       <c r="B7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" t="s">
         <v>133</v>
-      </c>
-      <c r="C7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1643,13 +1643,13 @@
         <v>45</v>
       </c>
       <c r="B8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" t="s">
         <v>135</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>136</v>
-      </c>
-      <c r="D8" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1657,10 +1657,10 @@
         <v>42</v>
       </c>
       <c r="B9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" t="s">
         <v>138</v>
-      </c>
-      <c r="C9" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1668,10 +1668,10 @@
         <v>42</v>
       </c>
       <c r="B10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" t="s">
         <v>140</v>
-      </c>
-      <c r="C10" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1685,7 +1685,7 @@
         <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1740,7 +1740,7 @@
         <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1748,13 +1748,13 @@
         <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C4" t="s">
         <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1762,13 +1762,13 @@
         <v>45</v>
       </c>
       <c r="B5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" t="s">
         <v>145</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>146</v>
-      </c>
-      <c r="D5" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1804,7 +1804,7 @@
         <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -1848,7 +1848,7 @@
         <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1867,7 +1867,7 @@
         <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C4" t="s">
         <v>60</v>
@@ -2690,7 +2690,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2746,19 +2746,19 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4" t="s">
         <v>157</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>158</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>159</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>160</v>
-      </c>
-      <c r="E4" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2800,7 +2800,7 @@
         <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>102</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48798C69-1435-43FC-95A4-69BF246B05A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C133A35D-0BD6-4D23-8FC2-2BB567586398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Startseite" sheetId="1" r:id="rId1"/>
@@ -886,7 +886,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2690,13 +2690,13 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="46.42578125" bestFit="1" customWidth="1"/>

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C133A35D-0BD6-4D23-8FC2-2BB567586398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DCB469F-E9BD-4D31-A691-44F40DEE2505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Startseite" sheetId="1" r:id="rId1"/>
@@ -1093,8 +1093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1118,7 +1118,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>156</v>
       </c>
       <c r="B2" t="s">
         <v>68</v>
@@ -2689,7 +2689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DCB469F-E9BD-4D31-A691-44F40DEE2505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC7682B-C595-4A9D-B82C-58A4630564F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Startseite" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="163">
   <si>
     <t>Kategorie</t>
   </si>
@@ -521,6 +521,9 @@
   </si>
   <si>
     <t>(P_Modell * L * F_Faktor) + P_Zub + P_Antrieb + P_Montage</t>
+  </si>
+  <si>
+    <t>Montage Pauschale</t>
   </si>
 </sst>
 </file>
@@ -1093,7 +1096,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -2323,10 +2326,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2424,15 +2427,26 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>58</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>59</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>60</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2687,10 +2701,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2791,15 +2805,26 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>58</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>59</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>60</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>161</v>
       </c>
     </row>

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC7682B-C595-4A9D-B82C-58A4630564F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D7E413-B0A7-4D79-80EB-5AFDEE076B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Startseite" sheetId="1" r:id="rId1"/>
@@ -283,9 +283,6 @@
     <t>Betonieren:85, Dübeln:110</t>
   </si>
   <si>
-    <t>(P_Modell * H_Faktor * L * F_Faktor) + ((math.ceil(L/2.0)+1) * P_Saeule * F_Faktor) + (L * P_Arbeit)</t>
-  </si>
-  <si>
     <t>Lamello:290, Listello:280</t>
   </si>
   <si>
@@ -524,6 +521,9 @@
   </si>
   <si>
     <t>Montage Pauschale</t>
+  </si>
+  <si>
+    <t>(P_Modell * H_Faktor * L * F_Faktor) + ((math.ceil(L/2.0)+1) * P_Saeule * F_Faktor) + (L * P_Montage)</t>
   </si>
 </sst>
 </file>
@@ -889,13 +889,13 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1121,7 +1121,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B2" t="s">
         <v>68</v>
@@ -1130,7 +1130,7 @@
         <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1149,7 +1149,7 @@
         <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C4" t="s">
         <v>60</v>
@@ -1210,13 +1210,13 @@
         <v>42</v>
       </c>
       <c r="B3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" t="s">
         <v>103</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>104</v>
-      </c>
-      <c r="E3" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1224,13 +1224,13 @@
         <v>45</v>
       </c>
       <c r="B4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" t="s">
         <v>150</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>151</v>
-      </c>
-      <c r="D4" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1238,13 +1238,13 @@
         <v>45</v>
       </c>
       <c r="B5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" t="s">
         <v>106</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>107</v>
-      </c>
-      <c r="D5" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1252,16 +1252,16 @@
         <v>45</v>
       </c>
       <c r="B6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" t="s">
         <v>109</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>110</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>111</v>
-      </c>
-      <c r="E6" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1269,13 +1269,13 @@
         <v>45</v>
       </c>
       <c r="B7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" t="s">
         <v>113</v>
       </c>
-      <c r="C7" t="s">
-        <v>114</v>
-      </c>
       <c r="D7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1283,13 +1283,13 @@
         <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C8" t="s">
         <v>80</v>
       </c>
       <c r="D8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1303,7 +1303,7 @@
         <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1328,7 +1328,7 @@
         <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -1500,7 +1500,7 @@
         <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1519,7 +1519,7 @@
         <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C4" t="s">
         <v>60</v>
@@ -1568,10 +1568,10 @@
         <v>42</v>
       </c>
       <c r="B2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" t="s">
         <v>119</v>
-      </c>
-      <c r="C2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1579,13 +1579,13 @@
         <v>45</v>
       </c>
       <c r="B3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" t="s">
         <v>121</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>122</v>
-      </c>
-      <c r="D3" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1593,13 +1593,13 @@
         <v>45</v>
       </c>
       <c r="B4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" t="s">
         <v>124</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>125</v>
-      </c>
-      <c r="D4" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1607,13 +1607,13 @@
         <v>45</v>
       </c>
       <c r="B5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" t="s">
         <v>127</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>128</v>
-      </c>
-      <c r="D5" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1621,13 +1621,13 @@
         <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C6" t="s">
         <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1635,10 +1635,10 @@
         <v>42</v>
       </c>
       <c r="B7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" t="s">
         <v>132</v>
-      </c>
-      <c r="C7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1646,13 +1646,13 @@
         <v>45</v>
       </c>
       <c r="B8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" t="s">
         <v>134</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>135</v>
-      </c>
-      <c r="D8" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1660,10 +1660,10 @@
         <v>42</v>
       </c>
       <c r="B9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" t="s">
         <v>137</v>
-      </c>
-      <c r="C9" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1671,10 +1671,10 @@
         <v>42</v>
       </c>
       <c r="B10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" t="s">
         <v>139</v>
-      </c>
-      <c r="C10" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1688,7 +1688,7 @@
         <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -1743,7 +1743,7 @@
         <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1751,13 +1751,13 @@
         <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C4" t="s">
         <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1765,13 +1765,13 @@
         <v>45</v>
       </c>
       <c r="B5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" t="s">
         <v>144</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>145</v>
-      </c>
-      <c r="D5" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1807,7 +1807,7 @@
         <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -1851,7 +1851,7 @@
         <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1870,7 +1870,7 @@
         <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C4" t="s">
         <v>60</v>
@@ -2328,8 +2328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2430,10 +2430,10 @@
         <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2447,7 +2447,7 @@
         <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>82</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2502,7 +2502,7 @@
         <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2516,7 +2516,7 @@
         <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2544,7 +2544,7 @@
         <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -2569,7 +2569,7 @@
         <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2610,10 +2610,10 @@
         <v>37</v>
       </c>
       <c r="C2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" t="s">
         <v>87</v>
-      </c>
-      <c r="D2" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2621,13 +2621,13 @@
         <v>45</v>
       </c>
       <c r="B3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" t="s">
         <v>89</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>90</v>
-      </c>
-      <c r="D3" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2649,13 +2649,13 @@
         <v>45</v>
       </c>
       <c r="B5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" t="s">
         <v>92</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>93</v>
-      </c>
-      <c r="D5" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -2663,7 +2663,7 @@
         <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C6" t="s">
         <v>72</v>
@@ -2674,10 +2674,10 @@
         <v>42</v>
       </c>
       <c r="B7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" t="s">
         <v>96</v>
-      </c>
-      <c r="C7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2691,7 +2691,7 @@
         <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2703,7 +2703,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -2738,7 +2738,7 @@
         <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -2755,24 +2755,24 @@
         <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" t="s">
         <v>156</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>157</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>158</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>159</v>
-      </c>
-      <c r="E4" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2794,13 +2794,13 @@
         <v>45</v>
       </c>
       <c r="B6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" t="s">
         <v>92</v>
       </c>
-      <c r="C6" t="s">
-        <v>93</v>
-      </c>
       <c r="D6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -2808,10 +2808,10 @@
         <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2825,7 +2825,7 @@
         <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D7E413-B0A7-4D79-80EB-5AFDEE076B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A98C71F-177D-4CA4-B763-7DE3CED681F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Startseite" sheetId="1" r:id="rId1"/>
@@ -1097,7 +1097,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1468,7 +1468,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1491,7 +1493,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="B2" t="s">
         <v>68</v>
@@ -2328,8 +2330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2704,7 +2706,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A98C71F-177D-4CA4-B763-7DE3CED681F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3FF8A2-B8CD-43FE-95FA-85E2D2582BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Startseite" sheetId="1" r:id="rId1"/>
@@ -247,9 +247,6 @@
     <t>P_Art</t>
   </si>
   <si>
-    <t>Handlauf SideRail:70, Blumenkasten:135</t>
-  </si>
-  <si>
     <t>Menge / Länge</t>
   </si>
   <si>
@@ -524,6 +521,9 @@
   </si>
   <si>
     <t>(P_Modell * H_Faktor * L * F_Faktor) + ((math.ceil(L/2.0)+1) * P_Saeule * F_Faktor) + (L * P_Montage)</t>
+  </si>
+  <si>
+    <t>Balkonblende Standard (lfm):120, Balkonblende Design (lfm):160, Handlauf Classic (lfm):70, Handlauf Comfort (lfm):85, Blumenkistenhalter (Paar):45, T-Verbinder für Handlauf:25, Eckverbinder 90°:35, Wandanschluss Handlauf:18, Abdeckkappe Steher (Stk):8, Stoßverbinder (Stk):12, Sichtschutz-Element (Stk):250, Seitenblende (Stk):180</t>
   </si>
 </sst>
 </file>
@@ -1121,7 +1121,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B2" t="s">
         <v>68</v>
@@ -1130,7 +1130,7 @@
         <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1138,10 +1138,10 @@
         <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1149,13 +1149,13 @@
         <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C4" t="s">
         <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1210,13 +1210,13 @@
         <v>42</v>
       </c>
       <c r="B3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" t="s">
         <v>102</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>103</v>
-      </c>
-      <c r="E3" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1224,13 +1224,13 @@
         <v>45</v>
       </c>
       <c r="B4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" t="s">
         <v>149</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>150</v>
-      </c>
-      <c r="D4" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1238,13 +1238,13 @@
         <v>45</v>
       </c>
       <c r="B5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" t="s">
         <v>105</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>106</v>
-      </c>
-      <c r="D5" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1252,16 +1252,16 @@
         <v>45</v>
       </c>
       <c r="B6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" t="s">
         <v>108</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>109</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>110</v>
-      </c>
-      <c r="E6" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1269,13 +1269,13 @@
         <v>45</v>
       </c>
       <c r="B7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" t="s">
         <v>112</v>
       </c>
-      <c r="C7" t="s">
-        <v>113</v>
-      </c>
       <c r="D7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1283,13 +1283,13 @@
         <v>45</v>
       </c>
       <c r="B8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" t="s">
         <v>114</v>
-      </c>
-      <c r="C8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D8" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1303,7 +1303,7 @@
         <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1328,7 +1328,7 @@
         <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -1468,7 +1468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1493,7 +1493,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B2" t="s">
         <v>68</v>
@@ -1502,7 +1502,7 @@
         <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1510,10 +1510,10 @@
         <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1521,13 +1521,13 @@
         <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C4" t="s">
         <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1570,10 +1570,10 @@
         <v>42</v>
       </c>
       <c r="B2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" t="s">
         <v>118</v>
-      </c>
-      <c r="C2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1581,13 +1581,13 @@
         <v>45</v>
       </c>
       <c r="B3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" t="s">
         <v>120</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>121</v>
-      </c>
-      <c r="D3" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1595,13 +1595,13 @@
         <v>45</v>
       </c>
       <c r="B4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" t="s">
         <v>123</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>124</v>
-      </c>
-      <c r="D4" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1609,13 +1609,13 @@
         <v>45</v>
       </c>
       <c r="B5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" t="s">
         <v>126</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>127</v>
-      </c>
-      <c r="D5" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1623,13 +1623,13 @@
         <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C6" t="s">
         <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1637,10 +1637,10 @@
         <v>42</v>
       </c>
       <c r="B7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" t="s">
         <v>131</v>
-      </c>
-      <c r="C7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1648,13 +1648,13 @@
         <v>45</v>
       </c>
       <c r="B8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" t="s">
         <v>133</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>134</v>
-      </c>
-      <c r="D8" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1662,10 +1662,10 @@
         <v>42</v>
       </c>
       <c r="B9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" t="s">
         <v>136</v>
-      </c>
-      <c r="C9" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1673,10 +1673,10 @@
         <v>42</v>
       </c>
       <c r="B10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" t="s">
         <v>138</v>
-      </c>
-      <c r="C10" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1690,7 +1690,7 @@
         <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -1745,7 +1745,7 @@
         <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1753,13 +1753,13 @@
         <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C4" t="s">
         <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1767,13 +1767,13 @@
         <v>45</v>
       </c>
       <c r="B5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" t="s">
         <v>143</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>144</v>
-      </c>
-      <c r="D5" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1809,7 +1809,7 @@
         <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1853,7 +1853,7 @@
         <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1861,10 +1861,10 @@
         <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1872,13 +1872,13 @@
         <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C4" t="s">
         <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2261,7 +2261,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -2284,7 +2286,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c r="B2" t="s">
         <v>68</v>
@@ -2293,7 +2295,7 @@
         <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2301,10 +2303,10 @@
         <v>42</v>
       </c>
       <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
         <v>71</v>
-      </c>
-      <c r="C3" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2318,7 +2320,7 @@
         <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2382,7 +2384,7 @@
         <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2390,13 +2392,13 @@
         <v>45</v>
       </c>
       <c r="B4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" t="s">
         <v>75</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>76</v>
-      </c>
-      <c r="D4" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2410,7 +2412,7 @@
         <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -2418,13 +2420,13 @@
         <v>45</v>
       </c>
       <c r="B6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" t="s">
         <v>79</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>80</v>
-      </c>
-      <c r="D6" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -2432,10 +2434,10 @@
         <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2449,7 +2451,7 @@
         <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -2504,7 +2506,7 @@
         <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2512,13 +2514,13 @@
         <v>45</v>
       </c>
       <c r="B4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" t="s">
         <v>75</v>
       </c>
-      <c r="C4" t="s">
-        <v>76</v>
-      </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2540,13 +2542,13 @@
         <v>45</v>
       </c>
       <c r="B6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" t="s">
         <v>79</v>
       </c>
-      <c r="C6" t="s">
-        <v>80</v>
-      </c>
       <c r="D6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -2571,7 +2573,7 @@
         <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2612,10 +2614,10 @@
         <v>37</v>
       </c>
       <c r="C2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" t="s">
         <v>86</v>
-      </c>
-      <c r="D2" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2623,13 +2625,13 @@
         <v>45</v>
       </c>
       <c r="B3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" t="s">
         <v>88</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>89</v>
-      </c>
-      <c r="D3" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2651,13 +2653,13 @@
         <v>45</v>
       </c>
       <c r="B5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" t="s">
         <v>91</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>92</v>
-      </c>
-      <c r="D5" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -2665,10 +2667,10 @@
         <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -2676,10 +2678,10 @@
         <v>42</v>
       </c>
       <c r="B7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" t="s">
         <v>95</v>
-      </c>
-      <c r="C7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2693,7 +2695,7 @@
         <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2740,7 +2742,7 @@
         <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -2757,24 +2759,24 @@
         <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4" t="s">
         <v>155</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>156</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>157</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>158</v>
-      </c>
-      <c r="E4" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2796,13 +2798,13 @@
         <v>45</v>
       </c>
       <c r="B6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" t="s">
         <v>91</v>
       </c>
-      <c r="C6" t="s">
-        <v>92</v>
-      </c>
       <c r="D6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -2810,10 +2812,10 @@
         <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2827,7 +2829,7 @@
         <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -1,41 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3FF8A2-B8CD-43FE-95FA-85E2D2582BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F0F2B78-331C-FC4E-A2DB-9DFB59F8CDCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Startseite" sheetId="1" r:id="rId1"/>
-    <sheet name="Brix_Gel_Stab" sheetId="2" r:id="rId2"/>
-    <sheet name="Brix_Gel_Flaechig" sheetId="3" r:id="rId3"/>
-    <sheet name="Brix_Gel_Glas" sheetId="4" r:id="rId4"/>
-    <sheet name="Zub_Gel" sheetId="5" r:id="rId5"/>
-    <sheet name="Brix_Zaun_Stab" sheetId="6" r:id="rId6"/>
-    <sheet name="Brix_Zaun_Sicht" sheetId="7" r:id="rId7"/>
-    <sheet name="Brix_Tore" sheetId="8" r:id="rId8"/>
-    <sheet name="Brix_Schiebe" sheetId="9" r:id="rId9"/>
-    <sheet name="Zub_Zaun" sheetId="10" r:id="rId10"/>
-    <sheet name="Draht_Matten" sheetId="11" r:id="rId11"/>
-    <sheet name="Draht_Mix" sheetId="12" r:id="rId12"/>
-    <sheet name="Zub_Draht" sheetId="13" r:id="rId13"/>
-    <sheet name="Stahl_Treppe" sheetId="14" r:id="rId14"/>
-    <sheet name="Eigen_Edelstahl" sheetId="15" r:id="rId15"/>
-    <sheet name="Zub_Montage" sheetId="16" r:id="rId16"/>
+    <sheet name="Eigen_Glasdach" sheetId="17" r:id="rId2"/>
+    <sheet name="Brix_Gel_Stab" sheetId="2" r:id="rId3"/>
+    <sheet name="Brix_Gel_Flaechig" sheetId="3" r:id="rId4"/>
+    <sheet name="Brix_Gel_Glas" sheetId="4" r:id="rId5"/>
+    <sheet name="Zub_Gel" sheetId="5" r:id="rId6"/>
+    <sheet name="Brix_Zaun_Stab" sheetId="6" r:id="rId7"/>
+    <sheet name="Brix_Zaun_Sicht" sheetId="7" r:id="rId8"/>
+    <sheet name="Brix_Tore" sheetId="8" r:id="rId9"/>
+    <sheet name="Brix_Schiebe" sheetId="9" r:id="rId10"/>
+    <sheet name="Zub_Zaun" sheetId="10" r:id="rId11"/>
+    <sheet name="Draht_Matten" sheetId="11" r:id="rId12"/>
+    <sheet name="Draht_Mix" sheetId="12" r:id="rId13"/>
+    <sheet name="Zub_Draht" sheetId="13" r:id="rId14"/>
+    <sheet name="Stahl_Treppe" sheetId="14" r:id="rId15"/>
+    <sheet name="Eigen_Edelstahl" sheetId="15" r:id="rId16"/>
+    <sheet name="Zub_Montage" sheetId="16" r:id="rId17"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="175">
   <si>
     <t>Kategorie</t>
   </si>
@@ -148,6 +157,12 @@
     <t>Zub_Montage</t>
   </si>
   <si>
+    <t>Glasdach</t>
+  </si>
+  <si>
+    <t>Eigen_Glasdach</t>
+  </si>
+  <si>
     <t>Typ</t>
   </si>
   <si>
@@ -241,12 +256,18 @@
     <t>((P_System + P_Glas) * L * F_Faktor) + ((math.ceil(L/1.3)+1) * P_Steher * F_Faktor) + (Ecken * 110) + (L * P_Arbeit)</t>
   </si>
   <si>
+    <t>Mehrfach</t>
+  </si>
+  <si>
     <t>Artikel</t>
   </si>
   <si>
     <t>P_Art</t>
   </si>
   <si>
+    <t>Balkonblende Standard (lfm):120, Balkonblende Design (lfm):160, Handlauf Classic (lfm):70, Handlauf Comfort (lfm):85, Blumenkistenhalter (Paar):45, T-Verbinder für Handlauf:25, Eckverbinder 90°:35, Wandanschluss Handlauf:18, Abdeckkappe Steher (Stk):8, Stoßverbinder (Stk):12, Sichtschutz-Element (Stk):250, Seitenblende (Stk):180</t>
+  </si>
+  <si>
     <t>Menge / Länge</t>
   </si>
   <si>
@@ -280,6 +301,15 @@
     <t>Betonieren:85, Dübeln:110</t>
   </si>
   <si>
+    <t>Montage Pauschale</t>
+  </si>
+  <si>
+    <t>P_Montage</t>
+  </si>
+  <si>
+    <t>(P_Modell * H_Faktor * L * F_Faktor) + ((math.ceil(L/2.0)+1) * P_Saeule * F_Faktor) + (L * P_Montage)</t>
+  </si>
+  <si>
     <t>Lamello:290, Listello:280</t>
   </si>
   <si>
@@ -322,9 +352,6 @@
     <t>Montage (Pauschal)</t>
   </si>
   <si>
-    <t>P_Montage</t>
-  </si>
-  <si>
     <t>((P_Basis + P_Full) * F_Faktor * Menge) + (P_Antrieb * Menge) + P_Montage</t>
   </si>
   <si>
@@ -334,9 +361,27 @@
     <t>C-Profil Stab:1400, C-Profil Sichtschutz:1600</t>
   </si>
   <si>
+    <t>Sicherheits- &amp; Zutritts-Zubehör</t>
+  </si>
+  <si>
+    <t>P_Zub</t>
+  </si>
+  <si>
+    <t>Lichtschranke:145, Blinkleuchte:95, Schlüsseltaster:120, GSM-Modul:350, Codetaster:180</t>
+  </si>
+  <si>
+    <t>Wird addiert</t>
+  </si>
+  <si>
     <t>Manuell:0, E-Antrieb Set:1450</t>
   </si>
   <si>
+    <t>(P_Modell * L * F_Faktor) + P_Zub + P_Antrieb + P_Montage</t>
+  </si>
+  <si>
+    <t>Briefkasten:155, Paketbox:400, Lackspray:25, Handsender 2-Kanal:55, Handsender 4-Kanal:68, Lichtschranke (Paar):145, Blinkleuchte LED:95, Schlüsseltaster (Auf/Zu):120, Codetaster Funk:180, GSM-Modul (Handy-Steuerung):350, Zahnstange Kunststoff (lfm):35, Zahnstange Stahl 12mm (lfm):48, Sicherheits-Kontaktleiste (aktiv):220, Wandhalterung Handsender:15, Externe Antenne:65</t>
+  </si>
+  <si>
     <t>Gesamt</t>
   </si>
   <si>
@@ -349,6 +394,15 @@
     <t>Standard zB 9 Euro</t>
   </si>
   <si>
+    <t>Steher-Abstand</t>
+  </si>
+  <si>
+    <t>Dist</t>
+  </si>
+  <si>
+    <t>Standard (2.5m):2.5, Verkürzt (2.0m):2.0, Eng (1.25m):1.25</t>
+  </si>
+  <si>
     <t>Konsole Typ (wenn Dübeln)</t>
   </si>
   <si>
@@ -376,6 +430,9 @@
     <t>P_Matte</t>
   </si>
   <si>
+    <t>H 1030:22, H 1230:26, H 1430:31, 1630:35</t>
+  </si>
+  <si>
     <t>Säulen-Typ</t>
   </si>
   <si>
@@ -385,6 +442,9 @@
     <t>Verzinkt:1.0, Farbe:1.15</t>
   </si>
   <si>
+    <t>(L * P_Matte * F_Faktor) + ((math.ceil(L/Dist)+1) * ((P_Saeule * F_Faktor) + (Ist_Beton * 2 * P_Sack) + ((1-Ist_Beton) * P_Konsole))) + (L * P_Arbeit)</t>
+  </si>
+  <si>
     <t>Sichtschutz Rolle:45, Klemmen:2, Spray:18</t>
   </si>
   <si>
@@ -454,6 +514,9 @@
     <t>P_Mat</t>
   </si>
   <si>
+    <t>(math.ceil(H/0.18) * P_Stufe) + ((H * 1.8 * 2) * P_Wange * F_Faktor) + (L_Podest * B * P_Rost) + ((5 + (H * 4)) * P_Satz) + P_Mat</t>
+  </si>
+  <si>
     <t>Reling 5-Stab:240, Glas:450</t>
   </si>
   <si>
@@ -472,71 +535,55 @@
     <t>Aufgeschraubt:0, Stirnseitig:35</t>
   </si>
   <si>
+    <t>60</t>
+  </si>
+  <si>
     <t>(L * P_Modell) + ((math.ceil(L/1.2)+1) * (P_Steher + P_Montageart)) + (Ecken * 150) + (L * P_Arbeit)</t>
   </si>
   <si>
     <t>Anker M10:2.5, Mörtel:25, Gewindestange:8</t>
   </si>
   <si>
-    <t>(math.ceil(H/0.18) * P_Stufe) + ((H * 1.8 * 2) * P_Wange * F_Faktor) + (L_Podest * B * P_Rost) + ((5 + (H * 4)) * P_Satz) + P_Mat</t>
-  </si>
-  <si>
-    <t>Steher-Abstand</t>
-  </si>
-  <si>
-    <t>Dist</t>
-  </si>
-  <si>
-    <t>Standard (2.5m):2.5, Verkürzt (2.0m):2.0, Eng (1.25m):1.25</t>
-  </si>
-  <si>
-    <t>(L * P_Matte * F_Faktor) + ((math.ceil(L/Dist)+1) * ((P_Saeule * F_Faktor) + (Ist_Beton * 2 * P_Sack) + ((1-Ist_Beton) * P_Konsole))) + (L * P_Arbeit)</t>
-  </si>
-  <si>
-    <t>H 1030:22, H 1230:26, H 1430:31, 1630:35</t>
-  </si>
-  <si>
-    <t>Briefkasten:155, Paketbox:400, Lackspray:25, Handsender 2-Kanal:55, Handsender 4-Kanal:68, Lichtschranke (Paar):145, Blinkleuchte LED:95, Schlüsseltaster (Auf/Zu):120, Codetaster Funk:180, GSM-Modul (Handy-Steuerung):350, Zahnstange Kunststoff (lfm):35, Zahnstange Stahl 12mm (lfm):48, Sicherheits-Kontaktleiste (aktiv):220, Wandhalterung Handsender:15, Externe Antenne:65</t>
-  </si>
-  <si>
-    <t>Mehrfach</t>
-  </si>
-  <si>
-    <t>Sicherheits- &amp; Zutritts-Zubehör</t>
-  </si>
-  <si>
-    <t>P_Zub</t>
-  </si>
-  <si>
-    <t>Lichtschranke:145, Blinkleuchte:95, Schlüsseltaster:120, GSM-Modul:350, Codetaster:180</t>
-  </si>
-  <si>
-    <t>Wird addiert</t>
-  </si>
-  <si>
-    <t>(P_Modell * L * F_Faktor) + P_Zub + P_Antrieb + P_Montage</t>
-  </si>
-  <si>
-    <t>Montage Pauschale</t>
-  </si>
-  <si>
-    <t>(P_Modell * H_Faktor * L * F_Faktor) + ((math.ceil(L/2.0)+1) * P_Saeule * F_Faktor) + (L * P_Montage)</t>
-  </si>
-  <si>
-    <t>Balkonblende Standard (lfm):120, Balkonblende Design (lfm):160, Handlauf Classic (lfm):70, Handlauf Comfort (lfm):85, Blumenkistenhalter (Paar):45, T-Verbinder für Handlauf:25, Eckverbinder 90°:35, Wandanschluss Handlauf:18, Abdeckkappe Steher (Stk):8, Stoßverbinder (Stk):12, Sichtschutz-Element (Stk):250, Seitenblende (Stk):180</t>
+    <t xml:space="preserve">Gläser </t>
+  </si>
+  <si>
+    <t>p_glas</t>
+  </si>
+  <si>
+    <t>vsg12:100, Vsg16:150</t>
+  </si>
+  <si>
+    <t>Länge</t>
+  </si>
+  <si>
+    <t>p_l</t>
+  </si>
+  <si>
+    <t>Tiefe</t>
+  </si>
+  <si>
+    <t>p_t</t>
+  </si>
+  <si>
+    <t>(p_l * p_t * p_glas)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -552,7 +599,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -575,13 +622,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -886,31 +951,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -921,7 +979,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -932,7 +990,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -943,7 +1001,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -954,7 +1012,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -965,7 +1023,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -976,7 +1034,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -987,7 +1045,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -998,7 +1056,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1009,7 +1067,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1020,7 +1078,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1031,7 +1089,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1042,7 +1100,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -1053,7 +1111,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -1064,7 +1122,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1075,24 +1133,157 @@
         <v>36</v>
       </c>
     </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.41015625" customWidth="1"/>
+    <col min="2" max="2" width="27.57421875" customWidth="1"/>
+    <col min="3" max="3" width="11.02734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.41015625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -1100,62 +1291,62 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>154</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1163,7 +1354,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -1171,164 +1362,164 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.23046875" customWidth="1"/>
+    <col min="3" max="3" width="17.75390625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="E3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="C4" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="D4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="C5" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="D5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="C6" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="D6" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="E6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="C7" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="D7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E11" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1336,7 +1527,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -1344,119 +1535,119 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="91.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.609375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.4140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="91.0703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1464,7 +1655,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -1472,62 +1663,62 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>154</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1535,7 +1726,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -1543,228 +1734,70 @@
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.1015625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="C2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C3" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="D3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="C4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C8" t="s">
-        <v>133</v>
-      </c>
-      <c r="D8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" t="s">
-        <v>147</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" t="s">
         <v>140</v>
-      </c>
-      <c r="C4" t="s">
-        <v>53</v>
       </c>
       <c r="D4" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
         <v>142</v>
@@ -1776,40 +1809,79 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>145</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>147</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>149</v>
       </c>
       <c r="C8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>60</v>
       </c>
-      <c r="E8" t="s">
-        <v>145</v>
+      <c r="B11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -1818,67 +1890,189 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1887,236 +2081,201 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1224481B-CCE1-5048-ADBB-FDFEAC9D0372}">
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>166</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+      <c r="D2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>169</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>171</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="E5" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2125,131 +2284,117 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" t="s">
         <v>62</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E8" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2258,69 +2403,131 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>154</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" t="s">
         <v>68</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" t="s">
         <v>69</v>
-      </c>
-      <c r="D2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2329,6 +2536,77 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -2336,244 +2614,122 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="42.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.796875" customWidth="1"/>
+    <col min="2" max="2" width="21.5234375" customWidth="1"/>
+    <col min="3" max="3" width="12.64453125" customWidth="1"/>
+    <col min="4" max="4" width="42.5078125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.37109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>160</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>161</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2582,120 +2738,120 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
         <v>45</v>
       </c>
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
       <c r="C2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" t="s">
         <v>88</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" t="s">
         <v>90</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" t="s">
         <v>91</v>
-      </c>
-      <c r="D5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2704,132 +2860,120 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.42578125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
         <v>97</v>
       </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C5" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C4" t="s">
-        <v>156</v>
-      </c>
-      <c r="D4" t="s">
-        <v>157</v>
-      </c>
-      <c r="E4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" t="s">
-        <v>50</v>
-      </c>
       <c r="D5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>160</v>
+        <v>101</v>
       </c>
       <c r="C7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>159</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F0F2B78-331C-FC4E-A2DB-9DFB59F8CDCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{025A8611-10E4-4A41-848A-1C0CE326BD33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="180">
   <si>
     <t>Kategorie</t>
   </si>
@@ -565,7 +565,16 @@
     <t>p_t</t>
   </si>
   <si>
-    <t>(p_l * p_t * p_glas)</t>
+    <t xml:space="preserve">Zubehör </t>
+  </si>
+  <si>
+    <t>p_z</t>
+  </si>
+  <si>
+    <t>(p_l * p_t * p_glas) + p_z</t>
+  </si>
+  <si>
+    <t>Glashalter:170, Anschluß Wand:35</t>
   </si>
 </sst>
 </file>
@@ -2082,10 +2091,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1224481B-CCE1-5048-ADBB-FDFEAC9D0372}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2145,16 +2154,30 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>60</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>61</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>62</v>
       </c>
-      <c r="E5" t="s">
-        <v>173</v>
+      <c r="E6" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{025A8611-10E4-4A41-848A-1C0CE326BD33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{04FAC905-2C59-1C4A-A8D0-14831140E2BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Startseite" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="182">
   <si>
     <t>Kategorie</t>
   </si>
@@ -535,9 +535,6 @@
     <t>Aufgeschraubt:0, Stirnseitig:35</t>
   </si>
   <si>
-    <t>60</t>
-  </si>
-  <si>
     <t>(L * P_Modell) + ((math.ceil(L/1.2)+1) * (P_Steher + P_Montageart)) + (Ecken * 150) + (L * P_Arbeit)</t>
   </si>
   <si>
@@ -575,6 +572,12 @@
   </si>
   <si>
     <t>Glashalter:170, Anschluß Wand:35</t>
+  </si>
+  <si>
+    <t>Berechnung</t>
+  </si>
+  <si>
+    <t>(L * 0,5 * 60)</t>
   </si>
 </sst>
 </file>
@@ -1902,7 +1905,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1989,7 +1994,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>176</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -1997,8 +2002,8 @@
       <c r="C7" t="s">
         <v>59</v>
       </c>
-      <c r="D7" t="s">
-        <v>163</v>
+      <c r="E7" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2012,7 +2017,7 @@
         <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -2056,7 +2061,7 @@
         <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2093,7 +2098,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1224481B-CCE1-5048-ADBB-FDFEAC9D0372}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -2121,13 +2126,13 @@
         <v>47</v>
       </c>
       <c r="B2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" t="s">
         <v>166</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>167</v>
-      </c>
-      <c r="D2" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2135,10 +2140,10 @@
         <v>44</v>
       </c>
       <c r="B3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" t="s">
         <v>169</v>
-      </c>
-      <c r="C3" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2146,10 +2151,10 @@
         <v>44</v>
       </c>
       <c r="B4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" t="s">
         <v>171</v>
-      </c>
-      <c r="C4" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2157,13 +2162,13 @@
         <v>70</v>
       </c>
       <c r="B5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5" t="s">
         <v>173</v>
       </c>
-      <c r="C5" t="s">
-        <v>174</v>
-      </c>
       <c r="D5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2177,7 +2182,7 @@
         <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2631,10 +2636,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2674,32 +2679,18 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" t="s">
-        <v>77</v>
-      </c>
-    </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2707,13 +2698,13 @@
         <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2721,37 +2712,51 @@
         <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>83</v>
+      </c>
+      <c r="D7" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>60</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>61</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>62</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" t="s">
         <v>87</v>
       </c>
     </row>

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04FAC905-2C59-1C4A-A8D0-14831140E2BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{49ED5CA3-C5E6-AC4D-B54B-88BE4C028CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -577,7 +577,7 @@
     <t>Berechnung</t>
   </si>
   <si>
-    <t>(L * 0,5 * 60)</t>
+    <t>L * 0,5 * 60</t>
   </si>
 </sst>
 </file>
@@ -1906,7 +1906,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49ED5CA3-C5E6-AC4D-B54B-88BE4C028CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A66FBB9A-37F3-BE43-A343-395D0CE49E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="183">
   <si>
     <t>Kategorie</t>
   </si>
@@ -577,7 +577,7 @@
     <t>Berechnung</t>
   </si>
   <si>
-    <t>L * 0,5 * 60</t>
+    <t>L  * 60</t>
   </si>
 </sst>
 </file>

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A66FBB9A-37F3-BE43-A343-395D0CE49E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAAADEDD-22BC-9247-9F20-A4A51C031ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="184">
   <si>
     <t>Kategorie</t>
   </si>
@@ -577,7 +577,7 @@
     <t>Berechnung</t>
   </si>
   <si>
-    <t>L  * 60</t>
+    <t>L  * 60 * 0.5</t>
   </si>
 </sst>
 </file>

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAAADEDD-22BC-9247-9F20-A4A51C031ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{55E2177A-F5F6-6443-ACF3-534D138A9CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="186">
   <si>
     <t>Kategorie</t>
   </si>
@@ -535,9 +535,6 @@
     <t>Aufgeschraubt:0, Stirnseitig:35</t>
   </si>
   <si>
-    <t>(L * P_Modell) + ((math.ceil(L/1.2)+1) * (P_Steher + P_Montageart)) + (Ecken * 150) + (L * P_Arbeit)</t>
-  </si>
-  <si>
     <t>Anker M10:2.5, Mörtel:25, Gewindestange:8</t>
   </si>
   <si>
@@ -578,6 +575,15 @@
   </si>
   <si>
     <t>L  * 60 * 0.5</t>
+  </si>
+  <si>
+    <t>Rabatt in %</t>
+  </si>
+  <si>
+    <t>p_rabatt</t>
+  </si>
+  <si>
+    <t>((L * P_Modell) + ((math.ceil(L/1.2)+1) * (P_Steher + P_Montageart)) + (Ecken * 150) + (L * P_Arbeit)) * (p_rabatt / 100)</t>
   </si>
 </sst>
 </file>
@@ -1903,10 +1909,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1994,7 +2000,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -2003,21 +2009,32 @@
         <v>59</v>
       </c>
       <c r="E7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>60</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>61</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>62</v>
       </c>
-      <c r="E8" t="s">
-        <v>163</v>
+      <c r="E9" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -2061,7 +2078,7 @@
         <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2126,13 +2143,13 @@
         <v>47</v>
       </c>
       <c r="B2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" t="s">
         <v>165</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>166</v>
-      </c>
-      <c r="D2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2140,10 +2157,10 @@
         <v>44</v>
       </c>
       <c r="B3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" t="s">
         <v>168</v>
-      </c>
-      <c r="C3" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2151,10 +2168,10 @@
         <v>44</v>
       </c>
       <c r="B4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" t="s">
         <v>170</v>
-      </c>
-      <c r="C4" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2162,13 +2179,13 @@
         <v>70</v>
       </c>
       <c r="B5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" t="s">
         <v>172</v>
       </c>
-      <c r="C5" t="s">
-        <v>173</v>
-      </c>
       <c r="D5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2182,7 +2199,7 @@
         <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55E2177A-F5F6-6443-ACF3-534D138A9CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{72C689F1-9C5F-E546-A271-915CE301D7F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="187">
   <si>
     <t>Kategorie</t>
   </si>
@@ -583,7 +583,7 @@
     <t>p_rabatt</t>
   </si>
   <si>
-    <t>((L * P_Modell) + ((math.ceil(L/1.2)+1) * (P_Steher + P_Montageart)) + (Ecken * 150) + (L * P_Arbeit)) * (p_rabatt / 100)</t>
+    <t>((L * P_Modell) + ((math.ceil(L/1.2)+1) * (P_Steher + P_Montageart)) + (Ecken * 150) + (L * P_Arbeit)) - (p_rabatt / 100)</t>
   </si>
 </sst>
 </file>
@@ -1912,7 +1912,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72C689F1-9C5F-E546-A271-915CE301D7F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{056CA984-8AF3-6546-BD40-5DAA944E5D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="188">
   <si>
     <t>Kategorie</t>
   </si>
@@ -583,7 +583,7 @@
     <t>p_rabatt</t>
   </si>
   <si>
-    <t>((L * P_Modell) + ((math.ceil(L/1.2)+1) * (P_Steher + P_Montageart)) + (Ecken * 150) + (L * P_Arbeit)) - (p_rabatt / 100)</t>
+    <t>((L * P_Modell) + ((math.ceil(L/1.2)+1) * (P_Steher + P_Montageart)) + (Ecken * 150) + (L * P_Arbeit)) * p_rabatt / 100</t>
   </si>
 </sst>
 </file>

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{056CA984-8AF3-6546-BD40-5DAA944E5D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C430B7C-5366-0F47-9A6E-889303C7EF33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="189">
   <si>
     <t>Kategorie</t>
   </si>
@@ -583,7 +583,7 @@
     <t>p_rabatt</t>
   </si>
   <si>
-    <t>((L * P_Modell) + ((math.ceil(L/1.2)+1) * (P_Steher + P_Montageart)) + (Ecken * 150) + (L * P_Arbeit)) * p_rabatt / 100</t>
+    <t>((L * P_Modell) + ((math.ceil(L/1.2)+1) * (P_Steher + P_Montageart)) + (Ecken * 150) + (L * P_Arbeit)) * p_rabatt</t>
   </si>
 </sst>
 </file>

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C430B7C-5366-0F47-9A6E-889303C7EF33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{407E64B2-6E6C-F445-B3DF-95A9910DEAB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="190">
   <si>
     <t>Kategorie</t>
   </si>
@@ -583,7 +583,7 @@
     <t>p_rabatt</t>
   </si>
   <si>
-    <t>((L * P_Modell) + ((math.ceil(L/1.2)+1) * (P_Steher + P_Montageart)) + (Ecken * 150) + (L * P_Arbeit)) * p_rabatt</t>
+    <t>(L * P_Modell) + ((math.ceil(L/1.2)+1) * (P_Steher + P_Montageart)) + (Ecken * 150) + (L * P_Arbeit) * ( 1 - (p_rabatt / 100))</t>
   </si>
 </sst>
 </file>

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{407E64B2-6E6C-F445-B3DF-95A9910DEAB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D361481-D77C-4644-928E-7E43EFF3D987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -583,7 +583,7 @@
     <t>p_rabatt</t>
   </si>
   <si>
-    <t>(L * P_Modell) + ((math.ceil(L/1.2)+1) * (P_Steher + P_Montageart)) + (Ecken * 150) + (L * P_Arbeit) * ( 1 - (p_rabatt / 100))</t>
+    <t>((L * P_Modell) + ((math.ceil(L/1.2)+1) * (P_Steher + P_Montageart)) + (Ecken * 150) + (L * P_Arbeit) )* ( 1 - (p_rabatt / 100))</t>
   </si>
 </sst>
 </file>

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D361481-D77C-4644-928E-7E43EFF3D987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:41000001_{0112FCE4-7EAC-F44A-990D-CDFEC9E9CEC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="181">
   <si>
     <t>Kategorie</t>
   </si>
@@ -523,9 +523,6 @@
     <t>Steher-Profil</t>
   </si>
   <si>
-    <t>Rundrohr:90, Quadratrohr:110</t>
-  </si>
-  <si>
     <t>Montageart</t>
   </si>
   <si>
@@ -584,6 +581,9 @@
   </si>
   <si>
     <t>((L * P_Modell) + ((math.ceil(L/1.2)+1) * (P_Steher + P_Montageart)) + (Ecken * 150) + (L * P_Arbeit) )* ( 1 - (p_rabatt / 100))</t>
+  </si>
+  <si>
+    <t>---:0, Rundrohr:90, Quadratrohr:110</t>
   </si>
 </sst>
 </file>
@@ -659,7 +659,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -667,6 +667,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1912,7 +1913,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1969,8 +1970,8 @@
       <c r="C4" t="s">
         <v>55</v>
       </c>
-      <c r="D4" t="s">
-        <v>159</v>
+      <c r="D4" s="3" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1978,13 +1979,13 @@
         <v>47</v>
       </c>
       <c r="B5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" t="s">
         <v>160</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>161</v>
-      </c>
-      <c r="D5" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2000,7 +2001,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -2009,7 +2010,7 @@
         <v>59</v>
       </c>
       <c r="E7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2017,10 +2018,10 @@
         <v>44</v>
       </c>
       <c r="B8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C8" t="s">
         <v>177</v>
-      </c>
-      <c r="C8" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2034,7 +2035,7 @@
         <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -2078,7 +2079,7 @@
         <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2143,13 +2144,13 @@
         <v>47</v>
       </c>
       <c r="B2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" t="s">
         <v>164</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>165</v>
-      </c>
-      <c r="D2" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2157,10 +2158,10 @@
         <v>44</v>
       </c>
       <c r="B3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" t="s">
         <v>167</v>
-      </c>
-      <c r="C3" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2168,10 +2169,10 @@
         <v>44</v>
       </c>
       <c r="B4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" t="s">
         <v>169</v>
-      </c>
-      <c r="C4" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2179,13 +2180,13 @@
         <v>70</v>
       </c>
       <c r="B5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" t="s">
         <v>171</v>
       </c>
-      <c r="C5" t="s">
-        <v>172</v>
-      </c>
       <c r="D5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2199,7 +2200,7 @@
         <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:41000001_{0112FCE4-7EAC-F44A-990D-CDFEC9E9CEC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:41000001_{91042030-600D-DB40-A296-F2F62AE7168A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Startseite" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="180">
   <si>
     <t>Kategorie</t>
   </si>
@@ -1377,8 +1377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1424,6 +1424,9 @@
       </c>
       <c r="C3" t="s">
         <v>114</v>
+      </c>
+      <c r="D3">
+        <v>9</v>
       </c>
       <c r="E3" t="s">
         <v>115</v>
@@ -1912,7 +1915,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -2117,7 +2120,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:41000001_{91042030-600D-DB40-A296-F2F62AE7168A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D176A759-58F3-4B0C-A345-31B32DEF2B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Startseite" sheetId="1" r:id="rId1"/>
@@ -44,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="188">
   <si>
     <t>Kategorie</t>
   </si>
@@ -265,9 +270,6 @@
     <t>P_Art</t>
   </si>
   <si>
-    <t>Balkonblende Standard (lfm):120, Balkonblende Design (lfm):160, Handlauf Classic (lfm):70, Handlauf Comfort (lfm):85, Blumenkistenhalter (Paar):45, T-Verbinder für Handlauf:25, Eckverbinder 90°:35, Wandanschluss Handlauf:18, Abdeckkappe Steher (Stk):8, Stoßverbinder (Stk):12, Sichtschutz-Element (Stk):250, Seitenblende (Stk):180</t>
-  </si>
-  <si>
     <t>Menge / Länge</t>
   </si>
   <si>
@@ -584,6 +586,33 @@
   </si>
   <si>
     <t>---:0, Rundrohr:90, Quadratrohr:110</t>
+  </si>
+  <si>
+    <t>Menge / Stück</t>
+  </si>
+  <si>
+    <t>Menge_L</t>
+  </si>
+  <si>
+    <t>Menge_S</t>
+  </si>
+  <si>
+    <t>Stk. Artikel</t>
+  </si>
+  <si>
+    <t>Lfm. Artikel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balkonblende Standard (lfm):120, Balkonblende Design (lfm):160, Handlauf Classic (lfm):70, Handlauf Comfort (lfm):85, </t>
+  </si>
+  <si>
+    <t>Blumenkistenhalter (Paar):45, T-Verbinder für Handlauf:25, Eckverbinder 90°:35, Wandanschluss Handlauf:18, Abdeckkappe Steher (Stk):8, Stoßverbinder (Stk):12, Sichtschutz-Element (Stk):250, Seitenblende (Stk):180</t>
+  </si>
+  <si>
+    <t>(P_Art * Menge_L) + (P_Art_S * Menge_S)</t>
+  </si>
+  <si>
+    <t>P_Art_S</t>
   </si>
 </sst>
 </file>
@@ -974,9 +1003,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -987,7 +1016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -998,7 +1027,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1009,7 +1038,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1020,7 +1049,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1031,7 +1060,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1042,7 +1071,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1053,7 +1082,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1064,7 +1093,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1075,7 +1104,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1086,7 +1115,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1097,7 +1126,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1108,7 +1137,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1119,7 +1148,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -1130,7 +1159,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -1141,7 +1170,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1152,7 +1181,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -1176,16 +1205,16 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.41015625" customWidth="1"/>
-    <col min="2" max="2" width="27.57421875" customWidth="1"/>
-    <col min="3" max="3" width="11.02734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.41015625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
@@ -1202,18 +1231,18 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -1224,27 +1253,27 @@
         <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>70</v>
       </c>
       <c r="B4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" t="s">
         <v>105</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>106</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>107</v>
       </c>
-      <c r="E4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -1258,32 +1287,32 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>47</v>
       </c>
       <c r="B6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" t="s">
         <v>97</v>
       </c>
-      <c r="C6" t="s">
-        <v>98</v>
-      </c>
       <c r="D6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>44</v>
       </c>
       <c r="B7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" t="s">
         <v>85</v>
       </c>
-      <c r="C7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>60</v>
       </c>
@@ -1294,7 +1323,7 @@
         <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1310,9 +1339,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
@@ -1329,7 +1358,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -1340,32 +1369,32 @@
         <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C4" t="s">
         <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1377,17 +1406,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.23046875" customWidth="1"/>
-    <col min="3" max="3" width="17.75390625" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="131.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
@@ -1404,7 +1435,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -1415,97 +1446,97 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>44</v>
       </c>
       <c r="B3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" t="s">
         <v>113</v>
-      </c>
-      <c r="C3" t="s">
-        <v>114</v>
       </c>
       <c r="D3">
         <v>9</v>
       </c>
       <c r="E3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>116</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>117</v>
       </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>119</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>120</v>
       </c>
-      <c r="D5" t="s">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>122</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>123</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>124</v>
       </c>
-      <c r="E6" t="s">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>126</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>127</v>
       </c>
-      <c r="D7" t="s">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" t="s">
         <v>129</v>
       </c>
-      <c r="C8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -1516,10 +1547,10 @@
         <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -1530,7 +1561,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>60</v>
       </c>
@@ -1541,7 +1572,7 @@
         <v>62</v>
       </c>
       <c r="E11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1557,16 +1588,16 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.609375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.4140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="91.0703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="91" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
@@ -1583,7 +1614,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -1594,7 +1625,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -1608,7 +1639,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -1622,7 +1653,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -1636,7 +1667,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -1647,7 +1678,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -1658,7 +1689,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>60</v>
       </c>
@@ -1685,9 +1716,9 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
@@ -1704,7 +1735,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -1715,32 +1746,32 @@
         <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C4" t="s">
         <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1756,12 +1787,12 @@
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.1015625" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
@@ -1778,121 +1809,121 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
       <c r="B2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" t="s">
         <v>134</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>136</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>137</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>139</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>140</v>
       </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>142</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>143</v>
       </c>
-      <c r="D5" t="s">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
         <v>144</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" t="s">
-        <v>145</v>
       </c>
       <c r="C6" t="s">
         <v>52</v>
       </c>
       <c r="D6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>147</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>149</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>150</v>
       </c>
-      <c r="D8" t="s">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>152</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>154</v>
       </c>
-      <c r="C10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>60</v>
       </c>
@@ -1903,7 +1934,7 @@
         <v>62</v>
       </c>
       <c r="E11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -1919,9 +1950,9 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>39</v>
       </c>
@@ -1938,7 +1969,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -1949,7 +1980,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -1960,38 +1991,38 @@
         <v>49</v>
       </c>
       <c r="D3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
         <v>157</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" t="s">
-        <v>158</v>
       </c>
       <c r="C4" t="s">
         <v>55</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>47</v>
       </c>
       <c r="B5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" t="s">
         <v>159</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>160</v>
       </c>
-      <c r="D5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -2002,9 +2033,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -2013,21 +2044,21 @@
         <v>59</v>
       </c>
       <c r="E7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>176</v>
       </c>
-      <c r="C8" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -2038,7 +2069,7 @@
         <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -2052,9 +2083,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
@@ -2071,7 +2102,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -2082,32 +2113,32 @@
         <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C4" t="s">
         <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2123,9 +2154,9 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
@@ -2142,57 +2173,57 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>47</v>
       </c>
       <c r="B2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" t="s">
         <v>163</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>164</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>166</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>168</v>
       </c>
-      <c r="C4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>70</v>
       </c>
       <c r="B5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" t="s">
         <v>170</v>
       </c>
-      <c r="C5" t="s">
-        <v>171</v>
-      </c>
       <c r="D5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>60</v>
       </c>
@@ -2203,7 +2234,7 @@
         <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -2219,9 +2250,9 @@
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
@@ -2238,7 +2269,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -2249,7 +2280,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -2263,7 +2294,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -2277,7 +2308,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -2291,7 +2322,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -2302,7 +2333,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -2313,7 +2344,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>60</v>
       </c>
@@ -2338,9 +2369,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
@@ -2357,7 +2388,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -2368,7 +2399,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -2382,7 +2413,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -2396,7 +2427,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -2410,7 +2441,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -2421,7 +2452,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -2432,7 +2463,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>60</v>
       </c>
@@ -2457,9 +2488,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
@@ -2476,7 +2507,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -2487,7 +2518,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -2501,7 +2532,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -2515,7 +2546,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -2529,7 +2560,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -2543,7 +2574,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -2554,7 +2585,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -2565,7 +2596,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -2586,15 +2617,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
@@ -2611,43 +2642,68 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>183</v>
       </c>
       <c r="C2" t="s">
         <v>72</v>
       </c>
       <c r="D2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="C4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>60</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>61</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C6" t="s">
         <v>62</v>
       </c>
-      <c r="E4" t="s">
-        <v>76</v>
+      <c r="E6" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -2663,16 +2719,16 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.796875" customWidth="1"/>
-    <col min="2" max="2" width="21.5234375" customWidth="1"/>
-    <col min="3" max="3" width="12.64453125" customWidth="1"/>
-    <col min="4" max="4" width="42.5078125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.37109375" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
@@ -2689,7 +2745,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -2700,7 +2756,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -2711,24 +2767,24 @@
         <v>49</v>
       </c>
       <c r="D4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>78</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>79</v>
       </c>
-      <c r="D5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -2739,35 +2795,35 @@
         <v>52</v>
       </c>
       <c r="D6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>82</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>83</v>
       </c>
-      <c r="D7" t="s">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>85</v>
       </c>
-      <c r="C8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -2778,7 +2834,7 @@
         <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2792,9 +2848,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
@@ -2811,7 +2867,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -2822,7 +2878,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -2833,24 +2889,24 @@
         <v>49</v>
       </c>
       <c r="D3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -2864,21 +2920,21 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>47</v>
       </c>
       <c r="B6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" t="s">
         <v>82</v>
       </c>
-      <c r="C6" t="s">
-        <v>83</v>
-      </c>
       <c r="D6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -2889,7 +2945,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>60</v>
       </c>
@@ -2900,7 +2956,7 @@
         <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2914,9 +2970,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
@@ -2933,7 +2989,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -2941,27 +2997,27 @@
         <v>39</v>
       </c>
       <c r="C2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" t="s">
         <v>92</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>94</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>95</v>
       </c>
-      <c r="D3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -2975,43 +3031,43 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>47</v>
       </c>
       <c r="B5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" t="s">
         <v>97</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>98</v>
       </c>
-      <c r="D5" t="s">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
         <v>100</v>
       </c>
-      <c r="C6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" t="s">
-        <v>101</v>
-      </c>
       <c r="C7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>60</v>
       </c>
@@ -3022,7 +3078,7 @@
         <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D176A759-58F3-4B0C-A345-31B32DEF2B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F64FC0-683F-4F0D-935F-81891943514E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Startseite" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="196">
   <si>
     <t>Kategorie</t>
   </si>
@@ -613,6 +613,30 @@
   </si>
   <si>
     <t>P_Art_S</t>
+  </si>
+  <si>
+    <t>`---:0, Aufsatz:125, Seite:161</t>
+  </si>
+  <si>
+    <t>Modell Integriert-HL</t>
+  </si>
+  <si>
+    <t>P_Modell1</t>
+  </si>
+  <si>
+    <t>Decor 22 IHL:204, Staketen IHL:169, PALISADEN &amp; PALIQUADRA IHL: 180</t>
+  </si>
+  <si>
+    <t>Handlauf</t>
+  </si>
+  <si>
+    <t>P_Handlauf</t>
+  </si>
+  <si>
+    <t>Integrierter Handlauf:0, Freilauf Handlauf:1.25</t>
+  </si>
+  <si>
+    <t>((P_Modell * L * F_Faktor) + (P_Modell * P_Handlauf)) + ((math.ceil(L/1.3)+1) * P_Steher * F_Faktor) + (Ecken * 95) + (L * P_Arbeit)</t>
   </si>
 </sst>
 </file>
@@ -2244,13 +2268,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="91.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -2285,13 +2316,13 @@
         <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>189</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>190</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2299,13 +2330,13 @@
         <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>192</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>193</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2313,24 +2344,27 @@
         <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>55</v>
+      </c>
+      <c r="D6" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -2338,24 +2372,35 @@
         <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>60</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>61</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>62</v>
       </c>
-      <c r="E8" t="s">
-        <v>63</v>
+      <c r="E9" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -2619,7 +2664,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
@@ -2716,7 +2761,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F64FC0-683F-4F0D-935F-81891943514E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E989DFB-7C87-4F66-9456-1AF7A262F96C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -636,7 +636,7 @@
     <t>Integrierter Handlauf:0, Freilauf Handlauf:1.25</t>
   </si>
   <si>
-    <t>((P_Modell * L * F_Faktor) + (P_Modell * P_Handlauf)) + ((math.ceil(L/1.3)+1) * P_Steher * F_Faktor) + (Ecken * 95) + (L * P_Arbeit)</t>
+    <t>((P_Modell * L * F_Faktor) + (L * P_Handlauf)) + ((math.ceil(L/1.3)+1) * P_Steher * F_Faktor) + (Ecken * 95) + (L * P_Arbeit)</t>
   </si>
 </sst>
 </file>
@@ -2271,7 +2271,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E989DFB-7C87-4F66-9456-1AF7A262F96C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A13F4C-8444-4316-8931-3D53E41B486D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -633,10 +633,10 @@
     <t>P_Handlauf</t>
   </si>
   <si>
-    <t>Integrierter Handlauf:0, Freilauf Handlauf:1.25</t>
-  </si>
-  <si>
-    <t>((P_Modell * L * F_Faktor) + (L * P_Handlauf)) + ((math.ceil(L/1.3)+1) * P_Steher * F_Faktor) + (Ecken * 95) + (L * P_Arbeit)</t>
+    <t>Integrierter Handlauf:1, Freilauf Handlauf:1.25</t>
+  </si>
+  <si>
+    <t>(P_Modell * L * F_Faktor * P_Handlauf) + ((math.ceil(L/1.3)+1) * P_Steher * F_Faktor) + (Ecken * 95) + (L * P_Arbeit)</t>
   </si>
 </sst>
 </file>

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A13F4C-8444-4316-8931-3D53E41B486D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D545850F-7400-4B8A-AAC5-B33BE12844B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="195">
   <si>
     <t>Kategorie</t>
   </si>
@@ -619,9 +619,6 @@
   </si>
   <si>
     <t>Modell Integriert-HL</t>
-  </si>
-  <si>
-    <t>P_Modell1</t>
   </si>
   <si>
     <t>Decor 22 IHL:204, Staketen IHL:169, PALISADEN &amp; PALIQUADRA IHL: 180</t>
@@ -2271,7 +2268,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2319,10 +2316,10 @@
         <v>189</v>
       </c>
       <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" t="s">
         <v>190</v>
-      </c>
-      <c r="D3" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2330,13 +2327,13 @@
         <v>47</v>
       </c>
       <c r="B4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C4" t="s">
         <v>192</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>193</v>
-      </c>
-      <c r="D4" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2400,7 +2397,7 @@
         <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D545850F-7400-4B8A-AAC5-B33BE12844B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4D6E43-A8C2-4844-B554-BBECA5E18506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Startseite" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="195">
   <si>
     <t>Kategorie</t>
   </si>
@@ -633,7 +633,7 @@
     <t>Integrierter Handlauf:1, Freilauf Handlauf:1.25</t>
   </si>
   <si>
-    <t>(P_Modell * L * F_Faktor * P_Handlauf) + ((math.ceil(L/1.3)+1) * P_Steher * F_Faktor) + (Ecken * 95) + (L * P_Arbeit)</t>
+    <t>((P_Modell * L * F_Faktor * P_Handlauf) + ((math.ceil(L/1.3)+1) * P_Steher * F_Faktor) + (Ecken * 95) + (L * P_Arbeit) * ( 1 - (p_rabatt / 100))</t>
   </si>
 </sst>
 </file>
@@ -1968,7 +1968,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2265,10 +2265,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2388,15 +2388,29 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>175</v>
+      </c>
+      <c r="C9" t="s">
+        <v>176</v>
+      </c>
+      <c r="D9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>60</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>61</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>62</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E10" t="s">
         <v>194</v>
       </c>
     </row>

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4D6E43-A8C2-4844-B554-BBECA5E18506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F06877-B451-4435-942F-0FC7A0460DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -633,7 +633,7 @@
     <t>Integrierter Handlauf:1, Freilauf Handlauf:1.25</t>
   </si>
   <si>
-    <t>((P_Modell * L * F_Faktor * P_Handlauf) + ((math.ceil(L/1.3)+1) * P_Steher * F_Faktor) + (Ecken * 95) + (L * P_Arbeit) * ( 1 - (p_rabatt / 100))</t>
+    <t>((P_Modell * L * F_Faktor * P_Handlauf) + ((math.ceil(L/1.3)+1) * P_Steher * F_Faktor) + (Ecken * 95) + (L * P_Arbeit)) * ( 1 - (p_rabatt / 100)</t>
   </si>
 </sst>
 </file>
@@ -2268,7 +2268,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,27 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F06877-B451-4435-942F-0FC7A0460DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F91264-CF2B-4B04-A60A-D93C9ECF34AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Startseite" sheetId="1" r:id="rId1"/>
     <sheet name="Eigen_Glasdach" sheetId="17" r:id="rId2"/>
-    <sheet name="Brix_Gel_Stab" sheetId="2" r:id="rId3"/>
-    <sheet name="Brix_Gel_Flaechig" sheetId="3" r:id="rId4"/>
-    <sheet name="Brix_Gel_Glas" sheetId="4" r:id="rId5"/>
-    <sheet name="Zub_Gel" sheetId="5" r:id="rId6"/>
-    <sheet name="Brix_Zaun_Stab" sheetId="6" r:id="rId7"/>
-    <sheet name="Brix_Zaun_Sicht" sheetId="7" r:id="rId8"/>
-    <sheet name="Brix_Tore" sheetId="8" r:id="rId9"/>
-    <sheet name="Brix_Schiebe" sheetId="9" r:id="rId10"/>
-    <sheet name="Zub_Zaun" sheetId="10" r:id="rId11"/>
-    <sheet name="Draht_Matten" sheetId="11" r:id="rId12"/>
-    <sheet name="Draht_Mix" sheetId="12" r:id="rId13"/>
-    <sheet name="Zub_Draht" sheetId="13" r:id="rId14"/>
-    <sheet name="Stahl_Treppe" sheetId="14" r:id="rId15"/>
-    <sheet name="Eigen_Edelstahl" sheetId="15" r:id="rId16"/>
+    <sheet name="Eigen_Edelstahl" sheetId="15" r:id="rId3"/>
+    <sheet name="Brix_Gel_Stab" sheetId="2" r:id="rId4"/>
+    <sheet name="Brix_Gel_Flaechig" sheetId="3" r:id="rId5"/>
+    <sheet name="Brix_Gel_Glas" sheetId="4" r:id="rId6"/>
+    <sheet name="Zub_Gel" sheetId="5" r:id="rId7"/>
+    <sheet name="Brix_Zaun_Stab" sheetId="6" r:id="rId8"/>
+    <sheet name="Brix_Zaun_Sicht" sheetId="7" r:id="rId9"/>
+    <sheet name="Brix_Tore" sheetId="8" r:id="rId10"/>
+    <sheet name="Brix_Schiebe" sheetId="9" r:id="rId11"/>
+    <sheet name="Zub_Zaun" sheetId="10" r:id="rId12"/>
+    <sheet name="Draht_Matten" sheetId="11" r:id="rId13"/>
+    <sheet name="Draht_Mix" sheetId="12" r:id="rId14"/>
+    <sheet name="Zub_Draht" sheetId="13" r:id="rId15"/>
+    <sheet name="Stahl_Treppe" sheetId="14" r:id="rId16"/>
     <sheet name="Zub_Montage" sheetId="16" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191028"/>
@@ -1219,6 +1219,128 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -1352,7 +1474,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -1423,7 +1545,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -1601,7 +1723,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -1729,7 +1851,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -1800,7 +1922,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -1956,141 +2078,6 @@
       </c>
       <c r="E11" t="s">
         <v>155</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:E9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" t="s">
-        <v>158</v>
-      </c>
-      <c r="C5" t="s">
-        <v>159</v>
-      </c>
-      <c r="D5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>173</v>
-      </c>
-      <c r="B7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" t="s">
-        <v>175</v>
-      </c>
-      <c r="C8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" t="s">
-        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -2264,6 +2251,141 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2419,7 +2541,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -2538,7 +2660,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -2671,7 +2793,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -2767,12 +2889,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2898,7 +3020,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -3018,126 +3140,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F91264-CF2B-4B04-A60A-D93C9ECF34AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96FF38B-901A-473C-B541-49CA6AAD228D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -633,7 +633,7 @@
     <t>Integrierter Handlauf:1, Freilauf Handlauf:1.25</t>
   </si>
   <si>
-    <t>((P_Modell * L * F_Faktor * P_Handlauf) + ((math.ceil(L/1.3)+1) * P_Steher * F_Faktor) + (Ecken * 95) + (L * P_Arbeit)) * ( 1 - (p_rabatt / 100)</t>
+    <t>((P_Modell * L * F_Faktor * P_Handlauf) + ((math.ceil(L/1.3)+1) * P_Steher * F_Faktor) + (Ecken * 95) + (L * P_Arbeit)) * ( 1 - (p_rabatt / 100))</t>
   </si>
 </sst>
 </file>

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96FF38B-901A-473C-B541-49CA6AAD228D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8647C810-C65F-4EE8-86CE-38D09555DF82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="198">
   <si>
     <t>Kategorie</t>
   </si>
@@ -615,9 +615,6 @@
     <t>P_Art_S</t>
   </si>
   <si>
-    <t>`---:0, Aufsatz:125, Seite:161</t>
-  </si>
-  <si>
     <t>Modell Integriert-HL</t>
   </si>
   <si>
@@ -633,7 +630,19 @@
     <t>Integrierter Handlauf:1, Freilauf Handlauf:1.25</t>
   </si>
   <si>
-    <t>((P_Modell * L * F_Faktor * P_Handlauf) + ((math.ceil(L/1.3)+1) * P_Steher * F_Faktor) + (Ecken * 95) + (L * P_Arbeit)) * ( 1 - (p_rabatt / 100))</t>
+    <t>´---:0, Aufsatz:125, Seite:161</t>
+  </si>
+  <si>
+    <t>Schräge</t>
+  </si>
+  <si>
+    <t>F_Schräg</t>
+  </si>
+  <si>
+    <t>´---:0, bis 6°:32, bis 35°:60</t>
+  </si>
+  <si>
+    <t>((P_Modell * L * F_Faktor * P_Handlauf) + ((math.ceil(L/1.3)+1) * P_Steher * F_Faktor) + (Ecken * 95) + (L * P_Arbeit) + (L * F_Schräg)) * ( 1 - (p_rabatt / 100))</t>
   </si>
 </sst>
 </file>
@@ -2387,10 +2396,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2435,13 +2444,13 @@
         <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C3" t="s">
         <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2449,13 +2458,13 @@
         <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C4" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D4" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2463,13 +2472,13 @@
         <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>190</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>191</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -2477,24 +2486,27 @@
         <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>55</v>
+      </c>
+      <c r="D7" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2502,10 +2514,10 @@
         <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -2513,27 +2525,38 @@
         <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>175</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D9">
-        <v>15</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
+        <v>175</v>
+      </c>
+      <c r="C10" t="s">
+        <v>176</v>
+      </c>
+      <c r="D10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>60</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>61</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>62</v>
       </c>
-      <c r="E10" t="s">
-        <v>194</v>
+      <c r="E11" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8647C810-C65F-4EE8-86CE-38D09555DF82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2C880B-1935-4CF0-8AA7-167B3117E6EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="199">
   <si>
     <t>Kategorie</t>
   </si>
@@ -630,9 +630,6 @@
     <t>Integrierter Handlauf:1, Freilauf Handlauf:1.25</t>
   </si>
   <si>
-    <t>´---:0, Aufsatz:125, Seite:161</t>
-  </si>
-  <si>
     <t>Schräge</t>
   </si>
   <si>
@@ -643,6 +640,12 @@
   </si>
   <si>
     <t>((P_Modell * L * F_Faktor * P_Handlauf) + ((math.ceil(L/1.3)+1) * P_Steher * F_Faktor) + (Ecken * 95) + (L * P_Arbeit) + (L * F_Schräg)) * ( 1 - (p_rabatt / 100))</t>
+  </si>
+  <si>
+    <t>´---:0, Aufsatz 66x66:125,Aufsatz 100x66:151, Seite 66x66:161, Seite 100x66:179</t>
+  </si>
+  <si>
+    <t>Standardfarben STF:1.0, Sonderfarben SOF:1.10, Spezialfarben SPF:1.30</t>
   </si>
 </sst>
 </file>
@@ -2399,7 +2402,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2458,13 +2461,13 @@
         <v>47</v>
       </c>
       <c r="B4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C4" t="s">
         <v>194</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>195</v>
-      </c>
-      <c r="D4" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2492,7 +2495,7 @@
         <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -2506,7 +2509,7 @@
         <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2556,7 +2559,7 @@
         <v>62</v>
       </c>
       <c r="E11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2C880B-1935-4CF0-8AA7-167B3117E6EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95942FD3-00A6-4881-8945-F12909B41E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="204">
   <si>
     <t>Kategorie</t>
   </si>
@@ -627,9 +627,6 @@
     <t>P_Handlauf</t>
   </si>
   <si>
-    <t>Integrierter Handlauf:1, Freilauf Handlauf:1.25</t>
-  </si>
-  <si>
     <t>Schräge</t>
   </si>
   <si>
@@ -639,13 +636,31 @@
     <t>´---:0, bis 6°:32, bis 35°:60</t>
   </si>
   <si>
-    <t>((P_Modell * L * F_Faktor * P_Handlauf) + ((math.ceil(L/1.3)+1) * P_Steher * F_Faktor) + (Ecken * 95) + (L * P_Arbeit) + (L * F_Schräg)) * ( 1 - (p_rabatt / 100))</t>
-  </si>
-  <si>
     <t>´---:0, Aufsatz 66x66:125,Aufsatz 100x66:151, Seite 66x66:161, Seite 100x66:179</t>
   </si>
   <si>
     <t>Standardfarben STF:1.0, Sonderfarben SOF:1.10, Spezialfarben SPF:1.30</t>
+  </si>
+  <si>
+    <t>Freilauf Handlauf:1.25, Integrierter Handlauf:1</t>
+  </si>
+  <si>
+    <t>Zier-Element</t>
+  </si>
+  <si>
+    <t>P_Zier</t>
+  </si>
+  <si>
+    <t>NEIN:0, Ja:50</t>
+  </si>
+  <si>
+    <t>Zier-Element Anzahl</t>
+  </si>
+  <si>
+    <t>Zier_Stk</t>
+  </si>
+  <si>
+    <t>((P_Modell * L * F_Faktor * P_Handlauf) + ((math.ceil(L/1.3)+1) * P_Steher * F_Faktor) + (Ecken * 95) + (L * P_Arbeit) + (L * F_Schräg) + (P_Zier * Zier_Stk)) * ( 1 - (p_rabatt / 100))</t>
   </si>
 </sst>
 </file>
@@ -2399,10 +2414,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2461,13 +2476,13 @@
         <v>47</v>
       </c>
       <c r="B4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C4" t="s">
         <v>193</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>194</v>
-      </c>
-      <c r="D4" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2481,7 +2496,7 @@
         <v>191</v>
       </c>
       <c r="D5" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -2495,7 +2510,7 @@
         <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -2509,7 +2524,7 @@
         <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2525,13 +2540,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>198</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>199</v>
+      </c>
+      <c r="D9" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -2539,27 +2557,49 @@
         <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="C10" t="s">
-        <v>176</v>
-      </c>
-      <c r="D10">
-        <v>15</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
+        <v>175</v>
+      </c>
+      <c r="C12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>60</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" t="s">
         <v>61</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C13" t="s">
         <v>62</v>
       </c>
-      <c r="E11" t="s">
-        <v>196</v>
+      <c r="E13" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95942FD3-00A6-4881-8945-F12909B41E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1199AD96-C0D9-4F5F-9C59-06420D4885BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -618,9 +618,6 @@
     <t>Modell Integriert-HL</t>
   </si>
   <si>
-    <t>Decor 22 IHL:204, Staketen IHL:169, PALISADEN &amp; PALIQUADRA IHL: 180</t>
-  </si>
-  <si>
     <t>Handlauf</t>
   </si>
   <si>
@@ -661,6 +658,9 @@
   </si>
   <si>
     <t>((P_Modell * L * F_Faktor * P_Handlauf) + ((math.ceil(L/1.3)+1) * P_Steher * F_Faktor) + (Ecken * 95) + (L * P_Arbeit) + (L * F_Schräg) + (P_Zier * Zier_Stk)) * ( 1 - (p_rabatt / 100))</t>
+  </si>
+  <si>
+    <t>Decor 22 IHL:204, Staketen IHL:169, PALISADEN &amp; PALIQUADRA (Kugel,ELOX): 210</t>
   </si>
 </sst>
 </file>
@@ -2417,7 +2417,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2468,7 +2468,7 @@
         <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2476,13 +2476,13 @@
         <v>47</v>
       </c>
       <c r="B4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C4" t="s">
         <v>192</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>193</v>
-      </c>
-      <c r="D4" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2490,13 +2490,13 @@
         <v>47</v>
       </c>
       <c r="B5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" t="s">
         <v>190</v>
       </c>
-      <c r="C5" t="s">
-        <v>191</v>
-      </c>
       <c r="D5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -2510,7 +2510,7 @@
         <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -2524,7 +2524,7 @@
         <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2543,13 +2543,13 @@
         <v>47</v>
       </c>
       <c r="B9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C9" t="s">
         <v>198</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>199</v>
-      </c>
-      <c r="D9" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -2557,10 +2557,10 @@
         <v>44</v>
       </c>
       <c r="B10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C10" t="s">
         <v>201</v>
-      </c>
-      <c r="C10" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -2599,7 +2599,7 @@
         <v>62</v>
       </c>
       <c r="E13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1199AD96-C0D9-4F5F-9C59-06420D4885BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E47CAF1-F2BC-4BBB-976F-99AF7CD1D26B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -660,7 +660,7 @@
     <t>((P_Modell * L * F_Faktor * P_Handlauf) + ((math.ceil(L/1.3)+1) * P_Steher * F_Faktor) + (Ecken * 95) + (L * P_Arbeit) + (L * F_Schräg) + (P_Zier * Zier_Stk)) * ( 1 - (p_rabatt / 100))</t>
   </si>
   <si>
-    <t>Decor 22 IHL:204, Staketen IHL:169, PALISADEN &amp; PALIQUADRA (Kugel,ELOX): 210</t>
+    <t>Decor 22 IHL:204, Staketen IHL:169, PALISADEN &amp; PALIQUADRA (Kugel-ELOX): 210</t>
   </si>
 </sst>
 </file>
@@ -2417,7 +2417,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E47CAF1-F2BC-4BBB-976F-99AF7CD1D26B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B70B95B-32AF-4D06-98CF-53B1972A74B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Startseite" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="207">
   <si>
     <t>Kategorie</t>
   </si>
@@ -588,33 +588,15 @@
     <t>---:0, Rundrohr:90, Quadratrohr:110</t>
   </si>
   <si>
-    <t>Menge / Stück</t>
-  </si>
-  <si>
     <t>Menge_L</t>
   </si>
   <si>
-    <t>Menge_S</t>
-  </si>
-  <si>
     <t>Stk. Artikel</t>
   </si>
   <si>
     <t>Lfm. Artikel</t>
   </si>
   <si>
-    <t xml:space="preserve">Balkonblende Standard (lfm):120, Balkonblende Design (lfm):160, Handlauf Classic (lfm):70, Handlauf Comfort (lfm):85, </t>
-  </si>
-  <si>
-    <t>Blumenkistenhalter (Paar):45, T-Verbinder für Handlauf:25, Eckverbinder 90°:35, Wandanschluss Handlauf:18, Abdeckkappe Steher (Stk):8, Stoßverbinder (Stk):12, Sichtschutz-Element (Stk):250, Seitenblende (Stk):180</t>
-  </si>
-  <si>
-    <t>(P_Art * Menge_L) + (P_Art_S * Menge_S)</t>
-  </si>
-  <si>
-    <t>P_Art_S</t>
-  </si>
-  <si>
     <t>Modell Integriert-HL</t>
   </si>
   <si>
@@ -661,6 +643,33 @@
   </si>
   <si>
     <t>Decor 22 IHL:204, Staketen IHL:169, PALISADEN &amp; PALIQUADRA (Kugel-ELOX): 210</t>
+  </si>
+  <si>
+    <t>BalkonblendenBV 160mm 2 Latten(lfm):33, BalkonblendenBV 240mm 3 Latten(lfm):41, BalkonblendenBV 320mm 4 Latten(lfm):50,BalkonblendenBV 400mm  Latten(lfm):58,</t>
+  </si>
+  <si>
+    <t>Blumenkistenhalter (Paar):45, T-Verbinder für Handlauf:25, Eckverbinder 90°:35, Wandanschluss Handlauf:18, Abdeckkappe Steher (Stk):8, Stoßverbinder (Stk):12, Sichtschutz-Element (Stk):250, Seitenblende (Stk):180, Balkonblenden-Halterung für je 1 BV 160-400:26, Balkonblenden-Abwinkelung für BV 160 - 400:60</t>
+  </si>
+  <si>
+    <t>P_Art_S1</t>
+  </si>
+  <si>
+    <t>P_Art_S2</t>
+  </si>
+  <si>
+    <t>(P_Art * Menge_L) + (P_Art_S1 * Menge_S1) + (P_Art_S2 * Menge_S2)</t>
+  </si>
+  <si>
+    <t>Menge / Stück1</t>
+  </si>
+  <si>
+    <t>Menge / Stück2</t>
+  </si>
+  <si>
+    <t>Menge_S2</t>
+  </si>
+  <si>
+    <t>Menge_S1</t>
   </si>
 </sst>
 </file>
@@ -2416,7 +2425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -2462,13 +2471,13 @@
         <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C3" t="s">
         <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2476,13 +2485,13 @@
         <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C4" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D4" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2490,13 +2499,13 @@
         <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D5" t="s">
         <v>190</v>
-      </c>
-      <c r="D5" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -2510,7 +2519,7 @@
         <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -2524,7 +2533,7 @@
         <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2543,13 +2552,13 @@
         <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C9" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D9" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -2557,10 +2566,10 @@
         <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C10" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -2599,7 +2608,7 @@
         <v>62</v>
       </c>
       <c r="E13" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -2861,13 +2870,19 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="5" max="5" width="62.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -2891,13 +2906,13 @@
         <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C2" t="s">
         <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2905,24 +2920,27 @@
         <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C3" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="D3" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>180</v>
       </c>
       <c r="C4" t="s">
-        <v>180</v>
+        <v>201</v>
+      </c>
+      <c r="D4" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2930,24 +2948,46 @@
         <v>44</v>
       </c>
       <c r="B5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" t="s">
         <v>179</v>
-      </c>
-      <c r="C5" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>60</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>61</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C8" t="s">
         <v>62</v>
       </c>
-      <c r="E6" t="s">
-        <v>186</v>
+      <c r="E8" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B70B95B-32AF-4D06-98CF-53B1972A74B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57AE04D6-E10A-40FB-B252-0EED235AAB96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Startseite" sheetId="1" r:id="rId1"/>
@@ -648,9 +648,6 @@
     <t>BalkonblendenBV 160mm 2 Latten(lfm):33, BalkonblendenBV 240mm 3 Latten(lfm):41, BalkonblendenBV 320mm 4 Latten(lfm):50,BalkonblendenBV 400mm  Latten(lfm):58,</t>
   </si>
   <si>
-    <t>Blumenkistenhalter (Paar):45, T-Verbinder für Handlauf:25, Eckverbinder 90°:35, Wandanschluss Handlauf:18, Abdeckkappe Steher (Stk):8, Stoßverbinder (Stk):12, Sichtschutz-Element (Stk):250, Seitenblende (Stk):180, Balkonblenden-Halterung für je 1 BV 160-400:26, Balkonblenden-Abwinkelung für BV 160 - 400:60</t>
-  </si>
-  <si>
     <t>P_Art_S1</t>
   </si>
   <si>
@@ -670,6 +667,9 @@
   </si>
   <si>
     <t>Menge_S1</t>
+  </si>
+  <si>
+    <t>Balkonblenden-Halterung für je 1 BV 160-400:26, Balkonblenden-Abwinkelung für BV 160 - 400:60, Eckelement min 90mm, Geländer-Blumenkästen 85cm:148, Geländer-Blumenkästen 115cm:171, Geländer-Blumenkästen 165cm:211, Geländer-Blumenkästen 220cm:246</t>
   </si>
 </sst>
 </file>
@@ -2425,8 +2425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2872,8 +2872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2923,10 +2923,10 @@
         <v>180</v>
       </c>
       <c r="C3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D3" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2937,10 +2937,10 @@
         <v>180</v>
       </c>
       <c r="C4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D4" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2959,10 +2959,10 @@
         <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -2970,10 +2970,10 @@
         <v>44</v>
       </c>
       <c r="B7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C7" t="s">
         <v>204</v>
-      </c>
-      <c r="C7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2987,7 +2987,7 @@
         <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57AE04D6-E10A-40FB-B252-0EED235AAB96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41AE0431-5C7A-4977-ABA0-EFC098E61794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="207">
   <si>
     <t>Kategorie</t>
   </si>
@@ -639,9 +639,6 @@
     <t>Zier_Stk</t>
   </si>
   <si>
-    <t>((P_Modell * L * F_Faktor * P_Handlauf) + ((math.ceil(L/1.3)+1) * P_Steher * F_Faktor) + (Ecken * 95) + (L * P_Arbeit) + (L * F_Schräg) + (P_Zier * Zier_Stk)) * ( 1 - (p_rabatt / 100))</t>
-  </si>
-  <si>
     <t>Decor 22 IHL:204, Staketen IHL:169, PALISADEN &amp; PALIQUADRA (Kugel-ELOX): 210</t>
   </si>
   <si>
@@ -670,6 +667,9 @@
   </si>
   <si>
     <t>Balkonblenden-Halterung für je 1 BV 160-400:26, Balkonblenden-Abwinkelung für BV 160 - 400:60, Eckelement min 90mm, Geländer-Blumenkästen 85cm:148, Geländer-Blumenkästen 115cm:171, Geländer-Blumenkästen 165cm:211, Geländer-Blumenkästen 220cm:246</t>
+  </si>
+  <si>
+    <t>((P_Modell * L * F_Faktor * P_Handlauf) + ((math.ceil(L/1.3)+1) * P_Steher * F_Faktor) + (Ecken * 95) + (L * F_Schräg) + (P_Zier * Zier_Stk)) * ( 1 - (p_rabatt / 100))</t>
   </si>
 </sst>
 </file>
@@ -2423,10 +2423,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2477,7 +2477,7 @@
         <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2577,38 +2577,27 @@
         <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>175</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>176</v>
+      </c>
+      <c r="D11">
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>175</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>176</v>
-      </c>
-      <c r="D12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" t="s">
         <v>62</v>
       </c>
-      <c r="E13" t="s">
-        <v>196</v>
+      <c r="E12" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -2912,7 +2901,7 @@
         <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2923,10 +2912,10 @@
         <v>180</v>
       </c>
       <c r="C3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2937,10 +2926,10 @@
         <v>180</v>
       </c>
       <c r="C4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2959,10 +2948,10 @@
         <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -2970,10 +2959,10 @@
         <v>44</v>
       </c>
       <c r="B7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C7" t="s">
         <v>203</v>
-      </c>
-      <c r="C7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2987,7 +2976,7 @@
         <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41AE0431-5C7A-4977-ABA0-EFC098E61794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC4CE35-92C1-4C54-9E9B-128AAA25DCED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Startseite" sheetId="1" r:id="rId1"/>
@@ -2425,7 +2425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -2861,8 +2861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2906,16 +2906,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>180</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D3" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2926,7 +2923,7 @@
         <v>180</v>
       </c>
       <c r="C4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D4" t="s">
         <v>205</v>
@@ -2937,21 +2934,24 @@
         <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>201</v>
       </c>
       <c r="C5" t="s">
-        <v>179</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="B6" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="C6" t="s">
-        <v>204</v>
+        <v>199</v>
+      </c>
+      <c r="D6" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC4CE35-92C1-4C54-9E9B-128AAA25DCED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E99B029-5E20-4436-A09F-E7772FC6E04D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="207">
   <si>
     <t>Kategorie</t>
   </si>
@@ -651,9 +651,6 @@
     <t>P_Art_S2</t>
   </si>
   <si>
-    <t>(P_Art * Menge_L) + (P_Art_S1 * Menge_S1) + (P_Art_S2 * Menge_S2)</t>
-  </si>
-  <si>
     <t>Menge / Stück1</t>
   </si>
   <si>
@@ -670,6 +667,9 @@
   </si>
   <si>
     <t>((P_Modell * L * F_Faktor * P_Handlauf) + ((math.ceil(L/1.3)+1) * P_Steher * F_Faktor) + (Ecken * 95) + (L * F_Schräg) + (P_Zier * Zier_Stk)) * ( 1 - (p_rabatt / 100))</t>
+  </si>
+  <si>
+    <t>((P_Art * Menge_L) + (P_Art_S1 * Menge_S1) + (P_Art_S2 * Menge_S2))* ( 1 - (p_rabatt / 100)</t>
   </si>
 </sst>
 </file>
@@ -2426,7 +2426,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2597,7 +2597,7 @@
         <v>62</v>
       </c>
       <c r="E12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -2859,10 +2859,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2926,7 +2926,7 @@
         <v>198</v>
       </c>
       <c r="D4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2934,10 +2934,10 @@
         <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -2951,7 +2951,7 @@
         <v>199</v>
       </c>
       <c r="D6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -2959,24 +2959,38 @@
         <v>44</v>
       </c>
       <c r="B7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7" t="s">
         <v>202</v>
-      </c>
-      <c r="C7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C8" t="s">
+        <v>176</v>
+      </c>
+      <c r="D8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>60</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>61</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>62</v>
       </c>
-      <c r="E8" t="s">
-        <v>200</v>
+      <c r="E9" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E99B029-5E20-4436-A09F-E7772FC6E04D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5AC201-8F92-42A5-965B-F9A628B85C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -669,7 +669,7 @@
     <t>((P_Modell * L * F_Faktor * P_Handlauf) + ((math.ceil(L/1.3)+1) * P_Steher * F_Faktor) + (Ecken * 95) + (L * F_Schräg) + (P_Zier * Zier_Stk)) * ( 1 - (p_rabatt / 100))</t>
   </si>
   <si>
-    <t>((P_Art * Menge_L) + (P_Art_S1 * Menge_S1) + (P_Art_S2 * Menge_S2))* ( 1 - (p_rabatt / 100)</t>
+    <t>(P_Art * Menge_L) + (P_Art_S1 * Menge_S1) + (P_Art_S2 * Menge_S2)* ( 1 - (p_rabatt / 100)</t>
   </si>
 </sst>
 </file>
@@ -2862,7 +2862,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5AC201-8F92-42A5-965B-F9A628B85C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA6BCC8-FCB7-4810-9529-2FEED33E7861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -669,7 +669,7 @@
     <t>((P_Modell * L * F_Faktor * P_Handlauf) + ((math.ceil(L/1.3)+1) * P_Steher * F_Faktor) + (Ecken * 95) + (L * F_Schräg) + (P_Zier * Zier_Stk)) * ( 1 - (p_rabatt / 100))</t>
   </si>
   <si>
-    <t>(P_Art * Menge_L) + (P_Art_S1 * Menge_S1) + (P_Art_S2 * Menge_S2)* ( 1 - (p_rabatt / 100)</t>
+    <t>(P_Art * Menge_L) + (P_Art_S1 * Menge_S1) + (P_Art_S2 * Menge_S2)* ( 1 - (p_rabatt / 100))</t>
   </si>
 </sst>
 </file>

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA6BCC8-FCB7-4810-9529-2FEED33E7861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A587871-1EF3-43A8-B90A-4837944C10D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -669,7 +669,7 @@
     <t>((P_Modell * L * F_Faktor * P_Handlauf) + ((math.ceil(L/1.3)+1) * P_Steher * F_Faktor) + (Ecken * 95) + (L * F_Schräg) + (P_Zier * Zier_Stk)) * ( 1 - (p_rabatt / 100))</t>
   </si>
   <si>
-    <t>(P_Art * Menge_L) + (P_Art_S1 * Menge_S1) + (P_Art_S2 * Menge_S2)* ( 1 - (p_rabatt / 100))</t>
+    <t>((P_Art * Menge_L) + (P_Art_S1 * Menge_S1) + (P_Art_S2 * Menge_S2))* ( 1 - (p_rabatt / 100))</t>
   </si>
 </sst>
 </file>

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,28 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A587871-1EF3-43A8-B90A-4837944C10D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330DC53C-B5E6-4CF3-943B-551C7E8E6A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Startseite" sheetId="1" r:id="rId1"/>
     <sheet name="Eigen_Glasdach" sheetId="17" r:id="rId2"/>
-    <sheet name="Eigen_Edelstahl" sheetId="15" r:id="rId3"/>
-    <sheet name="Brix_Gel_Stab" sheetId="2" r:id="rId4"/>
-    <sheet name="Brix_Gel_Flaechig" sheetId="3" r:id="rId5"/>
-    <sheet name="Brix_Gel_Glas" sheetId="4" r:id="rId6"/>
-    <sheet name="Zub_Gel" sheetId="5" r:id="rId7"/>
-    <sheet name="Brix_Zaun_Stab" sheetId="6" r:id="rId8"/>
-    <sheet name="Brix_Zaun_Sicht" sheetId="7" r:id="rId9"/>
-    <sheet name="Brix_Tore" sheetId="8" r:id="rId10"/>
-    <sheet name="Brix_Schiebe" sheetId="9" r:id="rId11"/>
-    <sheet name="Zub_Zaun" sheetId="10" r:id="rId12"/>
-    <sheet name="Draht_Matten" sheetId="11" r:id="rId13"/>
-    <sheet name="Draht_Mix" sheetId="12" r:id="rId14"/>
-    <sheet name="Zub_Draht" sheetId="13" r:id="rId15"/>
-    <sheet name="Stahl_Treppe" sheetId="14" r:id="rId16"/>
-    <sheet name="Zub_Montage" sheetId="16" r:id="rId17"/>
+    <sheet name="Eigen_Edelstahl-Horiz" sheetId="18" r:id="rId3"/>
+    <sheet name="Eigen_Edelstahl-Stab" sheetId="15" r:id="rId4"/>
+    <sheet name="Brix_Gel_Stab" sheetId="2" r:id="rId5"/>
+    <sheet name="Brix_Gel_Flaechig" sheetId="3" r:id="rId6"/>
+    <sheet name="Brix_Gel_Glas" sheetId="4" r:id="rId7"/>
+    <sheet name="Zub_Gel" sheetId="5" r:id="rId8"/>
+    <sheet name="Brix_Zaun_Stab" sheetId="6" r:id="rId9"/>
+    <sheet name="Brix_Zaun_Sicht" sheetId="7" r:id="rId10"/>
+    <sheet name="Brix_Tore" sheetId="8" r:id="rId11"/>
+    <sheet name="Brix_Schiebe" sheetId="9" r:id="rId12"/>
+    <sheet name="Zub_Zaun" sheetId="10" r:id="rId13"/>
+    <sheet name="Draht_Matten" sheetId="11" r:id="rId14"/>
+    <sheet name="Draht_Mix" sheetId="12" r:id="rId15"/>
+    <sheet name="Zub_Draht" sheetId="13" r:id="rId16"/>
+    <sheet name="Stahl_Treppe" sheetId="14" r:id="rId17"/>
+    <sheet name="Zub_Montage" sheetId="16" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="233">
   <si>
     <t>Kategorie</t>
   </si>
@@ -150,12 +151,6 @@
     <t>Stahl_Treppe</t>
   </si>
   <si>
-    <t>Edelstahl-Geländer</t>
-  </si>
-  <si>
-    <t>Eigen_Edelstahl</t>
-  </si>
-  <si>
     <t>&gt;&gt; Montagematerial</t>
   </si>
   <si>
@@ -480,9 +475,6 @@
     <t>P_Wange</t>
   </si>
   <si>
-    <t>Flachstahl:60, U-Profil:85</t>
-  </si>
-  <si>
     <t>Oberfläche Wangen</t>
   </si>
   <si>
@@ -582,9 +574,6 @@
     <t>p_rabatt</t>
   </si>
   <si>
-    <t>((L * P_Modell) + ((math.ceil(L/1.2)+1) * (P_Steher + P_Montageart)) + (Ecken * 150) + (L * P_Arbeit) )* ( 1 - (p_rabatt / 100))</t>
-  </si>
-  <si>
     <t>---:0, Rundrohr:90, Quadratrohr:110</t>
   </si>
   <si>
@@ -670,6 +659,96 @@
   </si>
   <si>
     <t>((P_Art * Menge_L) + (P_Art_S1 * Menge_S1) + (P_Art_S2 * Menge_S2))* ( 1 - (p_rabatt / 100))</t>
+  </si>
+  <si>
+    <t>U-Profil:85, Flachstahl:60</t>
+  </si>
+  <si>
+    <t>((L * P_Modell) + ((math.ceil(L/1.3)+1) * (P_Steher + P_Montageart)) + (Ecken * 150) + (L * P_Arbeit) )* ( 1 - (p_rabatt / 100))</t>
+  </si>
+  <si>
+    <t>Eigen_Edelstahl-Stab</t>
+  </si>
+  <si>
+    <t>Edelstahl-Geländer mit Stabfüllung</t>
+  </si>
+  <si>
+    <t>Eigen_Edelstahl-Horiz</t>
+  </si>
+  <si>
+    <t>Edelstahl-Geländer mit Horizontalfüllung</t>
+  </si>
+  <si>
+    <t>Geländer-Höhe (m)</t>
+  </si>
+  <si>
+    <t>Geländer-Länge (m)</t>
+  </si>
+  <si>
+    <t>D_F</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>Abstand Füllung m</t>
+  </si>
+  <si>
+    <t>Anzahl Reihen</t>
+  </si>
+  <si>
+    <t>Anzahl Steher</t>
+  </si>
+  <si>
+    <t>N_Rows</t>
+  </si>
+  <si>
+    <t>N_Steher</t>
+  </si>
+  <si>
+    <t>math.floor(H / D_F)</t>
+  </si>
+  <si>
+    <t>math.ceil(L / 1.3) + 1</t>
+  </si>
+  <si>
+    <t>Profil Steher</t>
+  </si>
+  <si>
+    <t>Füllung Material</t>
+  </si>
+  <si>
+    <t>P_S_Mat</t>
+  </si>
+  <si>
+    <t>P_F_Mat</t>
+  </si>
+  <si>
+    <t>Rund 42.4mm:40, Rund 48mm:50, QR 40x40:45, QR 50x50:60</t>
+  </si>
+  <si>
+    <t>Seil 5mm:4, Seil 8mm:8, Stab 12mm:12</t>
+  </si>
+  <si>
+    <t>Materialpreis pro Steher (bitte anpassen)</t>
+  </si>
+  <si>
+    <t>Materialpreis pro lfm (bitte anpassen)</t>
+  </si>
+  <si>
+    <t>Fertigung &amp; Halter</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Durch Steher (2h):0, Mit Halter (3h):1</t>
+  </si>
+  <si>
+    <t>Schalter für Logik</t>
+  </si>
+  <si>
+    <t>(L * N_Rows * P_F_Mat) + (N_Steher * P_S_Mat) + (N_Steher * (150 + (Mode * 75))) + (Mode * N_Steher * N_Rows * 1.8)</t>
   </si>
 </sst>
 </file>
@@ -688,11 +767,13 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1056,11 +1137,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.28515625" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
@@ -1221,10 +1309,10 @@
         <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>206</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1232,10 +1320,10 @@
         <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>208</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1243,10 +1331,21 @@
         <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1255,6 +1354,128 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -1264,111 +1485,111 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" t="s">
         <v>93</v>
-      </c>
-      <c r="C3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D3" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
         <v>51</v>
-      </c>
-      <c r="C4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" t="s">
         <v>96</v>
-      </c>
-      <c r="C5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D5" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
         <v>60</v>
       </c>
-      <c r="B8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" t="s">
-        <v>62</v>
-      </c>
       <c r="E8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1376,7 +1597,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -1395,114 +1616,114 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" t="s">
         <v>44</v>
-      </c>
-      <c r="B2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
         <v>47</v>
       </c>
-      <c r="B3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" t="s">
-        <v>49</v>
-      </c>
       <c r="D3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" t="s">
         <v>104</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>105</v>
-      </c>
-      <c r="D4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E4" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
         <v>51</v>
-      </c>
-      <c r="C5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
         <v>60</v>
       </c>
-      <c r="B8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" t="s">
-        <v>62</v>
-      </c>
       <c r="E8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1510,7 +1731,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -1522,58 +1743,58 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
         <v>70</v>
       </c>
-      <c r="B2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" t="s">
-        <v>72</v>
-      </c>
       <c r="D2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" t="s">
         <v>60</v>
       </c>
-      <c r="B4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C4" t="s">
-        <v>62</v>
-      </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1581,7 +1802,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -1599,159 +1820,159 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
         <v>44</v>
-      </c>
-      <c r="B2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D3">
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" t="s">
         <v>115</v>
-      </c>
-      <c r="C4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D4" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" t="s">
         <v>118</v>
-      </c>
-      <c r="C5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D5" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" t="s">
         <v>121</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>122</v>
-      </c>
-      <c r="D6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E6" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" t="s">
         <v>125</v>
-      </c>
-      <c r="C7" t="s">
-        <v>126</v>
-      </c>
-      <c r="D7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" t="s">
         <v>60</v>
       </c>
-      <c r="B11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" t="s">
-        <v>62</v>
-      </c>
       <c r="E11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1759,7 +1980,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -1778,108 +1999,108 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
         <v>44</v>
-      </c>
-      <c r="B2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
         <v>47</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>48</v>
-      </c>
-      <c r="C3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
         <v>51</v>
-      </c>
-      <c r="C4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" t="s">
         <v>54</v>
-      </c>
-      <c r="C5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
         <v>60</v>
       </c>
-      <c r="B8" t="s">
+      <c r="E8" t="s">
         <v>61</v>
-      </c>
-      <c r="C8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1887,7 +2108,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -1899,58 +2120,58 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
         <v>70</v>
       </c>
-      <c r="B2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" t="s">
-        <v>72</v>
-      </c>
       <c r="D2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" t="s">
         <v>60</v>
       </c>
-      <c r="B4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C4" t="s">
-        <v>62</v>
-      </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1958,12 +2179,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1973,147 +2194,147 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" t="s">
         <v>135</v>
-      </c>
-      <c r="C3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D3" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" t="s">
         <v>138</v>
-      </c>
-      <c r="C4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D4" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D5" t="s">
-        <v>143</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C10" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" t="s">
         <v>60</v>
       </c>
-      <c r="B11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" t="s">
-        <v>62</v>
-      </c>
       <c r="E11" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2121,7 +2342,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -2131,58 +2352,58 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" t="s">
         <v>60</v>
       </c>
-      <c r="B4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C4" t="s">
-        <v>62</v>
-      </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2194,91 +2415,98 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1224481B-CCE1-5048-ADBB-FDFEAC9D0372}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5" t="s">
         <v>169</v>
-      </c>
-      <c r="C5" t="s">
-        <v>170</v>
-      </c>
-      <c r="D5" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" t="s">
         <v>60</v>
       </c>
-      <c r="B6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" t="s">
-        <v>62</v>
-      </c>
       <c r="E6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -2287,133 +2515,169 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F5CB08-64DF-43C2-9DE2-22477EA8DC69}">
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="110.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C2" t="s">
         <v>44</v>
-      </c>
-      <c r="B2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>209</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" t="s">
-        <v>156</v>
+        <v>132</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>157</v>
+        <v>213</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>178</v>
+        <v>211</v>
+      </c>
+      <c r="D4" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>170</v>
       </c>
       <c r="B5" t="s">
-        <v>158</v>
+        <v>214</v>
       </c>
       <c r="C5" t="s">
-        <v>159</v>
+        <v>216</v>
       </c>
       <c r="D5" t="s">
-        <v>160</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>170</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>215</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>217</v>
+      </c>
+      <c r="D6" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>173</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>220</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>222</v>
+      </c>
+      <c r="D7" t="s">
+        <v>224</v>
       </c>
       <c r="E7" t="s">
-        <v>174</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>175</v>
+        <v>221</v>
       </c>
       <c r="C8" t="s">
-        <v>176</v>
+        <v>223</v>
+      </c>
+      <c r="D8" t="s">
+        <v>225</v>
+      </c>
+      <c r="E8" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C9" t="s">
+        <v>229</v>
+      </c>
+      <c r="D9" t="s">
+        <v>230</v>
+      </c>
+      <c r="E9" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" t="s">
         <v>60</v>
       </c>
-      <c r="B9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" t="s">
-        <v>177</v>
+      <c r="E10" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -2422,11 +2686,153 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="110.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2440,147 +2846,147 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
         <v>44</v>
-      </c>
-      <c r="B2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" t="s">
         <v>47</v>
       </c>
-      <c r="B3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C3" t="s">
-        <v>49</v>
-      </c>
       <c r="D3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C5" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D5" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C9" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D9" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C10" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C11" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D11">
         <v>15</v>
@@ -2588,16 +2994,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" t="s">
         <v>60</v>
       </c>
-      <c r="B12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" t="s">
-        <v>62</v>
-      </c>
       <c r="E12" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -2605,7 +3011,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -2615,108 +3021,108 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
         <v>44</v>
-      </c>
-      <c r="B2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
         <v>47</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>48</v>
-      </c>
-      <c r="C3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
         <v>51</v>
-      </c>
-      <c r="C4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" t="s">
         <v>54</v>
-      </c>
-      <c r="C5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
         <v>60</v>
       </c>
-      <c r="B8" t="s">
+      <c r="E8" t="s">
         <v>61</v>
-      </c>
-      <c r="C8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2724,7 +3130,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -2734,122 +3140,122 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
         <v>44</v>
-      </c>
-      <c r="B2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" t="s">
         <v>66</v>
-      </c>
-      <c r="C4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
         <v>51</v>
-      </c>
-      <c r="C5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" t="s">
         <v>54</v>
-      </c>
-      <c r="C6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" t="s">
         <v>60</v>
       </c>
-      <c r="B9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" t="s">
-        <v>62</v>
-      </c>
       <c r="E9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2857,11 +3263,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -2875,105 +3281,105 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" t="s">
         <v>70</v>
       </c>
-      <c r="B2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C2" t="s">
-        <v>72</v>
-      </c>
       <c r="D2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B6" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C6" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D8">
         <v>15</v>
@@ -2981,16 +3387,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" t="s">
         <v>60</v>
       </c>
-      <c r="B9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" t="s">
-        <v>62</v>
-      </c>
       <c r="E9" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -2998,12 +3404,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3017,233 +3423,111 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
         <v>44</v>
-      </c>
-      <c r="B2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
         <v>47</v>
       </c>
-      <c r="B4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" t="s">
-        <v>49</v>
-      </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" t="s">
         <v>77</v>
-      </c>
-      <c r="C5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" t="s">
         <v>81</v>
-      </c>
-      <c r="C7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" t="s">
         <v>60</v>
       </c>
-      <c r="B9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" t="s">
-        <v>62</v>
-      </c>
       <c r="E9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330DC53C-B5E6-4CF3-943B-551C7E8E6A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CAC4DDE-571D-4FCC-9972-85AA2F621AA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Startseite" sheetId="1" r:id="rId1"/>
@@ -706,12 +706,6 @@
     <t>N_Steher</t>
   </si>
   <si>
-    <t>math.floor(H / D_F)</t>
-  </si>
-  <si>
-    <t>math.ceil(L / 1.3) + 1</t>
-  </si>
-  <si>
     <t>Profil Steher</t>
   </si>
   <si>
@@ -749,6 +743,12 @@
   </si>
   <si>
     <t>(L * N_Rows * P_F_Mat) + (N_Steher * P_S_Mat) + (N_Steher * (150 + (Mode * 75))) + (Mode * N_Steher * N_Rows * 1.8)</t>
+  </si>
+  <si>
+    <t>(math.floor(H / D_F))</t>
+  </si>
+  <si>
+    <t>(math.ceil(L / 1.3) + 1)</t>
   </si>
 </sst>
 </file>
@@ -1139,7 +1139,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -2518,7 +2518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F5CB08-64DF-43C2-9DE2-22477EA8DC69}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -2598,7 +2598,7 @@
         <v>216</v>
       </c>
       <c r="D5" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -2612,7 +2612,7 @@
         <v>217</v>
       </c>
       <c r="D6" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -2620,16 +2620,16 @@
         <v>45</v>
       </c>
       <c r="B7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C7" t="s">
         <v>220</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>222</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>224</v>
-      </c>
-      <c r="E7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2637,16 +2637,16 @@
         <v>45</v>
       </c>
       <c r="B8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C8" t="s">
         <v>221</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>223</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>225</v>
-      </c>
-      <c r="E8" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -2654,16 +2654,16 @@
         <v>45</v>
       </c>
       <c r="B9" t="s">
+        <v>226</v>
+      </c>
+      <c r="C9" t="s">
+        <v>227</v>
+      </c>
+      <c r="D9" t="s">
         <v>228</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>229</v>
-      </c>
-      <c r="D9" t="s">
-        <v>230</v>
-      </c>
-      <c r="E9" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -2677,7 +2677,7 @@
         <v>60</v>
       </c>
       <c r="E10" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CAC4DDE-571D-4FCC-9972-85AA2F621AA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2048EFC-0F3A-4C31-ACEF-60AD33E97848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -826,7 +826,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -835,6 +835,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2519,7 +2520,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2527,7 +2528,7 @@
     <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.28515625" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.5703125" customWidth="1"/>
     <col min="5" max="5" width="110.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2583,7 +2584,7 @@
       <c r="C4" t="s">
         <v>211</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="4" t="s">
         <v>212</v>
       </c>
     </row>

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2048EFC-0F3A-4C31-ACEF-60AD33E97848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8336AA8A-5BA4-47E7-A559-F85F2E990DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -742,13 +742,13 @@
     <t>Schalter für Logik</t>
   </si>
   <si>
-    <t>(L * N_Rows * P_F_Mat) + (N_Steher * P_S_Mat) + (N_Steher * (150 + (Mode * 75))) + (Mode * N_Steher * N_Rows * 1.8)</t>
-  </si>
-  <si>
     <t>(math.floor(H / D_F))</t>
   </si>
   <si>
     <t>(math.ceil(L / 1.3) + 1)</t>
+  </si>
+  <si>
+    <t>(L * N_Rows * P_F_Mat) + (N_Steher * H * P_S_Mat) + (N_Steher * (150 + (Mode * 75))) + (Mode * N_Steher * N_Rows * 1.8)</t>
   </si>
 </sst>
 </file>
@@ -826,7 +826,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -836,6 +836,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2520,7 +2523,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2533,7 +2536,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -2559,6 +2562,9 @@
       <c r="C2" t="s">
         <v>44</v>
       </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -2590,30 +2596,36 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>170</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C5" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D5" t="s">
-        <v>231</v>
+        <v>222</v>
+      </c>
+      <c r="E5" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>170</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C6" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D6" t="s">
-        <v>232</v>
+        <v>223</v>
+      </c>
+      <c r="E6" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -2621,50 +2633,44 @@
         <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="C7" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="D7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>170</v>
       </c>
       <c r="B8" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C8" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D8" t="s">
-        <v>223</v>
-      </c>
-      <c r="E8" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>170</v>
       </c>
       <c r="B9" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="C9" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="D9" t="s">
-        <v>228</v>
-      </c>
-      <c r="E9" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -2678,7 +2684,7 @@
         <v>60</v>
       </c>
       <c r="E10" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8336AA8A-5BA4-47E7-A559-F85F2E990DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F62545-9804-4650-BB3F-355153F9BDA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2523,7 +2523,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2655,7 +2655,7 @@
       <c r="C8" t="s">
         <v>216</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>230</v>
       </c>
     </row>
@@ -2669,7 +2669,7 @@
       <c r="C9" t="s">
         <v>217</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>231</v>
       </c>
     </row>

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F62545-9804-4650-BB3F-355153F9BDA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640D9E05-35FF-4C88-801E-008934B73267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -718,12 +718,6 @@
     <t>P_F_Mat</t>
   </si>
   <si>
-    <t>Rund 42.4mm:40, Rund 48mm:50, QR 40x40:45, QR 50x50:60</t>
-  </si>
-  <si>
-    <t>Seil 5mm:4, Seil 8mm:8, Stab 12mm:12</t>
-  </si>
-  <si>
     <t>Materialpreis pro Steher (bitte anpassen)</t>
   </si>
   <si>
@@ -749,6 +743,12 @@
   </si>
   <si>
     <t>(L * N_Rows * P_F_Mat) + (N_Steher * H * P_S_Mat) + (N_Steher * (150 + (Mode * 75))) + (Mode * N_Steher * N_Rows * 1.8)</t>
+  </si>
+  <si>
+    <t>Rund 42.4mm:50, Rund 48mm:60, QR 40x40:60, QR 50x50:80</t>
+  </si>
+  <si>
+    <t>Seil 5mm:10, Seil 8mm:15, Stab 12mm:22</t>
   </si>
 </sst>
 </file>
@@ -2523,7 +2523,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2605,10 +2605,10 @@
         <v>220</v>
       </c>
       <c r="D5" t="s">
+        <v>231</v>
+      </c>
+      <c r="E5" t="s">
         <v>222</v>
-      </c>
-      <c r="E5" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -2622,10 +2622,10 @@
         <v>221</v>
       </c>
       <c r="D6" t="s">
+        <v>232</v>
+      </c>
+      <c r="E6" t="s">
         <v>223</v>
-      </c>
-      <c r="E6" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -2633,16 +2633,16 @@
         <v>45</v>
       </c>
       <c r="B7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C7" t="s">
+        <v>225</v>
+      </c>
+      <c r="D7" t="s">
         <v>226</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>227</v>
-      </c>
-      <c r="D7" t="s">
-        <v>228</v>
-      </c>
-      <c r="E7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2656,7 +2656,7 @@
         <v>216</v>
       </c>
       <c r="E8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -2670,7 +2670,7 @@
         <v>217</v>
       </c>
       <c r="E9" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -2684,7 +2684,7 @@
         <v>60</v>
       </c>
       <c r="E10" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,29 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640D9E05-35FF-4C88-801E-008934B73267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E866EF-1827-4413-B4FC-01F6EE47674C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Startseite" sheetId="1" r:id="rId1"/>
-    <sheet name="Eigen_Glasdach" sheetId="17" r:id="rId2"/>
-    <sheet name="Eigen_Edelstahl-Horiz" sheetId="18" r:id="rId3"/>
-    <sheet name="Eigen_Edelstahl-Stab" sheetId="15" r:id="rId4"/>
-    <sheet name="Brix_Gel_Stab" sheetId="2" r:id="rId5"/>
-    <sheet name="Brix_Gel_Flaechig" sheetId="3" r:id="rId6"/>
-    <sheet name="Brix_Gel_Glas" sheetId="4" r:id="rId7"/>
-    <sheet name="Zub_Gel" sheetId="5" r:id="rId8"/>
-    <sheet name="Brix_Zaun_Stab" sheetId="6" r:id="rId9"/>
-    <sheet name="Brix_Zaun_Sicht" sheetId="7" r:id="rId10"/>
-    <sheet name="Brix_Tore" sheetId="8" r:id="rId11"/>
-    <sheet name="Brix_Schiebe" sheetId="9" r:id="rId12"/>
-    <sheet name="Zub_Zaun" sheetId="10" r:id="rId13"/>
-    <sheet name="Draht_Matten" sheetId="11" r:id="rId14"/>
-    <sheet name="Draht_Mix" sheetId="12" r:id="rId15"/>
-    <sheet name="Zub_Draht" sheetId="13" r:id="rId16"/>
-    <sheet name="Stahl_Treppe" sheetId="14" r:id="rId17"/>
-    <sheet name="Zub_Montage" sheetId="16" r:id="rId18"/>
+    <sheet name="Eigen_Terrasse" sheetId="19" r:id="rId2"/>
+    <sheet name="Eigen_Glasdach" sheetId="17" r:id="rId3"/>
+    <sheet name="Eigen_Edelstahl-Horiz" sheetId="18" r:id="rId4"/>
+    <sheet name="Eigen_Edelstahl-Stab" sheetId="15" r:id="rId5"/>
+    <sheet name="Brix_Gel_Stab" sheetId="2" r:id="rId6"/>
+    <sheet name="Brix_Gel_Flaechig" sheetId="3" r:id="rId7"/>
+    <sheet name="Brix_Gel_Glas" sheetId="4" r:id="rId8"/>
+    <sheet name="Zub_Gel" sheetId="5" r:id="rId9"/>
+    <sheet name="Brix_Zaun_Stab" sheetId="6" r:id="rId10"/>
+    <sheet name="Brix_Zaun_Sicht" sheetId="7" r:id="rId11"/>
+    <sheet name="Brix_Tore" sheetId="8" r:id="rId12"/>
+    <sheet name="Brix_Schiebe" sheetId="9" r:id="rId13"/>
+    <sheet name="Zub_Zaun" sheetId="10" r:id="rId14"/>
+    <sheet name="Draht_Matten" sheetId="11" r:id="rId15"/>
+    <sheet name="Draht_Mix" sheetId="12" r:id="rId16"/>
+    <sheet name="Zub_Draht" sheetId="13" r:id="rId17"/>
+    <sheet name="Stahl_Treppe" sheetId="14" r:id="rId18"/>
+    <sheet name="Zub_Montage" sheetId="16" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="258">
   <si>
     <t>Kategorie</t>
   </si>
@@ -749,6 +750,81 @@
   </si>
   <si>
     <t>Seil 5mm:10, Seil 8mm:15, Stab 12mm:22</t>
+  </si>
+  <si>
+    <t>Terrassenüberdachung</t>
+  </si>
+  <si>
+    <t>Eigen_Terrasse</t>
+  </si>
+  <si>
+    <t>Zeile</t>
+  </si>
+  <si>
+    <t>Optionen (Beispielwerte)</t>
+  </si>
+  <si>
+    <t>Formel (Logik)</t>
+  </si>
+  <si>
+    <t>Tiefe/Breite (m)</t>
+  </si>
+  <si>
+    <t>Säulen Höhe (m)</t>
+  </si>
+  <si>
+    <t>Anzahl Säulen</t>
+  </si>
+  <si>
+    <t>N_Col</t>
+  </si>
+  <si>
+    <t>Dach-Eindeckung (€/m²)</t>
+  </si>
+  <si>
+    <t>P_Dach</t>
+  </si>
+  <si>
+    <t>VSG Glas 10mm:180, Flachdach Folie:140</t>
+  </si>
+  <si>
+    <t>Preis inkl. Gummi/Leisten</t>
+  </si>
+  <si>
+    <t>Wandanschluss (€/m)</t>
+  </si>
+  <si>
+    <t>P_Wand</t>
+  </si>
+  <si>
+    <t>Blech &amp; Flüssigkunststoff</t>
+  </si>
+  <si>
+    <t>Rabatt (%)</t>
+  </si>
+  <si>
+    <t>Rabatt</t>
+  </si>
+  <si>
+    <t>Intern: Sparren-Anzahl</t>
+  </si>
+  <si>
+    <t>N_Spar</t>
+  </si>
+  <si>
+    <t>math.ceil(L / 1.0) + 1</t>
+  </si>
+  <si>
+    <t>Intern: Trägerpreis/m</t>
+  </si>
+  <si>
+    <t>P_Trager</t>
+  </si>
+  <si>
+    <t>(L &lt;= 5) * 60 + (L &gt; 5) * 110</t>
+  </si>
+  <si>
+    <t>( (L * P_Trager) + (N_Col * H * 50) + (N_Spar * B * 45) + (L * B * P_Dach) + (L * P_Wand) ) * (1 - (Rabatt / 100))</t>
   </si>
 </sst>
 </file>
@@ -1141,16 +1217,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.28515625" customWidth="1"/>
+    <col min="2" max="2" width="41.7109375" customWidth="1"/>
     <col min="3" max="3" width="32.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1335,10 +1411,10 @@
         <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1346,10 +1422,21 @@
         <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>233</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1358,6 +1445,137 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -1479,7 +1697,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -1601,7 +1819,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -1735,7 +1953,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -1806,7 +2024,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -1984,7 +2202,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -2112,7 +2330,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -2183,7 +2401,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -2346,7 +2564,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -2416,6 +2634,219 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF34A4C-8E4E-4480-950C-E56A0E6E16E1}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" s="4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>240</v>
+      </c>
+      <c r="D5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D6" t="s">
+        <v>243</v>
+      </c>
+      <c r="E6" t="s">
+        <v>244</v>
+      </c>
+      <c r="F6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>246</v>
+      </c>
+      <c r="D7" t="s">
+        <v>247</v>
+      </c>
+      <c r="E7">
+        <v>75</v>
+      </c>
+      <c r="F7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>249</v>
+      </c>
+      <c r="D8" t="s">
+        <v>250</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9" t="s">
+        <v>251</v>
+      </c>
+      <c r="D9" t="s">
+        <v>252</v>
+      </c>
+      <c r="F9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C10" t="s">
+        <v>254</v>
+      </c>
+      <c r="D10" t="s">
+        <v>255</v>
+      </c>
+      <c r="F10" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" t="s">
+        <v>257</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1224481B-CCE1-5048-ADBB-FDFEAC9D0372}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -2518,11 +2949,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F5CB08-64DF-43C2-9DE2-22477EA8DC69}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -2692,7 +3123,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2834,7 +3265,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -3018,7 +3449,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -3137,7 +3568,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -3270,7 +3701,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -3409,135 +3840,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="42.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E866EF-1827-4413-B4FC-01F6EE47674C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908B6B4D-5A81-43BF-AAE3-C7644A0518A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="257">
   <si>
     <t>Kategorie</t>
   </si>
@@ -762,9 +762,6 @@
   </si>
   <si>
     <t>Optionen (Beispielwerte)</t>
-  </si>
-  <si>
-    <t>Formel (Logik)</t>
   </si>
   <si>
     <t>Tiefe/Breite (m)</t>
@@ -2638,7 +2635,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2668,7 +2665,7 @@
         <v>236</v>
       </c>
       <c r="F1" t="s">
-        <v>237</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2693,7 +2690,7 @@
         <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D3" t="s">
         <v>134</v>
@@ -2707,7 +2704,7 @@
         <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D4" t="s">
         <v>132</v>
@@ -2724,10 +2721,10 @@
         <v>42</v>
       </c>
       <c r="C5" t="s">
+        <v>239</v>
+      </c>
+      <c r="D5" t="s">
         <v>240</v>
-      </c>
-      <c r="D5" t="s">
-        <v>241</v>
       </c>
       <c r="E5" s="4">
         <v>2</v>
@@ -2741,16 +2738,16 @@
         <v>45</v>
       </c>
       <c r="C6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D6" t="s">
         <v>242</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>243</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>244</v>
-      </c>
-      <c r="F6" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2761,16 +2758,16 @@
         <v>42</v>
       </c>
       <c r="C7" t="s">
+        <v>245</v>
+      </c>
+      <c r="D7" t="s">
         <v>246</v>
-      </c>
-      <c r="D7" t="s">
-        <v>247</v>
       </c>
       <c r="E7">
         <v>75</v>
       </c>
       <c r="F7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -2781,10 +2778,10 @@
         <v>42</v>
       </c>
       <c r="C8" t="s">
+        <v>248</v>
+      </c>
+      <c r="D8" t="s">
         <v>249</v>
-      </c>
-      <c r="D8" t="s">
-        <v>250</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2798,13 +2795,13 @@
         <v>170</v>
       </c>
       <c r="C9" t="s">
+        <v>250</v>
+      </c>
+      <c r="D9" t="s">
         <v>251</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
         <v>252</v>
-      </c>
-      <c r="F9" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -2815,13 +2812,13 @@
         <v>170</v>
       </c>
       <c r="C10" t="s">
+        <v>253</v>
+      </c>
+      <c r="D10" t="s">
         <v>254</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>255</v>
-      </c>
-      <c r="F10" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2838,7 +2835,7 @@
         <v>60</v>
       </c>
       <c r="F11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908B6B4D-5A81-43BF-AAE3-C7644A0518A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A3F990-2ADE-43FE-B02F-1C02B11DE4F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -899,7 +899,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -912,6 +912,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2635,7 +2636,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2743,7 +2744,7 @@
       <c r="D6" t="s">
         <v>242</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="6" t="s">
         <v>243</v>
       </c>
       <c r="F6" t="s">

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A3F990-2ADE-43FE-B02F-1C02B11DE4F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F341067B-FD68-41AC-A709-297BA6592F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -782,9 +782,6 @@
     <t>P_Dach</t>
   </si>
   <si>
-    <t>VSG Glas 10mm:180, Flachdach Folie:140</t>
-  </si>
-  <si>
     <t>Preis inkl. Gummi/Leisten</t>
   </si>
   <si>
@@ -822,6 +819,9 @@
   </si>
   <si>
     <t>( (L * P_Trager) + (N_Col * H * 50) + (N_Spar * B * 45) + (L * B * P_Dach) + (L * P_Wand) ) * (1 - (Rabatt / 100))</t>
+  </si>
+  <si>
+    <t>´---:0,VSG Glas 10mm:180, Flachdach Folie:140</t>
   </si>
 </sst>
 </file>
@@ -2636,7 +2636,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2745,10 +2745,10 @@
         <v>242</v>
       </c>
       <c r="E6" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="F6" t="s">
         <v>243</v>
-      </c>
-      <c r="F6" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2759,16 +2759,16 @@
         <v>42</v>
       </c>
       <c r="C7" t="s">
+        <v>244</v>
+      </c>
+      <c r="D7" t="s">
         <v>245</v>
-      </c>
-      <c r="D7" t="s">
-        <v>246</v>
       </c>
       <c r="E7">
         <v>75</v>
       </c>
       <c r="F7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -2779,10 +2779,10 @@
         <v>42</v>
       </c>
       <c r="C8" t="s">
+        <v>247</v>
+      </c>
+      <c r="D8" t="s">
         <v>248</v>
-      </c>
-      <c r="D8" t="s">
-        <v>249</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2796,13 +2796,13 @@
         <v>170</v>
       </c>
       <c r="C9" t="s">
+        <v>249</v>
+      </c>
+      <c r="D9" t="s">
         <v>250</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
         <v>251</v>
-      </c>
-      <c r="F9" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -2813,13 +2813,13 @@
         <v>170</v>
       </c>
       <c r="C10" t="s">
+        <v>252</v>
+      </c>
+      <c r="D10" t="s">
         <v>253</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>254</v>
-      </c>
-      <c r="F10" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2836,7 +2836,7 @@
         <v>60</v>
       </c>
       <c r="F11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F341067B-FD68-41AC-A709-297BA6592F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0450FA17-8B1B-4A1A-8592-81594F5D06EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -821,7 +821,7 @@
     <t>( (L * P_Trager) + (N_Col * H * 50) + (N_Spar * B * 45) + (L * B * P_Dach) + (L * P_Wand) ) * (1 - (Rabatt / 100))</t>
   </si>
   <si>
-    <t>´---:0,VSG Glas 10mm:180, Flachdach Folie:140</t>
+    <t>VSG Glas 10mm:180, Flachdach Folie:140, Ohne Eindeckung:0</t>
   </si>
 </sst>
 </file>
@@ -2636,7 +2636,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0450FA17-8B1B-4A1A-8592-81594F5D06EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D69179-4435-4C9F-B294-0B6DEB4628FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="256">
   <si>
     <t>Kategorie</t>
   </si>
@@ -759,9 +759,6 @@
   </si>
   <si>
     <t>Zeile</t>
-  </si>
-  <si>
-    <t>Optionen (Beispielwerte)</t>
   </si>
   <si>
     <t>Tiefe/Breite (m)</t>
@@ -2636,7 +2633,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E12" sqref="E12:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2663,7 +2660,7 @@
         <v>39</v>
       </c>
       <c r="E1" t="s">
-        <v>236</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s">
         <v>41</v>
@@ -2691,7 +2688,7 @@
         <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D3" t="s">
         <v>134</v>
@@ -2705,7 +2702,7 @@
         <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D4" t="s">
         <v>132</v>
@@ -2722,10 +2719,10 @@
         <v>42</v>
       </c>
       <c r="C5" t="s">
+        <v>238</v>
+      </c>
+      <c r="D5" t="s">
         <v>239</v>
-      </c>
-      <c r="D5" t="s">
-        <v>240</v>
       </c>
       <c r="E5" s="4">
         <v>2</v>
@@ -2739,16 +2736,16 @@
         <v>45</v>
       </c>
       <c r="C6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D6" t="s">
         <v>241</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="F6" t="s">
         <v>242</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="F6" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2759,16 +2756,16 @@
         <v>42</v>
       </c>
       <c r="C7" t="s">
+        <v>243</v>
+      </c>
+      <c r="D7" t="s">
         <v>244</v>
-      </c>
-      <c r="D7" t="s">
-        <v>245</v>
       </c>
       <c r="E7">
         <v>75</v>
       </c>
       <c r="F7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -2779,10 +2776,10 @@
         <v>42</v>
       </c>
       <c r="C8" t="s">
+        <v>246</v>
+      </c>
+      <c r="D8" t="s">
         <v>247</v>
-      </c>
-      <c r="D8" t="s">
-        <v>248</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2796,13 +2793,13 @@
         <v>170</v>
       </c>
       <c r="C9" t="s">
+        <v>248</v>
+      </c>
+      <c r="D9" t="s">
         <v>249</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
         <v>250</v>
-      </c>
-      <c r="F9" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -2813,13 +2810,13 @@
         <v>170</v>
       </c>
       <c r="C10" t="s">
+        <v>251</v>
+      </c>
+      <c r="D10" t="s">
         <v>252</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>253</v>
-      </c>
-      <c r="F10" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2836,7 +2833,7 @@
         <v>60</v>
       </c>
       <c r="F11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D69179-4435-4C9F-B294-0B6DEB4628FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDEBDA3-9CF3-44D8-9CCA-A791000FE36E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2633,7 +2633,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:E13"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2679,6 +2679,9 @@
       <c r="D2" t="s">
         <v>44</v>
       </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -2692,6 +2695,9 @@
       </c>
       <c r="D3" t="s">
         <v>134</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDEBDA3-9CF3-44D8-9CCA-A791000FE36E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{436C209F-B202-4D29-9811-5A3C5F557D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -815,10 +815,10 @@
     <t>(L &lt;= 5) * 60 + (L &gt; 5) * 110</t>
   </si>
   <si>
-    <t>( (L * P_Trager) + (N_Col * H * 50) + (N_Spar * B * 45) + (L * B * P_Dach) + (L * P_Wand) ) * (1 - (Rabatt / 100))</t>
-  </si>
-  <si>
-    <t>VSG Glas 10mm:180, Flachdach Folie:140, Ohne Eindeckung:0</t>
+    <t>( (L * P_Trager) + (N_Col * H * 90) + (N_Spar * B * 110) + (L * B * P_Dach) + (L * P_Wand) ) * (1 - (Rabatt / 100))</t>
+  </si>
+  <si>
+    <t>VSG Glas 12mm:180, Flachdach Folie:140, Ohne Eindeckung:0</t>
   </si>
 </sst>
 </file>
@@ -2633,7 +2633,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2768,7 +2768,7 @@
         <v>244</v>
       </c>
       <c r="E7">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="F7" t="s">
         <v>245</v>

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{436C209F-B202-4D29-9811-5A3C5F557D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3507E7F-E579-43C4-A773-0FE663717A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="258">
   <si>
     <t>Kategorie</t>
   </si>
@@ -758,9 +758,6 @@
     <t>Eigen_Terrasse</t>
   </si>
   <si>
-    <t>Zeile</t>
-  </si>
-  <si>
     <t>Tiefe/Breite (m)</t>
   </si>
   <si>
@@ -812,13 +809,22 @@
     <t>P_Trager</t>
   </si>
   <si>
-    <t>(L &lt;= 5) * 60 + (L &gt; 5) * 110</t>
-  </si>
-  <si>
-    <t>( (L * P_Trager) + (N_Col * H * 90) + (N_Spar * B * 110) + (L * B * P_Dach) + (L * P_Wand) ) * (1 - (Rabatt / 100))</t>
-  </si>
-  <si>
     <t>VSG Glas 12mm:180, Flachdach Folie:140, Ohne Eindeckung:0</t>
+  </si>
+  <si>
+    <t>Oberfläche</t>
+  </si>
+  <si>
+    <t>P_OF</t>
+  </si>
+  <si>
+    <t>Roh keine Oberflächenbehandlung:1, feuerverzinkt:1.3, KTL und Pulverbeschichtet:1.6</t>
+  </si>
+  <si>
+    <t>(L &lt;= 5) * 90 + (L &gt; 5) * 160</t>
+  </si>
+  <si>
+    <t>( (L * P_Trager * P_OF) + (N_Col * H * 90* P_OF) + (N_Spar * B * 110* P_OF) + (L * B * P_Dach) + (L * P_Wand) ) * (1 - (Rabatt / 100))</t>
   </si>
 </sst>
 </file>
@@ -2630,216 +2636,196 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF34A4C-8E4E-4480-950C-E56A0E6E16E1}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
         <v>235</v>
       </c>
-      <c r="B1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2">
+      <c r="C3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
         <v>236</v>
       </c>
-      <c r="D3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>42</v>
-      </c>
       <c r="C4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
         <v>237</v>
-      </c>
-      <c r="D4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E4" s="4">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>42</v>
       </c>
       <c r="C5" t="s">
         <v>238</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>253</v>
+      </c>
+      <c r="C6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
         <v>239</v>
       </c>
-      <c r="E5" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>240</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="E7" t="s">
         <v>241</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="F6" t="s">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>243</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8">
+        <v>95</v>
+      </c>
+      <c r="E8" t="s">
         <v>244</v>
       </c>
-      <c r="E7">
-        <v>95</v>
-      </c>
-      <c r="F7" t="s">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>246</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B10" t="s">
         <v>247</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C10" t="s">
+        <v>248</v>
+      </c>
+      <c r="E10" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>170</v>
       </c>
-      <c r="C9" t="s">
-        <v>248</v>
-      </c>
-      <c r="D9" t="s">
-        <v>249</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="B11" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>170</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>251</v>
       </c>
-      <c r="D10" t="s">
-        <v>252</v>
-      </c>
-      <c r="F10" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="E11" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>58</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
         <v>59</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C12" t="s">
         <v>60</v>
       </c>
-      <c r="F11" t="s">
-        <v>254</v>
+      <c r="E12" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3507E7F-E579-43C4-A773-0FE663717A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781DF014-2F61-408F-955A-60294FD68302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="261">
   <si>
     <t>Kategorie</t>
   </si>
@@ -824,7 +824,16 @@
     <t>(L &lt;= 5) * 90 + (L &gt; 5) * 160</t>
   </si>
   <si>
-    <t>( (L * P_Trager * P_OF) + (N_Col * H * 90* P_OF) + (N_Spar * B * 110* P_OF) + (L * B * P_Dach) + (L * P_Wand) ) * (1 - (Rabatt / 100))</t>
+    <t>Dachrinne</t>
+  </si>
+  <si>
+    <t>P_Rinne</t>
+  </si>
+  <si>
+    <t>Nein:0, Ja:205</t>
+  </si>
+  <si>
+    <t>( (L * P_Trager * P_OF) + (N_Col * H * 90* P_OF) + (N_Spar * B * 110* P_OF) + (L * B * P_Dach) + (L * P_Wand) + (L * P_Rinne) * (1 - (Rabatt / 100))</t>
   </si>
 </sst>
 </file>
@@ -2636,10 +2645,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF34A4C-8E4E-4480-950C-E56A0E6E16E1}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2774,30 +2783,30 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="C9" t="s">
-        <v>246</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
+        <v>258</v>
+      </c>
+      <c r="D9" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>170</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C10" t="s">
-        <v>248</v>
-      </c>
-      <c r="E10" t="s">
-        <v>249</v>
+        <v>246</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -2805,27 +2814,41 @@
         <v>170</v>
       </c>
       <c r="B11" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C11" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E11" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>170</v>
+      </c>
+      <c r="B12" t="s">
+        <v>250</v>
+      </c>
+      <c r="C12" t="s">
+        <v>251</v>
+      </c>
+      <c r="E12" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>58</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B14" t="s">
         <v>59</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C14" t="s">
         <v>60</v>
       </c>
-      <c r="E12" t="s">
-        <v>257</v>
+      <c r="E14" t="s">
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781DF014-2F61-408F-955A-60294FD68302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C0844B-1F2A-41DF-AE48-10DD85D8E0CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -833,7 +833,7 @@
     <t>Nein:0, Ja:205</t>
   </si>
   <si>
-    <t>( (L * P_Trager * P_OF) + (N_Col * H * 90* P_OF) + (N_Spar * B * 110* P_OF) + (L * B * P_Dach) + (L * P_Wand) + (L * P_Rinne) * (1 - (Rabatt / 100))</t>
+    <t>( (L * P_Trager * P_OF) + (N_Col * H * 90* P_OF) + (N_Spar * B * 110* P_OF) + (L * B * P_Dach) + (L * P_Wand) + (L * P_Rinne)) * (1 - (Rabatt / 100))</t>
   </si>
 </sst>
 </file>

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C0844B-1F2A-41DF-AE48-10DD85D8E0CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3A2F58-1A65-448C-8261-5E120BF8EF40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2648,7 +2648,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2730,7 +2730,7 @@
         <v>238</v>
       </c>
       <c r="D5" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3A2F58-1A65-448C-8261-5E120BF8EF40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297F60CE-A2BB-441B-BD91-75C1B3875E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Startseite" sheetId="1" r:id="rId1"/>
@@ -1459,7 +1459,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1498,6 +1498,9 @@
       <c r="C2" t="s">
         <v>44</v>
       </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1564,6 +1567,9 @@
       </c>
       <c r="C8" t="s">
         <v>83</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1589,9 +1595,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="88.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1620,6 +1635,9 @@
       <c r="C2" t="s">
         <v>44</v>
       </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1686,6 +1704,9 @@
       </c>
       <c r="C7" t="s">
         <v>57</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1711,9 +1732,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1798,6 +1828,9 @@
       <c r="C6" t="s">
         <v>72</v>
       </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1808,6 +1841,9 @@
       </c>
       <c r="C7" t="s">
         <v>83</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1834,7 +1870,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1873,6 +1909,9 @@
       <c r="C2" t="s">
         <v>44</v>
       </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1942,6 +1981,9 @@
       </c>
       <c r="C7" t="s">
         <v>83</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1967,13 +2009,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
@@ -2013,6 +2055,9 @@
       </c>
       <c r="C3" t="s">
         <v>72</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2647,7 +2692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF34A4C-8E4E-4480-950C-E56A0E6E16E1}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -2861,7 +2906,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2914,6 +2959,9 @@
       <c r="C3" t="s">
         <v>163</v>
       </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -2924,6 +2972,9 @@
       </c>
       <c r="C4" t="s">
         <v>165</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2964,7 +3015,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3004,7 +3055,7 @@
         <v>44</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3018,7 +3069,7 @@
         <v>132</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3138,7 +3189,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3177,6 +3228,9 @@
       <c r="C2" t="s">
         <v>44</v>
       </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -3229,6 +3283,9 @@
       </c>
       <c r="C7" t="s">
         <v>55</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -3280,7 +3337,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3400,6 +3457,9 @@
       <c r="C8" t="s">
         <v>55</v>
       </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -3424,6 +3484,9 @@
       </c>
       <c r="C10" t="s">
         <v>191</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -3463,9 +3526,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="91.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -3494,6 +3566,9 @@
       <c r="C2" t="s">
         <v>44</v>
       </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -3547,6 +3622,9 @@
       <c r="C6" t="s">
         <v>55</v>
       </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -3557,6 +3635,9 @@
       </c>
       <c r="C7" t="s">
         <v>57</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -3582,9 +3663,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="101.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -3613,6 +3703,9 @@
       <c r="C2" t="s">
         <v>44</v>
       </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -3680,6 +3773,9 @@
       <c r="C7" t="s">
         <v>55</v>
       </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -3690,6 +3786,9 @@
       </c>
       <c r="C8" t="s">
         <v>57</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -3716,7 +3815,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3768,6 +3867,9 @@
       <c r="C3" t="s">
         <v>175</v>
       </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -3793,6 +3895,9 @@
       <c r="C5" t="s">
         <v>199</v>
       </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -3817,6 +3922,9 @@
       </c>
       <c r="C7" t="s">
         <v>198</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297F60CE-A2BB-441B-BD91-75C1B3875E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D08C392-BA28-4F5F-AEA0-CA272D8328B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Startseite" sheetId="1" r:id="rId1"/>
@@ -2009,7 +2009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -3336,8 +3336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3375,6 +3375,9 @@
       </c>
       <c r="C2" t="s">
         <v>44</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D08C392-BA28-4F5F-AEA0-CA272D8328B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17150B5D-037A-4D1F-8478-74E77CFAAE16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Startseite" sheetId="1" r:id="rId1"/>
@@ -19,19 +19,20 @@
     <sheet name="Eigen_Edelstahl-Horiz" sheetId="18" r:id="rId4"/>
     <sheet name="Eigen_Edelstahl-Stab" sheetId="15" r:id="rId5"/>
     <sheet name="Brix_Gel_Stab" sheetId="2" r:id="rId6"/>
-    <sheet name="Brix_Gel_Flaechig" sheetId="3" r:id="rId7"/>
-    <sheet name="Brix_Gel_Glas" sheetId="4" r:id="rId8"/>
-    <sheet name="Zub_Gel" sheetId="5" r:id="rId9"/>
-    <sheet name="Brix_Zaun_Stab" sheetId="6" r:id="rId10"/>
-    <sheet name="Brix_Zaun_Sicht" sheetId="7" r:id="rId11"/>
-    <sheet name="Brix_Tore" sheetId="8" r:id="rId12"/>
-    <sheet name="Brix_Schiebe" sheetId="9" r:id="rId13"/>
-    <sheet name="Zub_Zaun" sheetId="10" r:id="rId14"/>
-    <sheet name="Draht_Matten" sheetId="11" r:id="rId15"/>
-    <sheet name="Draht_Mix" sheetId="12" r:id="rId16"/>
-    <sheet name="Zub_Draht" sheetId="13" r:id="rId17"/>
-    <sheet name="Stahl_Treppe" sheetId="14" r:id="rId18"/>
-    <sheet name="Zub_Montage" sheetId="16" r:id="rId19"/>
+    <sheet name="Eigen_Glasgel" sheetId="20" r:id="rId7"/>
+    <sheet name="Brix_Gel_Flaechig" sheetId="3" r:id="rId8"/>
+    <sheet name="Brix_Gel_Glas" sheetId="4" r:id="rId9"/>
+    <sheet name="Zub_Gel" sheetId="5" r:id="rId10"/>
+    <sheet name="Brix_Zaun_Stab" sheetId="6" r:id="rId11"/>
+    <sheet name="Brix_Zaun_Sicht" sheetId="7" r:id="rId12"/>
+    <sheet name="Brix_Tore" sheetId="8" r:id="rId13"/>
+    <sheet name="Brix_Schiebe" sheetId="9" r:id="rId14"/>
+    <sheet name="Zub_Zaun" sheetId="10" r:id="rId15"/>
+    <sheet name="Draht_Matten" sheetId="11" r:id="rId16"/>
+    <sheet name="Draht_Mix" sheetId="12" r:id="rId17"/>
+    <sheet name="Zub_Draht" sheetId="13" r:id="rId18"/>
+    <sheet name="Stahl_Treppe" sheetId="14" r:id="rId19"/>
+    <sheet name="Zub_Montage" sheetId="16" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="290">
   <si>
     <t>Kategorie</t>
   </si>
@@ -834,6 +835,93 @@
   </si>
   <si>
     <t>( (L * P_Trager * P_OF) + (N_Col * H * 90* P_OF) + (N_Spar * B * 110* P_OF) + (L * B * P_Dach) + (L * P_Wand) + (L * P_Rinne)) * (1 - (Rabatt / 100))</t>
+  </si>
+  <si>
+    <t>Eigen_Glasgel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edelstahlgeländer mit Glasfüllung </t>
+  </si>
+  <si>
+    <t>Eigenfertigung Geländer</t>
+  </si>
+  <si>
+    <t>Anzahl Ecken</t>
+  </si>
+  <si>
+    <t>Für Eck-Klemmhalter</t>
+  </si>
+  <si>
+    <t>Glas-Typ (€/m²)</t>
+  </si>
+  <si>
+    <t>VSG 12.76 Matt:220, VSG 12.76 Klar:180, VSG 10.76 Matt:190, VSG 10.76 Klar:150</t>
+  </si>
+  <si>
+    <t>Preise anpassen!</t>
+  </si>
+  <si>
+    <t>Steher-Profil (€/Stk)</t>
+  </si>
+  <si>
+    <t>Rund 42.4mm:45, Rund 48.3mm:55, QR 40x40:50, QR 50x50:65</t>
+  </si>
+  <si>
+    <t>Preis inkl. Zuschnitt</t>
+  </si>
+  <si>
+    <t>Handlauf (€/m)</t>
+  </si>
+  <si>
+    <t>Rund 42.4mm:25, Rund 48.3mm:35, QR 40x40:30, QR 50x50:40, Holz:45</t>
+  </si>
+  <si>
+    <t>Materialpreis</t>
+  </si>
+  <si>
+    <t>F_Montage</t>
+  </si>
+  <si>
+    <t>Aufsatz (Boden):0, Seite (Wange):25</t>
+  </si>
+  <si>
+    <t>Aufpreis pro Steher</t>
+  </si>
+  <si>
+    <t>Preis Klemmhalter (Stk)</t>
+  </si>
+  <si>
+    <t>P_Klem</t>
+  </si>
+  <si>
+    <t>Standard Halter</t>
+  </si>
+  <si>
+    <t>Intern: Rechn-Länge</t>
+  </si>
+  <si>
+    <t>L_Calc</t>
+  </si>
+  <si>
+    <t>max(L, 1.0)</t>
+  </si>
+  <si>
+    <t>Intern: Felder</t>
+  </si>
+  <si>
+    <t>N_Felder</t>
+  </si>
+  <si>
+    <t>math.ceil(L_Calc / 1.3)</t>
+  </si>
+  <si>
+    <t>Intern: Steher</t>
+  </si>
+  <si>
+    <t>N_Felder + 1</t>
+  </si>
+  <si>
+    <t>(L_Calc * 0.85 * P_Glas) + (N_Steher * (P_Steher + F_Montage)) + (L_Calc * P_Handlauf) + ((N_Felder * 4 * P_Klem) + (Ecken * 4 * 5.0)) + (L_Calc * 65)</t>
   </si>
 </sst>
 </file>
@@ -911,7 +999,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -924,7 +1012,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1227,10 +1314,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1385,46 +1472,46 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>263</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>206</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>263</v>
       </c>
       <c r="B15" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C15" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>263</v>
       </c>
       <c r="B16" t="s">
-        <v>208</v>
+        <v>262</v>
       </c>
       <c r="C16" t="s">
-        <v>207</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>263</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1432,10 +1519,10 @@
         <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>233</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>234</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1443,9 +1530,31 @@
         <v>30</v>
       </c>
       <c r="B19" t="s">
+        <v>233</v>
+      </c>
+      <c r="C19" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s">
         <v>33</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C21" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1455,6 +1564,156 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="5" max="5" width="62.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C8" t="s">
+        <v>173</v>
+      </c>
+      <c r="D8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -1591,7 +1850,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -1728,7 +1987,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -1865,7 +2124,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -2005,7 +2264,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -2079,7 +2338,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -2257,7 +2516,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -2385,7 +2644,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -2456,7 +2715,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -2612,75 +2871,6 @@
       </c>
       <c r="E11" t="s">
         <v>152</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2802,7 +2992,7 @@
       <c r="C7" t="s">
         <v>240</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" t="s">
         <v>252</v>
       </c>
       <c r="E7" t="s">
@@ -2898,6 +3088,75 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -3336,7 +3595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -3526,6 +3785,217 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3767AEE-90FD-4E2A-850D-E4B8975E0F80}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="71" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" t="s">
+        <v>270</v>
+      </c>
+      <c r="E5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D6" t="s">
+        <v>273</v>
+      </c>
+      <c r="E6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" t="s">
+        <v>275</v>
+      </c>
+      <c r="D7" t="s">
+        <v>276</v>
+      </c>
+      <c r="E7" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>278</v>
+      </c>
+      <c r="C8" t="s">
+        <v>279</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B9" t="s">
+        <v>281</v>
+      </c>
+      <c r="C9" t="s">
+        <v>282</v>
+      </c>
+      <c r="E9" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B10" t="s">
+        <v>284</v>
+      </c>
+      <c r="C10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E10" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>170</v>
+      </c>
+      <c r="B11" t="s">
+        <v>287</v>
+      </c>
+      <c r="C11" t="s">
+        <v>217</v>
+      </c>
+      <c r="E11" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -3662,7 +4132,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -3811,154 +4281,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" customWidth="1"/>
-    <col min="5" max="5" width="62.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C4" t="s">
-        <v>194</v>
-      </c>
-      <c r="D4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" t="s">
-        <v>196</v>
-      </c>
-      <c r="C5" t="s">
-        <v>199</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" t="s">
-        <v>176</v>
-      </c>
-      <c r="C6" t="s">
-        <v>195</v>
-      </c>
-      <c r="D6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" t="s">
-        <v>197</v>
-      </c>
-      <c r="C7" t="s">
-        <v>198</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" t="s">
-        <v>172</v>
-      </c>
-      <c r="C8" t="s">
-        <v>173</v>
-      </c>
-      <c r="D8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" t="s">
-        <v>202</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17150B5D-037A-4D1F-8478-74E77CFAAE16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462DD937-0391-40F3-8E9D-B7ACDDDB4786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="287">
   <si>
     <t>Kategorie</t>
   </si>
@@ -897,31 +897,22 @@
     <t>Standard Halter</t>
   </si>
   <si>
-    <t>Intern: Rechn-Länge</t>
-  </si>
-  <si>
-    <t>L_Calc</t>
-  </si>
-  <si>
-    <t>max(L, 1.0)</t>
-  </si>
-  <si>
     <t>Intern: Felder</t>
   </si>
   <si>
     <t>N_Felder</t>
   </si>
   <si>
-    <t>math.ceil(L_Calc / 1.3)</t>
-  </si>
-  <si>
     <t>Intern: Steher</t>
   </si>
   <si>
     <t>N_Felder + 1</t>
   </si>
   <si>
-    <t>(L_Calc * 0.85 * P_Glas) + (N_Steher * (P_Steher + F_Montage)) + (L_Calc * P_Handlauf) + ((N_Felder * 4 * P_Klem) + (Ecken * 4 * 5.0)) + (L_Calc * 65)</t>
+    <t>math.ceil(max(L, 1.0) / 1.3)</t>
+  </si>
+  <si>
+    <t>(max(L, 1.0) * 0.85 * P_Glas) + (N_Steher * (P_Steher + F_Montage)) + (max(L, 1.0) * P_Handlauf) + ((N_Felder * 4 * P_Klem) + (Ecken * 4 * 5.0)) + (max(L, 1.0) * 65)</t>
   </si>
 </sst>
 </file>
@@ -3786,10 +3777,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3767AEE-90FD-4E2A-850D-E4B8975E0F80}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3828,7 +3819,7 @@
       <c r="C2" t="s">
         <v>44</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3842,7 +3833,7 @@
       <c r="C3" t="s">
         <v>55</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4">
         <v>0</v>
       </c>
       <c r="E3" t="s">
@@ -3945,7 +3936,7 @@
         <v>282</v>
       </c>
       <c r="E9" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -3953,41 +3944,27 @@
         <v>170</v>
       </c>
       <c r="B10" t="s">
+        <v>283</v>
+      </c>
+      <c r="C10" t="s">
+        <v>217</v>
+      </c>
+      <c r="E10" t="s">
         <v>284</v>
-      </c>
-      <c r="C10" t="s">
-        <v>285</v>
-      </c>
-      <c r="E10" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
-        <v>287</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>217</v>
+        <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462DD937-0391-40F3-8E9D-B7ACDDDB4786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3A0AB7-08C6-4218-A8E7-D3CEBCCF894B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3780,7 +3780,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E20" sqref="E20:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3919,7 +3919,7 @@
         <v>279</v>
       </c>
       <c r="D8" s="4">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
         <v>280</v>

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3A0AB7-08C6-4218-A8E7-D3CEBCCF894B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365AF2F3-B37D-4B91-93BD-038784389816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -873,9 +873,6 @@
     <t>Handlauf (€/m)</t>
   </si>
   <si>
-    <t>Rund 42.4mm:25, Rund 48.3mm:35, QR 40x40:30, QR 50x50:40, Holz:45</t>
-  </si>
-  <si>
     <t>Materialpreis</t>
   </si>
   <si>
@@ -913,6 +910,9 @@
   </si>
   <si>
     <t>(max(L, 1.0) * 0.85 * P_Glas) + (N_Steher * (P_Steher + F_Montage)) + (max(L, 1.0) * P_Handlauf) + ((N_Felder * 4 * P_Klem) + (Ecken * 4 * 5.0)) + (max(L, 1.0) * 65)</t>
+  </si>
+  <si>
+    <t>Rund 42.4mm:25, Rund 48.3mm:35, QR 40x40:30, QR 50x50:40</t>
   </si>
 </sst>
 </file>
@@ -3780,7 +3780,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20:E21"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3885,10 +3885,10 @@
         <v>180</v>
       </c>
       <c r="D6" t="s">
+        <v>286</v>
+      </c>
+      <c r="E6" t="s">
         <v>273</v>
-      </c>
-      <c r="E6" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -3899,13 +3899,13 @@
         <v>155</v>
       </c>
       <c r="C7" t="s">
+        <v>274</v>
+      </c>
+      <c r="D7" t="s">
         <v>275</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>276</v>
-      </c>
-      <c r="E7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -3913,16 +3913,16 @@
         <v>42</v>
       </c>
       <c r="B8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C8" t="s">
         <v>278</v>
-      </c>
-      <c r="C8" t="s">
-        <v>279</v>
       </c>
       <c r="D8" s="4">
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -3930,13 +3930,13 @@
         <v>170</v>
       </c>
       <c r="B9" t="s">
+        <v>280</v>
+      </c>
+      <c r="C9" t="s">
         <v>281</v>
       </c>
-      <c r="C9" t="s">
-        <v>282</v>
-      </c>
       <c r="E9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -3944,13 +3944,13 @@
         <v>170</v>
       </c>
       <c r="B10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C10" t="s">
         <v>217</v>
       </c>
       <c r="E10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -3964,7 +3964,7 @@
         <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365AF2F3-B37D-4B91-93BD-038784389816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87798C49-5D9E-41E5-B953-5481F4AD4F85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="287">
   <si>
     <t>Kategorie</t>
   </si>
@@ -3780,7 +3780,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3935,6 +3935,7 @@
       <c r="C9" t="s">
         <v>281</v>
       </c>
+      <c r="D9" s="4"/>
       <c r="E9" t="s">
         <v>284</v>
       </c>
@@ -3949,6 +3950,7 @@
       <c r="C10" t="s">
         <v>217</v>
       </c>
+      <c r="D10" s="4"/>
       <c r="E10" t="s">
         <v>283</v>
       </c>
@@ -3963,6 +3965,7 @@
       <c r="C11" t="s">
         <v>60</v>
       </c>
+      <c r="D11" s="4"/>
       <c r="E11" t="s">
         <v>285</v>
       </c>

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87798C49-5D9E-41E5-B953-5481F4AD4F85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A80AFE7-C948-419F-AE4E-DF5696B64DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -840,9 +840,6 @@
     <t>Eigen_Glasgel</t>
   </si>
   <si>
-    <t xml:space="preserve">Edelstahlgeländer mit Glasfüllung </t>
-  </si>
-  <si>
     <t>Eigenfertigung Geländer</t>
   </si>
   <si>
@@ -855,9 +852,6 @@
     <t>Glas-Typ (€/m²)</t>
   </si>
   <si>
-    <t>VSG 12.76 Matt:220, VSG 12.76 Klar:180, VSG 10.76 Matt:190, VSG 10.76 Klar:150</t>
-  </si>
-  <si>
     <t>Preise anpassen!</t>
   </si>
   <si>
@@ -913,6 +907,12 @@
   </si>
   <si>
     <t>Rund 42.4mm:25, Rund 48.3mm:35, QR 40x40:30, QR 50x50:40</t>
+  </si>
+  <si>
+    <t>Edelstahlgeländer mit Glasfüllung</t>
+  </si>
+  <si>
+    <t>VSG 12.76 Matt:240, VSG 12.76 Klar:230, VSG 10.76 Matt:210, VSG 10.76 Klar:200</t>
   </si>
 </sst>
 </file>
@@ -1308,7 +1308,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1463,7 +1463,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B14" t="s">
         <v>206</v>
@@ -1474,7 +1474,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B15" t="s">
         <v>208</v>
@@ -1485,10 +1485,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B16" t="s">
-        <v>262</v>
+        <v>285</v>
       </c>
       <c r="C16" t="s">
         <v>261</v>
@@ -1496,7 +1496,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B17" t="s">
         <v>33</v>
@@ -3819,25 +3819,21 @@
       <c r="C2" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C3" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
+      <c r="D3" s="4"/>
       <c r="E3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3845,16 +3841,16 @@
         <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C4" t="s">
         <v>65</v>
       </c>
       <c r="D4" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="E4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -3862,16 +3858,16 @@
         <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C5" t="s">
         <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -3879,16 +3875,16 @@
         <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C6" t="s">
         <v>180</v>
       </c>
       <c r="D6" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -3899,13 +3895,13 @@
         <v>155</v>
       </c>
       <c r="C7" t="s">
+        <v>272</v>
+      </c>
+      <c r="D7" t="s">
+        <v>273</v>
+      </c>
+      <c r="E7" t="s">
         <v>274</v>
-      </c>
-      <c r="D7" t="s">
-        <v>275</v>
-      </c>
-      <c r="E7" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -3913,16 +3909,14 @@
         <v>42</v>
       </c>
       <c r="B8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C8" t="s">
+        <v>276</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" t="s">
         <v>277</v>
-      </c>
-      <c r="C8" t="s">
-        <v>278</v>
-      </c>
-      <c r="D8" s="4">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -3930,14 +3924,14 @@
         <v>170</v>
       </c>
       <c r="B9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C9" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -3945,14 +3939,14 @@
         <v>170</v>
       </c>
       <c r="B10" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C10" t="s">
         <v>217</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -3967,7 +3961,7 @@
       </c>
       <c r="D11" s="4"/>
       <c r="E11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A80AFE7-C948-419F-AE4E-DF5696B64DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F56D7C-C3FB-443A-BBF3-7EE827EAC72C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3780,7 +3780,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3819,7 +3819,9 @@
       <c r="C2" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -3831,7 +3833,9 @@
       <c r="C3" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
       <c r="E3" t="s">
         <v>264</v>
       </c>
@@ -3914,7 +3918,9 @@
       <c r="C8" t="s">
         <v>276</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="4">
+        <v>12</v>
+      </c>
       <c r="E8" t="s">
         <v>277</v>
       </c>

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F56D7C-C3FB-443A-BBF3-7EE827EAC72C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A63F6ABF-F235-42EC-A3C3-AB28E20BF027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Startseite" sheetId="1" r:id="rId1"/>
@@ -990,7 +990,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1001,6 +1001,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1305,10 +1308,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1330,223 +1333,248 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>262</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>206</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>262</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>208</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>262</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>285</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>262</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>233</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>262</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>206</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>205</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>262</v>
+        <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>208</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>207</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>262</v>
+        <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>285</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>261</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>262</v>
+        <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>233</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>234</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1559,7 +1587,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3438,7 +3466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -3777,10 +3805,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3767AEE-90FD-4E2A-850D-E4B8975E0F80}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3908,36 +3936,21 @@
         <v>274</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" t="s">
-        <v>275</v>
-      </c>
-      <c r="C8" t="s">
-        <v>276</v>
-      </c>
-      <c r="D8" s="4">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>277</v>
-      </c>
-    </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>170</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C9" t="s">
-        <v>279</v>
-      </c>
-      <c r="D9" s="4"/>
+        <v>276</v>
+      </c>
+      <c r="D9" s="4">
+        <v>12</v>
+      </c>
       <c r="E9" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -3945,28 +3958,43 @@
         <v>170</v>
       </c>
       <c r="B10" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C10" t="s">
-        <v>217</v>
+        <v>279</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>280</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>217</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" t="s">
         <v>283</v>
       </c>
     </row>
@@ -3980,7 +4008,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A63F6ABF-F235-42EC-A3C3-AB28E20BF027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1AC0418-23A1-4161-8AB2-67EA4FB456A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -990,7 +990,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1001,9 +1001,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1308,10 +1305,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1333,247 +1330,222 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
+      <c r="A2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C2" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
+      <c r="A3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C3" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
+      <c r="A4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C4" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
+      <c r="A5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>262</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="C7" t="s">
-        <v>205</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>262</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>208</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>207</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>262</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>285</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>261</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>262</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>233</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>234</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" t="s">
         <v>29</v>
       </c>
     </row>

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1AC0418-23A1-4161-8AB2-67EA4FB456A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833BDC40-53AF-4EAE-A17A-FC2FEB9A7221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833BDC40-53AF-4EAE-A17A-FC2FEB9A7221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE61AF4-F854-4DE4-8B99-3ECE0DEB2DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Startseite" sheetId="1" r:id="rId1"/>
     <sheet name="Eigen_Terrasse" sheetId="19" r:id="rId2"/>
     <sheet name="Eigen_Glasdach" sheetId="17" r:id="rId3"/>
     <sheet name="Eigen_Edelstahl-Horiz" sheetId="18" r:id="rId4"/>
-    <sheet name="Eigen_Edelstahl-Stab" sheetId="15" r:id="rId5"/>
-    <sheet name="Brix_Gel_Stab" sheetId="2" r:id="rId6"/>
-    <sheet name="Eigen_Glasgel" sheetId="20" r:id="rId7"/>
+    <sheet name="Eigen_Glasgel" sheetId="20" r:id="rId5"/>
+    <sheet name="Eigen_Edelstahl-Stab" sheetId="15" r:id="rId6"/>
+    <sheet name="Brix_Gel_Stab" sheetId="2" r:id="rId7"/>
     <sheet name="Brix_Gel_Flaechig" sheetId="3" r:id="rId8"/>
     <sheet name="Brix_Gel_Glas" sheetId="4" r:id="rId9"/>
     <sheet name="Zub_Gel" sheetId="5" r:id="rId10"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="288">
   <si>
     <t>Kategorie</t>
   </si>
@@ -903,16 +903,19 @@
     <t>math.ceil(max(L, 1.0) / 1.3)</t>
   </si>
   <si>
-    <t>(max(L, 1.0) * 0.85 * P_Glas) + (N_Steher * (P_Steher + F_Montage)) + (max(L, 1.0) * P_Handlauf) + ((N_Felder * 4 * P_Klem) + (Ecken * 4 * 5.0)) + (max(L, 1.0) * 65)</t>
-  </si>
-  <si>
     <t>Rund 42.4mm:25, Rund 48.3mm:35, QR 40x40:30, QR 50x50:40</t>
   </si>
   <si>
     <t>Edelstahlgeländer mit Glasfüllung</t>
   </si>
   <si>
-    <t>VSG 12.76 Matt:240, VSG 12.76 Klar:230, VSG 10.76 Matt:210, VSG 10.76 Klar:200</t>
+    <t>VSG 12.76 Matt:270, VSG 12.76 Klar:260, VSG 10.76 Matt:240, VSG 10.76 Klar:230</t>
+  </si>
+  <si>
+    <t>(max(L, 1.0) * H * P_Glas) + (N_Steher * (P_Steher + F_Montage)) + (max(L, 1.0) * P_Handlauf) + ((N_Felder * 4 * P_Klem) + (Ecken * 4 * 20.0)) + (max(L, 1.0) * 75)</t>
+  </si>
+  <si>
+    <t>Geländer Höhe (m)</t>
   </si>
 </sst>
 </file>
@@ -1307,7 +1310,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -1356,7 +1359,7 @@
         <v>262</v>
       </c>
       <c r="B4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C4" t="s">
         <v>261</v>
@@ -3435,6 +3438,220 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3767AEE-90FD-4E2A-850D-E4B8975E0F80}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="71" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" t="s">
+        <v>285</v>
+      </c>
+      <c r="E5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>267</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" t="s">
+        <v>268</v>
+      </c>
+      <c r="E6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
+        <v>270</v>
+      </c>
+      <c r="C7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D7" t="s">
+        <v>283</v>
+      </c>
+      <c r="E7" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8" t="s">
+        <v>272</v>
+      </c>
+      <c r="D8" t="s">
+        <v>273</v>
+      </c>
+      <c r="E8" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>275</v>
+      </c>
+      <c r="C10" t="s">
+        <v>276</v>
+      </c>
+      <c r="D10" s="4">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>170</v>
+      </c>
+      <c r="B11" t="s">
+        <v>278</v>
+      </c>
+      <c r="C11" t="s">
+        <v>279</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>170</v>
+      </c>
+      <c r="B12" t="s">
+        <v>280</v>
+      </c>
+      <c r="C12" t="s">
+        <v>217</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" t="s">
+        <v>286</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3582,7 +3799,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -3772,206 +3989,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3767AEE-90FD-4E2A-850D-E4B8975E0F80}">
-  <dimension ref="A1:E12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="71" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" t="s">
-        <v>263</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" t="s">
-        <v>286</v>
-      </c>
-      <c r="E4" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" t="s">
-        <v>267</v>
-      </c>
-      <c r="C5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" t="s">
-        <v>268</v>
-      </c>
-      <c r="E5" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" t="s">
-        <v>270</v>
-      </c>
-      <c r="C6" t="s">
-        <v>180</v>
-      </c>
-      <c r="D6" t="s">
-        <v>284</v>
-      </c>
-      <c r="E6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" t="s">
-        <v>155</v>
-      </c>
-      <c r="C7" t="s">
-        <v>272</v>
-      </c>
-      <c r="D7" t="s">
-        <v>273</v>
-      </c>
-      <c r="E7" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" t="s">
-        <v>275</v>
-      </c>
-      <c r="C9" t="s">
-        <v>276</v>
-      </c>
-      <c r="D9" s="4">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>170</v>
-      </c>
-      <c r="B10" t="s">
-        <v>278</v>
-      </c>
-      <c r="C10" t="s">
-        <v>279</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>170</v>
-      </c>
-      <c r="B11" t="s">
-        <v>280</v>
-      </c>
-      <c r="C11" t="s">
-        <v>217</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" t="s">
-        <v>283</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE61AF4-F854-4DE4-8B99-3ECE0DEB2DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775FE47C-E833-4577-9438-F63002985067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="292">
   <si>
     <t>Kategorie</t>
   </si>
@@ -744,9 +744,6 @@
     <t>(math.ceil(L / 1.3) + 1)</t>
   </si>
   <si>
-    <t>(L * N_Rows * P_F_Mat) + (N_Steher * H * P_S_Mat) + (N_Steher * (150 + (Mode * 75))) + (Mode * N_Steher * N_Rows * 1.8)</t>
-  </si>
-  <si>
     <t>Rund 42.4mm:50, Rund 48mm:60, QR 40x40:60, QR 50x50:80</t>
   </si>
   <si>
@@ -912,10 +909,25 @@
     <t>VSG 12.76 Matt:270, VSG 12.76 Klar:260, VSG 10.76 Matt:240, VSG 10.76 Klar:230</t>
   </si>
   <si>
-    <t>(max(L, 1.0) * H * P_Glas) + (N_Steher * (P_Steher + F_Montage)) + (max(L, 1.0) * P_Handlauf) + ((N_Felder * 4 * P_Klem) + (Ecken * 4 * 20.0)) + (max(L, 1.0) * 75)</t>
-  </si>
-  <si>
     <t>Geländer Höhe (m)</t>
+  </si>
+  <si>
+    <t>Schräge Ausführung</t>
+  </si>
+  <si>
+    <t>S_Faktor</t>
+  </si>
+  <si>
+    <t>`----:1, Schräg:1.3</t>
+  </si>
+  <si>
+    <t>Afpreis für Schräge Ausführung</t>
+  </si>
+  <si>
+    <t>((L * N_Rows * P_F_Mat) + (N_Steher * H * P_S_Mat) + (N_Steher * (150 + (Mode * 75))) + (Mode * N_Steher * N_Rows * 1.8)) * S_Faktor</t>
+  </si>
+  <si>
+    <t>((max(L, 1.0) * H * P_Glas) + (N_Steher * (P_Steher + F_Montage)) + (max(L, 1.0) * P_Handlauf) + ((N_Felder * 4 * P_Klem) + (Ecken * 4 * 20.0)) + (max(L, 1.0) * 75)) * S_Faktor</t>
   </si>
 </sst>
 </file>
@@ -1334,7 +1346,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B2" t="s">
         <v>206</v>
@@ -1345,7 +1357,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B3" t="s">
         <v>208</v>
@@ -1356,18 +1368,18 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B5" t="s">
         <v>33</v>
@@ -1392,10 +1404,10 @@
         <v>30</v>
       </c>
       <c r="B7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C7" t="s">
         <v>233</v>
-      </c>
-      <c r="C7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2925,7 +2937,7 @@
         <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C3" t="s">
         <v>134</v>
@@ -2939,7 +2951,7 @@
         <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C4" t="s">
         <v>132</v>
@@ -2953,10 +2965,10 @@
         <v>42</v>
       </c>
       <c r="B5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C5" t="s">
         <v>237</v>
-      </c>
-      <c r="C5" t="s">
-        <v>238</v>
       </c>
       <c r="D5" s="4">
         <v>0</v>
@@ -2967,13 +2979,13 @@
         <v>45</v>
       </c>
       <c r="B6" t="s">
+        <v>252</v>
+      </c>
+      <c r="C6" t="s">
         <v>253</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" s="4" t="s">
         <v>254</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -2981,16 +2993,16 @@
         <v>45</v>
       </c>
       <c r="B7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C7" t="s">
         <v>239</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>251</v>
+      </c>
+      <c r="E7" t="s">
         <v>240</v>
-      </c>
-      <c r="D7" t="s">
-        <v>252</v>
-      </c>
-      <c r="E7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2998,16 +3010,16 @@
         <v>42</v>
       </c>
       <c r="B8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C8" t="s">
         <v>242</v>
-      </c>
-      <c r="C8" t="s">
-        <v>243</v>
       </c>
       <c r="D8">
         <v>95</v>
       </c>
       <c r="E8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -3015,13 +3027,13 @@
         <v>45</v>
       </c>
       <c r="B9" t="s">
+        <v>256</v>
+      </c>
+      <c r="C9" t="s">
         <v>257</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>258</v>
-      </c>
-      <c r="D9" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -3029,10 +3041,10 @@
         <v>42</v>
       </c>
       <c r="B10" t="s">
+        <v>244</v>
+      </c>
+      <c r="C10" t="s">
         <v>245</v>
-      </c>
-      <c r="C10" t="s">
-        <v>246</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -3043,13 +3055,13 @@
         <v>170</v>
       </c>
       <c r="B11" t="s">
+        <v>246</v>
+      </c>
+      <c r="C11" t="s">
         <v>247</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>248</v>
-      </c>
-      <c r="E11" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -3057,13 +3069,13 @@
         <v>170</v>
       </c>
       <c r="B12" t="s">
+        <v>249</v>
+      </c>
+      <c r="C12" t="s">
         <v>250</v>
       </c>
-      <c r="C12" t="s">
-        <v>251</v>
-      </c>
       <c r="E12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -3077,7 +3089,7 @@
         <v>60</v>
       </c>
       <c r="E14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -3265,10 +3277,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F5CB08-64DF-43C2-9DE2-22477EA8DC69}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3350,7 +3362,7 @@
         <v>220</v>
       </c>
       <c r="D5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E5" t="s">
         <v>222</v>
@@ -3367,7 +3379,7 @@
         <v>221</v>
       </c>
       <c r="D6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E6" t="s">
         <v>223</v>
@@ -3378,30 +3390,33 @@
         <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>224</v>
+        <v>286</v>
       </c>
       <c r="C7" t="s">
-        <v>225</v>
+        <v>287</v>
       </c>
       <c r="D7" t="s">
-        <v>226</v>
+        <v>288</v>
       </c>
       <c r="E7" t="s">
-        <v>227</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>170</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="C8" t="s">
-        <v>216</v>
+        <v>225</v>
+      </c>
+      <c r="D8" t="s">
+        <v>226</v>
       </c>
       <c r="E8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -3409,27 +3424,41 @@
         <v>170</v>
       </c>
       <c r="B9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B10" t="s">
+        <v>215</v>
+      </c>
+      <c r="C10" t="s">
+        <v>217</v>
+      </c>
+      <c r="E10" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>58</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>59</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>60</v>
       </c>
-      <c r="E10" t="s">
-        <v>230</v>
+      <c r="E11" t="s">
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -3442,7 +3471,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3490,7 +3519,7 @@
         <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C3" t="s">
         <v>132</v>
@@ -3504,7 +3533,7 @@
         <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C4" t="s">
         <v>55</v>
@@ -3513,7 +3542,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -3521,16 +3550,16 @@
         <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C5" t="s">
         <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -3538,16 +3567,16 @@
         <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C6" t="s">
         <v>53</v>
       </c>
       <c r="D6" t="s">
+        <v>267</v>
+      </c>
+      <c r="E6" t="s">
         <v>268</v>
-      </c>
-      <c r="E6" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -3555,16 +3584,16 @@
         <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C7" t="s">
         <v>180</v>
       </c>
       <c r="D7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -3575,13 +3604,30 @@
         <v>155</v>
       </c>
       <c r="C8" t="s">
+        <v>271</v>
+      </c>
+      <c r="D8" t="s">
         <v>272</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>273</v>
       </c>
-      <c r="E8" t="s">
-        <v>274</v>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>286</v>
+      </c>
+      <c r="C9" t="s">
+        <v>287</v>
+      </c>
+      <c r="D9" t="s">
+        <v>288</v>
+      </c>
+      <c r="E9" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -3589,16 +3635,16 @@
         <v>42</v>
       </c>
       <c r="B10" t="s">
+        <v>274</v>
+      </c>
+      <c r="C10" t="s">
         <v>275</v>
-      </c>
-      <c r="C10" t="s">
-        <v>276</v>
       </c>
       <c r="D10" s="4">
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -3606,14 +3652,14 @@
         <v>170</v>
       </c>
       <c r="B11" t="s">
+        <v>277</v>
+      </c>
+      <c r="C11" t="s">
         <v>278</v>
-      </c>
-      <c r="C11" t="s">
-        <v>279</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -3621,14 +3667,14 @@
         <v>170</v>
       </c>
       <c r="B12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C12" t="s">
         <v>217</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -3643,7 +3689,7 @@
       </c>
       <c r="D13" s="4"/>
       <c r="E13" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -3804,7 +3850,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775FE47C-E833-4577-9438-F63002985067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17E5939-6336-46FE-A5F4-FF48C7588F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Startseite" sheetId="1" r:id="rId1"/>
@@ -19,20 +19,21 @@
     <sheet name="Eigen_Edelstahl-Horiz" sheetId="18" r:id="rId4"/>
     <sheet name="Eigen_Glasgel" sheetId="20" r:id="rId5"/>
     <sheet name="Eigen_Edelstahl-Stab" sheetId="15" r:id="rId6"/>
-    <sheet name="Brix_Gel_Stab" sheetId="2" r:id="rId7"/>
-    <sheet name="Brix_Gel_Flaechig" sheetId="3" r:id="rId8"/>
-    <sheet name="Brix_Gel_Glas" sheetId="4" r:id="rId9"/>
-    <sheet name="Zub_Gel" sheetId="5" r:id="rId10"/>
-    <sheet name="Brix_Zaun_Stab" sheetId="6" r:id="rId11"/>
-    <sheet name="Brix_Zaun_Sicht" sheetId="7" r:id="rId12"/>
-    <sheet name="Brix_Tore" sheetId="8" r:id="rId13"/>
-    <sheet name="Brix_Schiebe" sheetId="9" r:id="rId14"/>
-    <sheet name="Zub_Zaun" sheetId="10" r:id="rId15"/>
-    <sheet name="Draht_Matten" sheetId="11" r:id="rId16"/>
-    <sheet name="Draht_Mix" sheetId="12" r:id="rId17"/>
-    <sheet name="Zub_Draht" sheetId="13" r:id="rId18"/>
-    <sheet name="Stahl_Treppe" sheetId="14" r:id="rId19"/>
-    <sheet name="Zub_Montage" sheetId="16" r:id="rId20"/>
+    <sheet name="Geländer_Eigen_Zubehör" sheetId="21" r:id="rId7"/>
+    <sheet name="Brix_Gel_Stab" sheetId="2" r:id="rId8"/>
+    <sheet name="Brix_Gel_Flaechig" sheetId="3" r:id="rId9"/>
+    <sheet name="Brix_Gel_Glas" sheetId="4" r:id="rId10"/>
+    <sheet name="Zub_Gel" sheetId="5" r:id="rId11"/>
+    <sheet name="Brix_Zaun_Stab" sheetId="6" r:id="rId12"/>
+    <sheet name="Brix_Zaun_Sicht" sheetId="7" r:id="rId13"/>
+    <sheet name="Brix_Tore" sheetId="8" r:id="rId14"/>
+    <sheet name="Brix_Schiebe" sheetId="9" r:id="rId15"/>
+    <sheet name="Zub_Zaun" sheetId="10" r:id="rId16"/>
+    <sheet name="Draht_Matten" sheetId="11" r:id="rId17"/>
+    <sheet name="Draht_Mix" sheetId="12" r:id="rId18"/>
+    <sheet name="Zub_Draht" sheetId="13" r:id="rId19"/>
+    <sheet name="Stahl_Treppe" sheetId="14" r:id="rId20"/>
+    <sheet name="Zub_Montage" sheetId="16" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="299">
   <si>
     <t>Kategorie</t>
   </si>
@@ -928,6 +929,27 @@
   </si>
   <si>
     <t>((max(L, 1.0) * H * P_Glas) + (N_Steher * (P_Steher + F_Montage)) + (max(L, 1.0) * P_Handlauf) + ((N_Felder * 4 * P_Klem) + (Ecken * 4 * 20.0)) + (max(L, 1.0) * 75)) * S_Faktor</t>
+  </si>
+  <si>
+    <t>Geländer_Eigen_Zubehör</t>
+  </si>
+  <si>
+    <t>Edelstahlgeländer Zubehör</t>
+  </si>
+  <si>
+    <t>Lfm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"---:0, Etalbondverkleidung:90, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"---:0, Dachrinne:180, </t>
+  </si>
+  <si>
+    <t>P_Art1</t>
+  </si>
+  <si>
+    <t>(P_Art * Menge) + (P_Art1 * Menge)</t>
   </si>
 </sst>
 </file>
@@ -1320,10 +1342,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1382,21 +1404,21 @@
         <v>261</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>293</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>261</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1404,10 +1426,10 @@
         <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>232</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>233</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1415,10 +1437,10 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>232</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1426,21 +1448,21 @@
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1448,10 +1470,10 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1459,10 +1481,10 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1470,21 +1492,21 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1492,10 +1514,10 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1503,10 +1525,10 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1514,10 +1536,10 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1525,21 +1547,21 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1547,10 +1569,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1558,9 +1580,20 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
         <v>28</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1570,6 +1603,157 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="101.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -1719,7 +1903,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -1856,7 +2040,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -1993,7 +2177,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -2130,7 +2314,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -2270,7 +2454,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -2344,7 +2528,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -2522,7 +2706,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -2650,7 +2834,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -2714,169 +2898,6 @@
       </c>
       <c r="E4" t="s">
         <v>73</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:E11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C5" t="s">
-        <v>140</v>
-      </c>
-      <c r="D5" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C8" t="s">
-        <v>146</v>
-      </c>
-      <c r="D8" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" t="s">
-        <v>148</v>
-      </c>
-      <c r="C9" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" t="s">
-        <v>150</v>
-      </c>
-      <c r="C10" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" t="s">
-        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -3098,10 +3119,175 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -3470,7 +3656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3767AEE-90FD-4E2A-850D-E4B8975E0F80}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -3699,10 +3885,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3759,84 +3945,84 @@
         <v>153</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>174</v>
+        <v>156</v>
+      </c>
+      <c r="D5" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D6" t="s">
-        <v>157</v>
+        <v>55</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>170</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
+        <v>57</v>
+      </c>
+      <c r="E7" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>170</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>172</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>172</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" t="s">
         <v>60</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E9" t="s">
         <v>204</v>
       </c>
     </row>
@@ -3846,6 +4032,88 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E186CFB0-FB04-4702-8C79-E41C2D9D71EE}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -4038,7 +4306,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -4173,155 +4441,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="101.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17E5939-6336-46FE-A5F4-FF48C7588F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B87104-65E4-4ACF-A3BD-BE717993B3FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4036,7 +4036,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4092,6 +4092,9 @@
       </c>
       <c r="C4" t="s">
         <v>72</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B87104-65E4-4ACF-A3BD-BE717993B3FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A932171-C62A-4461-B6F9-D6E7F232607E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Startseite" sheetId="1" r:id="rId1"/>
@@ -733,9 +733,6 @@
     <t>Mode</t>
   </si>
   <si>
-    <t>Durch Steher (2h):0, Mit Halter (3h):1</t>
-  </si>
-  <si>
     <t>Schalter für Logik</t>
   </si>
   <si>
@@ -950,6 +947,9 @@
   </si>
   <si>
     <t>(P_Art * Menge) + (P_Art1 * Menge)</t>
+  </si>
+  <si>
+    <t>Durch Steher:0, Mit Halter:1</t>
   </si>
 </sst>
 </file>
@@ -1368,7 +1368,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B2" t="s">
         <v>206</v>
@@ -1379,7 +1379,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B3" t="s">
         <v>208</v>
@@ -1390,29 +1390,29 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B6" t="s">
         <v>33</v>
@@ -1437,10 +1437,10 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C8" t="s">
         <v>232</v>
-      </c>
-      <c r="C8" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2958,7 +2958,7 @@
         <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C3" t="s">
         <v>134</v>
@@ -2972,7 +2972,7 @@
         <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C4" t="s">
         <v>132</v>
@@ -2986,10 +2986,10 @@
         <v>42</v>
       </c>
       <c r="B5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C5" t="s">
         <v>236</v>
-      </c>
-      <c r="C5" t="s">
-        <v>237</v>
       </c>
       <c r="D5" s="4">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>45</v>
       </c>
       <c r="B6" t="s">
+        <v>251</v>
+      </c>
+      <c r="C6" t="s">
         <v>252</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" s="4" t="s">
         <v>253</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -3014,16 +3014,16 @@
         <v>45</v>
       </c>
       <c r="B7" t="s">
+        <v>237</v>
+      </c>
+      <c r="C7" t="s">
         <v>238</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E7" t="s">
         <v>239</v>
-      </c>
-      <c r="D7" t="s">
-        <v>251</v>
-      </c>
-      <c r="E7" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -3031,16 +3031,16 @@
         <v>42</v>
       </c>
       <c r="B8" t="s">
+        <v>240</v>
+      </c>
+      <c r="C8" t="s">
         <v>241</v>
-      </c>
-      <c r="C8" t="s">
-        <v>242</v>
       </c>
       <c r="D8">
         <v>95</v>
       </c>
       <c r="E8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -3048,13 +3048,13 @@
         <v>45</v>
       </c>
       <c r="B9" t="s">
+        <v>255</v>
+      </c>
+      <c r="C9" t="s">
         <v>256</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>257</v>
-      </c>
-      <c r="D9" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -3062,10 +3062,10 @@
         <v>42</v>
       </c>
       <c r="B10" t="s">
+        <v>243</v>
+      </c>
+      <c r="C10" t="s">
         <v>244</v>
-      </c>
-      <c r="C10" t="s">
-        <v>245</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -3076,13 +3076,13 @@
         <v>170</v>
       </c>
       <c r="B11" t="s">
+        <v>245</v>
+      </c>
+      <c r="C11" t="s">
         <v>246</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>247</v>
-      </c>
-      <c r="E11" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -3090,13 +3090,13 @@
         <v>170</v>
       </c>
       <c r="B12" t="s">
+        <v>248</v>
+      </c>
+      <c r="C12" t="s">
         <v>249</v>
       </c>
-      <c r="C12" t="s">
-        <v>250</v>
-      </c>
       <c r="E12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -3110,7 +3110,7 @@
         <v>60</v>
       </c>
       <c r="E14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -3465,8 +3465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F5CB08-64DF-43C2-9DE2-22477EA8DC69}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3548,7 +3548,7 @@
         <v>220</v>
       </c>
       <c r="D5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E5" t="s">
         <v>222</v>
@@ -3565,7 +3565,7 @@
         <v>221</v>
       </c>
       <c r="D6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E6" t="s">
         <v>223</v>
@@ -3576,16 +3576,16 @@
         <v>45</v>
       </c>
       <c r="B7" t="s">
+        <v>285</v>
+      </c>
+      <c r="C7" t="s">
         <v>286</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>287</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>288</v>
-      </c>
-      <c r="E7" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -3599,10 +3599,10 @@
         <v>225</v>
       </c>
       <c r="D8" t="s">
+        <v>298</v>
+      </c>
+      <c r="E8" t="s">
         <v>226</v>
-      </c>
-      <c r="E8" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -3616,7 +3616,7 @@
         <v>216</v>
       </c>
       <c r="E9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -3630,7 +3630,7 @@
         <v>217</v>
       </c>
       <c r="E10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -3644,7 +3644,7 @@
         <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -3705,7 +3705,7 @@
         <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C3" t="s">
         <v>132</v>
@@ -3719,7 +3719,7 @@
         <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C4" t="s">
         <v>55</v>
@@ -3728,7 +3728,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -3736,16 +3736,16 @@
         <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C5" t="s">
         <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -3753,16 +3753,16 @@
         <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C6" t="s">
         <v>53</v>
       </c>
       <c r="D6" t="s">
+        <v>266</v>
+      </c>
+      <c r="E6" t="s">
         <v>267</v>
-      </c>
-      <c r="E6" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -3770,16 +3770,16 @@
         <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C7" t="s">
         <v>180</v>
       </c>
       <c r="D7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -3790,13 +3790,13 @@
         <v>155</v>
       </c>
       <c r="C8" t="s">
+        <v>270</v>
+      </c>
+      <c r="D8" t="s">
         <v>271</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>272</v>
-      </c>
-      <c r="E8" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -3804,16 +3804,16 @@
         <v>45</v>
       </c>
       <c r="B9" t="s">
+        <v>285</v>
+      </c>
+      <c r="C9" t="s">
         <v>286</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>287</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>288</v>
-      </c>
-      <c r="E9" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -3821,16 +3821,16 @@
         <v>42</v>
       </c>
       <c r="B10" t="s">
+        <v>273</v>
+      </c>
+      <c r="C10" t="s">
         <v>274</v>
-      </c>
-      <c r="C10" t="s">
-        <v>275</v>
       </c>
       <c r="D10" s="4">
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -3838,14 +3838,14 @@
         <v>170</v>
       </c>
       <c r="B11" t="s">
+        <v>276</v>
+      </c>
+      <c r="C11" t="s">
         <v>277</v>
-      </c>
-      <c r="C11" t="s">
-        <v>278</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -3853,14 +3853,14 @@
         <v>170</v>
       </c>
       <c r="B12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C12" t="s">
         <v>217</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -3875,7 +3875,7 @@
       </c>
       <c r="D13" s="4"/>
       <c r="E13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -4035,7 +4035,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E186CFB0-FB04-4702-8C79-E41C2D9D71EE}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -4069,7 +4069,7 @@
         <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -4077,10 +4077,10 @@
         <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -4088,7 +4088,7 @@
         <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C4" t="s">
         <v>72</v>
@@ -4108,7 +4108,7 @@
         <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A932171-C62A-4461-B6F9-D6E7F232607E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E103D0-992A-4668-9200-017339021B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Startseite" sheetId="1" r:id="rId1"/>
@@ -916,9 +916,6 @@
     <t>S_Faktor</t>
   </si>
   <si>
-    <t>`----:1, Schräg:1.3</t>
-  </si>
-  <si>
     <t>Afpreis für Schräge Ausführung</t>
   </si>
   <si>
@@ -950,6 +947,9 @@
   </si>
   <si>
     <t>Durch Steher:0, Mit Halter:1</t>
+  </si>
+  <si>
+    <t>gerade Ausführung:1, schräge Ausführung:1.3</t>
   </si>
 </sst>
 </file>
@@ -1404,10 +1404,10 @@
         <v>260</v>
       </c>
       <c r="B5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -3465,8 +3465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F5CB08-64DF-43C2-9DE2-22477EA8DC69}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3582,10 +3582,10 @@
         <v>286</v>
       </c>
       <c r="D7" t="s">
+        <v>298</v>
+      </c>
+      <c r="E7" t="s">
         <v>287</v>
-      </c>
-      <c r="E7" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -3599,7 +3599,7 @@
         <v>225</v>
       </c>
       <c r="D8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E8" t="s">
         <v>226</v>
@@ -3644,7 +3644,7 @@
         <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -3657,7 +3657,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3810,10 +3810,10 @@
         <v>286</v>
       </c>
       <c r="D9" t="s">
+        <v>298</v>
+      </c>
+      <c r="E9" t="s">
         <v>287</v>
-      </c>
-      <c r="E9" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -3875,7 +3875,7 @@
       </c>
       <c r="D13" s="4"/>
       <c r="E13" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -3887,7 +3887,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
@@ -4069,7 +4069,7 @@
         <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -4077,10 +4077,10 @@
         <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -4088,7 +4088,7 @@
         <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C4" t="s">
         <v>72</v>
@@ -4108,7 +4108,7 @@
         <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E103D0-992A-4668-9200-017339021B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3980E41-CBB8-471C-85E1-5FF3CBECCF66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Startseite" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="300">
   <si>
     <t>Kategorie</t>
   </si>
@@ -950,6 +950,9 @@
   </si>
   <si>
     <t>gerade Ausführung:1, schräge Ausführung:1.3</t>
+  </si>
+  <si>
+    <t>gerade Ausführung:1, schräge Ausführung:1.1</t>
   </si>
 </sst>
 </file>
@@ -3465,8 +3468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F5CB08-64DF-43C2-9DE2-22477EA8DC69}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3582,7 +3585,7 @@
         <v>286</v>
       </c>
       <c r="D7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E7" t="s">
         <v>287</v>
@@ -3887,7 +3890,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>

--- a/katalog.xlsx
+++ b/katalog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meing\Desktop\Kalku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3980E41-CBB8-471C-85E1-5FF3CBECCF66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F9FC1AB-843F-4E61-8456-463CC9C53656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-90" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Startseite" sheetId="1" r:id="rId1"/>
@@ -19,21 +19,22 @@
     <sheet name="Eigen_Edelstahl-Horiz" sheetId="18" r:id="rId4"/>
     <sheet name="Eigen_Glasgel" sheetId="20" r:id="rId5"/>
     <sheet name="Eigen_Edelstahl-Stab" sheetId="15" r:id="rId6"/>
-    <sheet name="Geländer_Eigen_Zubehör" sheetId="21" r:id="rId7"/>
-    <sheet name="Brix_Gel_Stab" sheetId="2" r:id="rId8"/>
-    <sheet name="Brix_Gel_Flaechig" sheetId="3" r:id="rId9"/>
-    <sheet name="Brix_Gel_Glas" sheetId="4" r:id="rId10"/>
-    <sheet name="Zub_Gel" sheetId="5" r:id="rId11"/>
-    <sheet name="Brix_Zaun_Stab" sheetId="6" r:id="rId12"/>
-    <sheet name="Brix_Zaun_Sicht" sheetId="7" r:id="rId13"/>
-    <sheet name="Brix_Tore" sheetId="8" r:id="rId14"/>
-    <sheet name="Brix_Schiebe" sheetId="9" r:id="rId15"/>
-    <sheet name="Zub_Zaun" sheetId="10" r:id="rId16"/>
-    <sheet name="Draht_Matten" sheetId="11" r:id="rId17"/>
-    <sheet name="Draht_Mix" sheetId="12" r:id="rId18"/>
-    <sheet name="Zub_Draht" sheetId="13" r:id="rId19"/>
-    <sheet name="Stahl_Treppe" sheetId="14" r:id="rId20"/>
-    <sheet name="Zub_Montage" sheetId="16" r:id="rId21"/>
+    <sheet name="Eigen_Stab" sheetId="22" r:id="rId7"/>
+    <sheet name="Geländer_Eigen_Zubehör" sheetId="21" r:id="rId8"/>
+    <sheet name="Brix_Gel_Stab" sheetId="2" r:id="rId9"/>
+    <sheet name="Brix_Gel_Flaechig" sheetId="3" r:id="rId10"/>
+    <sheet name="Brix_Gel_Glas" sheetId="4" r:id="rId11"/>
+    <sheet name="Zub_Gel" sheetId="5" r:id="rId12"/>
+    <sheet name="Brix_Zaun_Stab" sheetId="6" r:id="rId13"/>
+    <sheet name="Brix_Zaun_Sicht" sheetId="7" r:id="rId14"/>
+    <sheet name="Brix_Tore" sheetId="8" r:id="rId15"/>
+    <sheet name="Brix_Schiebe" sheetId="9" r:id="rId16"/>
+    <sheet name="Zub_Zaun" sheetId="10" r:id="rId17"/>
+    <sheet name="Draht_Matten" sheetId="11" r:id="rId18"/>
+    <sheet name="Draht_Mix" sheetId="12" r:id="rId19"/>
+    <sheet name="Zub_Draht" sheetId="13" r:id="rId20"/>
+    <sheet name="Stahl_Treppe" sheetId="14" r:id="rId21"/>
+    <sheet name="Zub_Montage" sheetId="16" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="322">
   <si>
     <t>Kategorie</t>
   </si>
@@ -953,6 +954,72 @@
   </si>
   <si>
     <t>gerade Ausführung:1, schräge Ausführung:1.1</t>
+  </si>
+  <si>
+    <t>Edelstahl-Geländer mit Stabfüllung Vertikal</t>
+  </si>
+  <si>
+    <t>Eigen_Stab</t>
+  </si>
+  <si>
+    <t>Zeile</t>
+  </si>
+  <si>
+    <t>Höhe (m)</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>Material / Oberfläche (€/m)</t>
+  </si>
+  <si>
+    <t>Stahl verzinkt:120, Stahl beschichtet:160, Edelstahl geschliffen:220</t>
+  </si>
+  <si>
+    <t>Preis für Rahmen (Handlauf+Gurt)</t>
+  </si>
+  <si>
+    <t>Füllstäbe Profil (€/m)</t>
+  </si>
+  <si>
+    <t>P_Stab</t>
+  </si>
+  <si>
+    <t>Rund 12mm:4.50, Rund 14mm:6.50, Flach 40x8:9.00, Flach 30x6:7.50, QR 14mm:7.00</t>
+  </si>
+  <si>
+    <t>Materialpreis pro Meter Stab</t>
+  </si>
+  <si>
+    <t>F_Mont</t>
+  </si>
+  <si>
+    <t>Aufsatzmontage:0, Seitenmontage:25</t>
+  </si>
+  <si>
+    <t>Aufpreis pro Pfosten</t>
+  </si>
+  <si>
+    <t>Intern: Anzahl Stäbe</t>
+  </si>
+  <si>
+    <t>N_Bars</t>
+  </si>
+  <si>
+    <t>math.ceil(max(L, 1.0) / 0.12)</t>
+  </si>
+  <si>
+    <t>Intern: Anzahl Pfosten</t>
+  </si>
+  <si>
+    <t>N_Post</t>
+  </si>
+  <si>
+    <t>math.ceil(max(L, 1.0) / 1.3) + 1</t>
+  </si>
+  <si>
+    <t>((max(L,1.0) * P_Basis) + (N_Bars * H * P_Stab) + (N_Post * (50 + F_Mont))) * (1 - (Rabatt/100))</t>
   </si>
 </sst>
 </file>
@@ -1345,10 +1412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1407,10 +1474,10 @@
         <v>260</v>
       </c>
       <c r="B5" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="C5" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1418,21 +1485,21 @@
         <v>260</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>291</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>260</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1440,10 +1507,10 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>231</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>232</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1451,10 +1518,10 @@
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>231</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1462,21 +1529,21 @@
         <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1484,10 +1551,10 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1495,10 +1562,10 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1506,21 +1573,21 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1528,10 +1595,10 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1539,10 +1606,10 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1550,10 +1617,10 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1561,21 +1628,21 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1583,10 +1650,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1594,9 +1661,20 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
         <v>28</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1606,6 +1684,143 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="91.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -1756,7 +1971,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -1906,7 +2121,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -2043,7 +2258,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -2180,7 +2395,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -2317,7 +2532,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -2457,7 +2672,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -2531,7 +2746,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -2709,7 +2924,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -2830,77 +3045,6 @@
       </c>
       <c r="E8" t="s">
         <v>61</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -3122,6 +3266,77 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -3284,7 +3499,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -3468,7 +3683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F5CB08-64DF-43C2-9DE2-22477EA8DC69}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="D4" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -3891,7 +4106,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection sqref="A1:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4014,6 +4229,9 @@
       <c r="C8" t="s">
         <v>173</v>
       </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -4035,6 +4253,212 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F38A4E0E-B9A3-4678-B1F1-C969BCD1E759}">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="74.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>305</v>
+      </c>
+      <c r="D4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" t="s">
+        <v>306</v>
+      </c>
+      <c r="F4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>308</v>
+      </c>
+      <c r="D5" t="s">
+        <v>309</v>
+      </c>
+      <c r="E5" t="s">
+        <v>310</v>
+      </c>
+      <c r="F5" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D6" t="s">
+        <v>312</v>
+      </c>
+      <c r="E6" t="s">
+        <v>313</v>
+      </c>
+      <c r="F6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>243</v>
+      </c>
+      <c r="D7" t="s">
+        <v>244</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C8" t="s">
+        <v>315</v>
+      </c>
+      <c r="D8" t="s">
+        <v>316</v>
+      </c>
+      <c r="F8" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9" t="s">
+        <v>318</v>
+      </c>
+      <c r="D9" t="s">
+        <v>319</v>
+      </c>
+      <c r="F9" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" t="s">
+        <v>321</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E186CFB0-FB04-4702-8C79-E41C2D9D71EE}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -4119,7 +4543,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -4310,141 +4734,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="91.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>